--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E176DA-CE10-E24E-917F-C39B361D1E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7C553B-0F6D-D447-956A-2220509E33B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Inventory Growth YoY</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -932,7 +935,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -978,6 +980,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,9 +1000,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1314,13 +1316,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC118"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y102" sqref="Y102"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1542,7 +1544,7 @@
         <v>6256617000</v>
       </c>
       <c r="U3" s="28">
-        <v>8037000000</v>
+        <v>9300000000</v>
       </c>
       <c r="V3" s="28">
         <v>9174000000</v>
@@ -1648,11 +1650,11 @@
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28456001062555059</v>
+        <v>0.48642629075744925</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1414706980216498</v>
+        <v>-1.3548387096774195E-2</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
@@ -1679,7 +1681,7 @@
         <v>0.30092152076057715</v>
       </c>
       <c r="AC4" s="17">
-        <f>(T105+S105+R105)/3</f>
+        <f>(T106+S106+R106)/3</f>
         <v>0.32196822099572914</v>
       </c>
     </row>
@@ -1893,7 +1895,7 @@
         <v>0.15590000000000001</v>
       </c>
       <c r="AC7" s="20">
-        <f>T106/T3</f>
+        <f>T107/T3</f>
         <v>0.15896865670377458</v>
       </c>
     </row>
@@ -2122,11 +2124,11 @@
         <v>0.35562892854077532</v>
       </c>
       <c r="AB10" s="20">
-        <f>T80</f>
+        <f>T81</f>
         <v>1.1050220910118039E-2</v>
       </c>
       <c r="AC10" s="20">
-        <f>T89</f>
+        <f>T90</f>
         <v>6.3053563930795184E-2</v>
       </c>
     </row>
@@ -2347,19 +2349,19 @@
         <v>0.35562892854077532</v>
       </c>
       <c r="Z13" s="17">
-        <f>T28/T72</f>
+        <f>T28/T73</f>
         <v>0.35595095848755826</v>
       </c>
       <c r="AA13" s="20">
-        <f>T28/T54</f>
+        <f>T28/T55</f>
         <v>0.19733461636045724</v>
       </c>
       <c r="AB13" s="20">
-        <f>T22/(T72+T56+T61)</f>
+        <f>T22/(T73+T57+T62)</f>
         <v>0.36821842435636926</v>
       </c>
       <c r="AC13" s="21">
-        <f>T67/T72</f>
+        <f>T68/T73</f>
         <v>0.80379380492152319</v>
       </c>
     </row>
@@ -2565,16 +2567,16 @@
         <v>-1.038938423670681E-2</v>
       </c>
       <c r="AA16" s="30">
-        <f>AB101/T3</f>
-        <v>6.0380873561542927</v>
+        <f>AB102/T3</f>
+        <v>7.4449918382410178</v>
       </c>
       <c r="AB16" s="30">
-        <f>AB101/T28</f>
-        <v>38.733874556300378</v>
+        <f>AB102/T28</f>
+        <v>47.759060597423208</v>
       </c>
       <c r="AC16" s="31">
-        <f>AB101/T106</f>
-        <v>37.982879652847458</v>
+        <f>AB102/T107</f>
+        <v>46.833080134244113</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -2765,8 +2767,8 @@
       <c r="T19" s="10">
         <v>1558075000</v>
       </c>
-      <c r="Z19" s="67">
-        <f>T40-T56-T61</f>
+      <c r="Z19" s="60">
+        <f>T40-T57-T62</f>
         <v>378819000</v>
       </c>
     </row>
@@ -3607,6 +3609,9 @@
       <c r="T32" s="12">
         <v>7.49</v>
       </c>
+      <c r="U32" s="12">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -4244,195 +4249,211 @@
         <v>966481000</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="22" t="e">
+        <f>(C42-B42)/B42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" s="22" t="e">
+        <f t="shared" ref="D43" si="17">(D42-C42)/C42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="shared" ref="E43" si="18">(E42-D42)/D42</f>
+        <v>0.26332020756735464</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" ref="F43" si="19">(F42-E42)/E42</f>
+        <v>0.4680802954381334</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" ref="G43" si="20">(G42-F42)/F42</f>
+        <v>0.33149017829844762</v>
+      </c>
+      <c r="H43" s="22">
+        <f t="shared" ref="H43" si="21">(H42-G42)/G42</f>
+        <v>-0.15332861448999979</v>
+      </c>
+      <c r="I43" s="22">
+        <f t="shared" ref="I43" si="22">(I42-H42)/H42</f>
+        <v>0.30403902881778988</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="shared" ref="J43" si="23">(J42-I42)/I42</f>
+        <v>0.81135916755120152</v>
+      </c>
+      <c r="K43" s="22">
+        <f t="shared" ref="K43" si="24">(K42-J42)/J42</f>
+        <v>0.49112846671854138</v>
+      </c>
+      <c r="L43" s="22">
+        <f t="shared" ref="L43" si="25">(L42-K42)/K42</f>
+        <v>0.19886356315470746</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" ref="M43" si="26">(M42-L42)/L42</f>
+        <v>0.11836208286313074</v>
+      </c>
+      <c r="N43" s="22">
+        <f t="shared" ref="N43" si="27">(N42-M42)/M42</f>
+        <v>0.36466682042706949</v>
+      </c>
+      <c r="O43" s="22">
+        <f t="shared" ref="O43" si="28">(O42-N42)/N42</f>
+        <v>5.0783601928107915E-2</v>
+      </c>
+      <c r="P43" s="22">
+        <f t="shared" ref="P43" si="29">(P42-O42)/O42</f>
+        <v>0.1043118700407463</v>
+      </c>
+      <c r="Q43" s="22">
+        <f t="shared" ref="Q43" si="30">(Q42-P42)/P42</f>
+        <v>0.22842439358906669</v>
+      </c>
+      <c r="R43" s="22">
+        <f t="shared" ref="R43" si="31">(R42-Q42)/Q42</f>
+        <v>0.28077867414942126</v>
+      </c>
+      <c r="S43" s="22">
+        <f t="shared" ref="S43" si="32">(S42-R42)/R42</f>
+        <v>0.24824257058164403</v>
+      </c>
+      <c r="T43" s="22">
+        <f t="shared" ref="T43" si="33">(T42-S42)/S42</f>
+        <v>0.49325742008250545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="1">
         <v>962145</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>3545431</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>1043328</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G44" s="1">
         <v>4111024</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H44" s="1">
         <v>4529000</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I44" s="1">
         <v>6408000</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J44" s="1">
         <v>8357000</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K44" s="1">
         <v>35301000</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L44" s="1">
         <v>46197000</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M44" s="1">
         <v>64671000</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N44" s="1">
         <v>118440000</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O44" s="1">
         <v>120259000</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P44" s="1">
         <v>97046000</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q44" s="1">
         <v>107334000</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R44" s="1">
         <v>155701000</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S44" s="1">
         <v>250924000</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T44" s="1">
         <v>311500000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="10">
+      <c r="B45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="10">
         <v>27217324</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>48492743</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>97906418</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>116987928</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H45" s="10">
         <v>216410000</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I45" s="10">
         <v>389279000</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J45" s="10">
         <v>527093000</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K45" s="10">
         <v>787053000</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L45" s="10">
         <v>942839000</v>
       </c>
-      <c r="M44" s="10">
+      <c r="M45" s="10">
         <v>951012000</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N45" s="10">
         <v>917039000</v>
       </c>
-      <c r="O44" s="10">
+      <c r="O45" s="10">
         <v>1162737000</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P45" s="10">
         <v>1436282000</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q45" s="10">
         <v>1429282000</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R45" s="10">
         <v>1807938000</v>
       </c>
-      <c r="S44" s="10">
+      <c r="S45" s="10">
         <v>2124379000</v>
       </c>
-      <c r="T44" s="10">
+      <c r="T45" s="10">
         <v>2614853000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="1">
-        <v>10426795</v>
-      </c>
-      <c r="E45" s="1">
-        <v>18822239</v>
-      </c>
-      <c r="F45" s="1">
-        <v>44038565</v>
-      </c>
-      <c r="G45" s="1">
-        <v>61661813</v>
-      </c>
-      <c r="H45" s="1">
-        <v>61591000</v>
-      </c>
-      <c r="I45" s="1">
-        <v>70954000</v>
-      </c>
-      <c r="J45" s="1">
-        <v>162941000</v>
-      </c>
-      <c r="K45" s="1">
-        <v>214639000</v>
-      </c>
-      <c r="L45" s="1">
-        <v>255603000</v>
-      </c>
-      <c r="M45" s="1">
-        <v>296008000</v>
-      </c>
-      <c r="N45" s="1">
-        <v>349605000</v>
-      </c>
-      <c r="O45" s="1">
-        <v>423499000</v>
-      </c>
-      <c r="P45" s="1">
-        <v>473642000</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>567237000</v>
-      </c>
-      <c r="R45" s="1">
-        <v>1361357000</v>
-      </c>
-      <c r="S45" s="1">
-        <v>1480522000</v>
-      </c>
-      <c r="T45" s="1">
-        <v>1731253000</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>92</v>
@@ -4441,60 +4462,60 @@
         <v>92</v>
       </c>
       <c r="D46" s="1">
-        <v>840325</v>
+        <v>10426795</v>
       </c>
       <c r="E46" s="1">
-        <v>811678</v>
+        <v>18822239</v>
       </c>
       <c r="F46" s="1">
-        <v>962618</v>
+        <v>44038565</v>
       </c>
       <c r="G46" s="1">
-        <v>774128</v>
+        <v>61661813</v>
       </c>
       <c r="H46" s="1">
-        <v>899000</v>
+        <v>61591000</v>
       </c>
       <c r="I46" s="1">
-        <v>20274000</v>
+        <v>70954000</v>
       </c>
       <c r="J46" s="1">
-        <v>26336000</v>
+        <v>162941000</v>
       </c>
       <c r="K46" s="1">
-        <v>26060000</v>
+        <v>214639000</v>
       </c>
       <c r="L46" s="1">
-        <v>25279000</v>
+        <v>255603000</v>
       </c>
       <c r="M46" s="1">
-        <v>24413000</v>
+        <v>296008000</v>
       </c>
       <c r="N46" s="1">
-        <v>23830000</v>
+        <v>349605000</v>
       </c>
       <c r="O46" s="1">
-        <v>24233000</v>
+        <v>423499000</v>
       </c>
       <c r="P46" s="1">
-        <v>24606000</v>
+        <v>473642000</v>
       </c>
       <c r="Q46" s="1">
-        <v>24239000</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>567237000</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1361357000</v>
       </c>
       <c r="S46" s="1">
-        <v>386877000</v>
+        <v>1480522000</v>
       </c>
       <c r="T46" s="1">
-        <v>386880000</v>
+        <v>1731253000</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>92</v>
@@ -4503,60 +4524,60 @@
         <v>92</v>
       </c>
       <c r="D47" s="1">
-        <v>2441739</v>
+        <v>840325</v>
       </c>
       <c r="E47" s="1">
-        <v>2140011</v>
+        <v>811678</v>
       </c>
       <c r="F47" s="1">
-        <v>7161429</v>
+        <v>962618</v>
       </c>
       <c r="G47" s="1">
-        <v>7386206</v>
+        <v>774128</v>
       </c>
       <c r="H47" s="1">
-        <v>7151000</v>
+        <v>899000</v>
       </c>
       <c r="I47" s="1">
-        <v>6838000</v>
+        <v>20274000</v>
       </c>
       <c r="J47" s="1">
-        <v>5536000</v>
+        <v>26336000</v>
       </c>
       <c r="K47" s="1">
-        <v>4141000</v>
+        <v>26060000</v>
       </c>
       <c r="L47" s="1">
-        <v>2922000</v>
+        <v>25279000</v>
       </c>
       <c r="M47" s="1">
-        <v>1750000</v>
+        <v>24413000</v>
       </c>
       <c r="N47" s="1">
-        <v>947000</v>
+        <v>23830000</v>
       </c>
       <c r="O47" s="1">
-        <v>324000</v>
+        <v>24233000</v>
       </c>
       <c r="P47" s="1">
-        <v>73000</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>24606000</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>24239000</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S47" s="1">
-        <v>80080000</v>
+        <v>386877000</v>
       </c>
       <c r="T47" s="1">
-        <v>71299000</v>
+        <v>386880000</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>92</v>
@@ -4565,60 +4586,60 @@
         <v>92</v>
       </c>
       <c r="D48" s="1">
-        <v>3282064</v>
+        <v>2441739</v>
       </c>
       <c r="E48" s="1">
-        <v>2951689</v>
+        <v>2140011</v>
       </c>
       <c r="F48" s="1">
-        <v>8124047</v>
+        <v>7161429</v>
       </c>
       <c r="G48" s="1">
-        <v>8160334</v>
+        <v>7386206</v>
       </c>
       <c r="H48" s="1">
-        <v>8050000</v>
+        <v>7151000</v>
       </c>
       <c r="I48" s="1">
-        <v>27112000</v>
+        <v>6838000</v>
       </c>
       <c r="J48" s="1">
-        <v>31872000</v>
+        <v>5536000</v>
       </c>
       <c r="K48" s="1">
-        <v>30201000</v>
+        <v>4141000</v>
       </c>
       <c r="L48" s="1">
-        <v>28201000</v>
+        <v>2922000</v>
       </c>
       <c r="M48" s="1">
-        <v>26163000</v>
+        <v>1750000</v>
       </c>
       <c r="N48" s="1">
-        <v>24777000</v>
+        <v>947000</v>
       </c>
       <c r="O48" s="1">
-        <v>24557000</v>
+        <v>324000</v>
       </c>
       <c r="P48" s="1">
-        <v>24679000</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>24239000</v>
-      </c>
-      <c r="R48" s="1">
-        <v>24423000</v>
+        <v>73000</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="S48" s="1">
-        <v>466957000</v>
+        <v>80080000</v>
       </c>
       <c r="T48" s="1">
-        <v>458179000</v>
+        <v>71299000</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>92</v>
@@ -4626,61 +4647,61 @@
       <c r="C49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>92</v>
+      <c r="D49" s="1">
+        <v>3282064</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2951689</v>
+      </c>
+      <c r="F49" s="1">
+        <v>8124047</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8160334</v>
+      </c>
+      <c r="H49" s="1">
+        <v>8050000</v>
+      </c>
+      <c r="I49" s="1">
+        <v>27112000</v>
+      </c>
+      <c r="J49" s="1">
+        <v>31872000</v>
+      </c>
+      <c r="K49" s="1">
+        <v>30201000</v>
+      </c>
+      <c r="L49" s="1">
+        <v>28201000</v>
+      </c>
+      <c r="M49" s="1">
+        <v>26163000</v>
+      </c>
+      <c r="N49" s="1">
+        <v>24777000</v>
+      </c>
+      <c r="O49" s="1">
+        <v>24557000</v>
+      </c>
+      <c r="P49" s="1">
+        <v>24679000</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>24239000</v>
+      </c>
+      <c r="R49" s="1">
+        <v>24423000</v>
+      </c>
+      <c r="S49" s="1">
+        <v>466957000</v>
+      </c>
+      <c r="T49" s="1">
+        <v>458179000</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>92</v>
@@ -4688,61 +4709,61 @@
       <c r="C50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="1">
-        <v>186772</v>
-      </c>
-      <c r="E50" s="1">
-        <v>588397</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1124597</v>
-      </c>
-      <c r="G50" s="1">
-        <v>19373559</v>
-      </c>
-      <c r="H50" s="1">
-        <v>15102000</v>
-      </c>
-      <c r="I50" s="1">
-        <v>7894000</v>
-      </c>
-      <c r="J50" s="1">
-        <v>8587000</v>
-      </c>
-      <c r="K50" s="1">
-        <v>15033000</v>
-      </c>
-      <c r="L50" s="1">
-        <v>18300000</v>
-      </c>
-      <c r="M50" s="1">
-        <v>16018000</v>
-      </c>
-      <c r="N50" s="1">
-        <v>11802000</v>
-      </c>
-      <c r="O50" s="1">
-        <v>26256000</v>
-      </c>
-      <c r="P50" s="1">
-        <v>32491000</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>26549000</v>
-      </c>
-      <c r="R50" s="1">
-        <v>31435000</v>
-      </c>
-      <c r="S50" s="1">
-        <v>6731000</v>
-      </c>
-      <c r="T50" s="1">
-        <v>6091000</v>
+      <c r="D50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>92</v>
@@ -4751,60 +4772,60 @@
         <v>92</v>
       </c>
       <c r="D51" s="1">
-        <v>801012</v>
+        <v>186772</v>
       </c>
       <c r="E51" s="1">
-        <v>999470</v>
+        <v>588397</v>
       </c>
       <c r="F51" s="1">
-        <v>3898515</v>
+        <v>1124597</v>
       </c>
       <c r="G51" s="1">
-        <v>5452735</v>
+        <v>19373559</v>
       </c>
       <c r="H51" s="1">
-        <v>6105000</v>
+        <v>15102000</v>
       </c>
       <c r="I51" s="1">
-        <v>4063000</v>
+        <v>7894000</v>
       </c>
       <c r="J51" s="1">
-        <v>4141000</v>
+        <v>8587000</v>
       </c>
       <c r="K51" s="1">
-        <v>4152000</v>
+        <v>15033000</v>
       </c>
       <c r="L51" s="1">
-        <v>4745000</v>
+        <v>18300000</v>
       </c>
       <c r="M51" s="1">
-        <v>7012000</v>
+        <v>16018000</v>
       </c>
       <c r="N51" s="1">
-        <v>10854000</v>
+        <v>11802000</v>
       </c>
       <c r="O51" s="1">
-        <v>20492000</v>
+        <v>26256000</v>
       </c>
       <c r="P51" s="1">
-        <v>31389000</v>
+        <v>32491000</v>
       </c>
       <c r="Q51" s="1">
-        <v>37404000</v>
+        <v>26549000</v>
       </c>
       <c r="R51" s="1">
-        <v>56201000</v>
+        <v>31435000</v>
       </c>
       <c r="S51" s="1">
-        <v>106626000</v>
+        <v>6731000</v>
       </c>
       <c r="T51" s="1">
-        <v>132102000</v>
+        <v>6091000</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>92</v>
@@ -4813,246 +4834,246 @@
         <v>92</v>
       </c>
       <c r="D52" s="1">
-        <v>14696643</v>
+        <v>801012</v>
       </c>
       <c r="E52" s="1">
-        <v>23361795</v>
+        <v>999470</v>
       </c>
       <c r="F52" s="1">
-        <v>57185724</v>
+        <v>3898515</v>
       </c>
       <c r="G52" s="1">
-        <v>94648441</v>
+        <v>5452735</v>
       </c>
       <c r="H52" s="1">
-        <v>90848000</v>
+        <v>6105000</v>
       </c>
       <c r="I52" s="1">
-        <v>110023000</v>
+        <v>4063000</v>
       </c>
       <c r="J52" s="1">
-        <v>207541000</v>
+        <v>4141000</v>
       </c>
       <c r="K52" s="1">
-        <v>264025000</v>
+        <v>4152000</v>
       </c>
       <c r="L52" s="1">
-        <v>306849000</v>
+        <v>4745000</v>
       </c>
       <c r="M52" s="1">
-        <v>345201000</v>
+        <v>7012000</v>
       </c>
       <c r="N52" s="1">
-        <v>397038000</v>
+        <v>10854000</v>
       </c>
       <c r="O52" s="1">
-        <v>494804000</v>
+        <v>20492000</v>
       </c>
       <c r="P52" s="1">
-        <v>562201000</v>
+        <v>31389000</v>
       </c>
       <c r="Q52" s="1">
-        <v>655429000</v>
+        <v>37404000</v>
       </c>
       <c r="R52" s="1">
-        <v>1473416000</v>
+        <v>56201000</v>
       </c>
       <c r="S52" s="1">
-        <v>2060836000</v>
+        <v>106626000</v>
       </c>
       <c r="T52" s="1">
-        <v>2327625000</v>
+        <v>132102000</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="1">
+        <v>14696643</v>
+      </c>
+      <c r="E53" s="1">
+        <v>23361795</v>
+      </c>
+      <c r="F53" s="1">
+        <v>57185724</v>
+      </c>
+      <c r="G53" s="1">
+        <v>94648441</v>
+      </c>
+      <c r="H53" s="1">
+        <v>90848000</v>
+      </c>
+      <c r="I53" s="1">
+        <v>110023000</v>
+      </c>
+      <c r="J53" s="1">
+        <v>207541000</v>
+      </c>
+      <c r="K53" s="1">
+        <v>264025000</v>
+      </c>
+      <c r="L53" s="1">
+        <v>306849000</v>
+      </c>
+      <c r="M53" s="1">
+        <v>345201000</v>
+      </c>
+      <c r="N53" s="1">
+        <v>397038000</v>
+      </c>
+      <c r="O53" s="1">
+        <v>494804000</v>
+      </c>
+      <c r="P53" s="1">
+        <v>562201000</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>655429000</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1473416000</v>
+      </c>
+      <c r="S53" s="1">
+        <v>2060836000</v>
+      </c>
+      <c r="T53" s="1">
+        <v>2327625000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1">
         <v>2323000</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="B55" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="11">
         <v>2323000</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>41913967</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>71854538</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>155092142</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>211636369</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H55" s="11">
         <v>307258000</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I55" s="11">
         <v>499302000</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J55" s="11">
         <v>734634000</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K55" s="11">
         <v>1051078000</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L55" s="11">
         <v>1249688000</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M55" s="11">
         <v>1296213000</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N55" s="11">
         <v>1314077000</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O55" s="11">
         <v>1657541000</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P55" s="11">
         <v>1998483000</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q55" s="11">
         <v>2084711000</v>
       </c>
-      <c r="R54" s="11">
+      <c r="R55" s="11">
         <v>3281354000</v>
       </c>
-      <c r="S54" s="11">
+      <c r="S55" s="11">
         <v>4185215000</v>
       </c>
-      <c r="T54" s="11">
+      <c r="T55" s="11">
         <v>4942478000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5877048</v>
-      </c>
-      <c r="E55" s="1">
-        <v>4932960</v>
-      </c>
-      <c r="F55" s="1">
-        <v>5199604</v>
-      </c>
-      <c r="G55" s="1">
-        <v>5269423</v>
-      </c>
-      <c r="H55" s="1">
-        <v>11028000</v>
-      </c>
-      <c r="I55" s="1">
-        <v>6659000</v>
-      </c>
-      <c r="J55" s="1">
-        <v>14536000</v>
-      </c>
-      <c r="K55" s="1">
-        <v>1045000</v>
-      </c>
-      <c r="L55" s="1">
-        <v>12647000</v>
-      </c>
-      <c r="M55" s="1">
-        <v>9339000</v>
-      </c>
-      <c r="N55" s="1">
-        <v>10381000</v>
-      </c>
-      <c r="O55" s="1">
-        <v>24846000</v>
-      </c>
-      <c r="P55" s="1">
-        <v>24646000</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>95533000</v>
-      </c>
-      <c r="R55" s="1">
-        <v>79997000</v>
-      </c>
-      <c r="S55" s="1">
-        <v>172246000</v>
-      </c>
-      <c r="T55" s="1">
-        <v>289728000</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>92</v>
@@ -5060,61 +5081,61 @@
       <c r="C56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>92</v>
+      <c r="D56" s="1">
+        <v>5877048</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4932960</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5199604</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5269423</v>
+      </c>
+      <c r="H56" s="1">
+        <v>11028000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>6659000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>14536000</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1045000</v>
+      </c>
+      <c r="L56" s="1">
+        <v>12647000</v>
+      </c>
+      <c r="M56" s="1">
+        <v>9339000</v>
+      </c>
+      <c r="N56" s="1">
+        <v>10381000</v>
+      </c>
+      <c r="O56" s="1">
+        <v>24846000</v>
+      </c>
+      <c r="P56" s="1">
+        <v>24646000</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>95533000</v>
       </c>
       <c r="R56" s="1">
-        <v>128497000</v>
+        <v>79997000</v>
       </c>
       <c r="S56" s="1">
-        <v>166091000</v>
+        <v>172246000</v>
       </c>
       <c r="T56" s="1">
-        <v>188996000</v>
+        <v>289728000</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>92</v>
@@ -5134,49 +5155,49 @@
       <c r="G57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H57" s="1">
-        <v>7742000</v>
-      </c>
-      <c r="I57" s="1">
-        <v>18399000</v>
-      </c>
-      <c r="J57" s="1">
-        <v>21460000</v>
-      </c>
-      <c r="K57" s="1">
-        <v>48138000</v>
-      </c>
-      <c r="L57" s="1">
-        <v>9110000</v>
-      </c>
-      <c r="M57" s="1">
-        <v>28652000</v>
-      </c>
-      <c r="N57" s="1">
-        <v>48242000</v>
-      </c>
-      <c r="O57" s="1">
-        <v>40472000</v>
-      </c>
-      <c r="P57" s="1">
-        <v>27511000</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>83503000</v>
+      <c r="H57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="R57" s="1">
-        <v>43806000</v>
+        <v>128497000</v>
       </c>
       <c r="S57" s="1">
-        <v>23603000</v>
+        <v>166091000</v>
       </c>
       <c r="T57" s="1">
-        <v>147392000</v>
+        <v>188996000</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
@@ -5196,235 +5217,235 @@
       <c r="G58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>92</v>
+      <c r="H58" s="1">
+        <v>7742000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>18399000</v>
       </c>
       <c r="J58" s="1">
-        <v>22773000</v>
+        <v>21460000</v>
       </c>
       <c r="K58" s="1">
-        <v>35113000</v>
+        <v>48138000</v>
       </c>
       <c r="L58" s="1">
-        <v>38343000</v>
+        <v>9110000</v>
       </c>
       <c r="M58" s="1">
-        <v>46252000</v>
+        <v>28652000</v>
       </c>
       <c r="N58" s="1">
-        <v>57736000</v>
+        <v>48242000</v>
       </c>
       <c r="O58" s="1">
-        <v>70454000</v>
+        <v>40472000</v>
       </c>
       <c r="P58" s="1">
-        <v>82668000</v>
+        <v>27511000</v>
       </c>
       <c r="Q58" s="1">
-        <v>107457000</v>
+        <v>83503000</v>
       </c>
       <c r="R58" s="1">
-        <v>133118000</v>
+        <v>43806000</v>
       </c>
       <c r="S58" s="1">
-        <v>155848000</v>
+        <v>23603000</v>
       </c>
       <c r="T58" s="1">
-        <v>208195000</v>
+        <v>147392000</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59" s="1">
+        <v>22773000</v>
+      </c>
+      <c r="K59" s="1">
+        <v>35113000</v>
+      </c>
+      <c r="L59" s="1">
+        <v>38343000</v>
+      </c>
+      <c r="M59" s="1">
+        <v>46252000</v>
+      </c>
+      <c r="N59" s="1">
+        <v>57736000</v>
+      </c>
+      <c r="O59" s="1">
+        <v>70454000</v>
+      </c>
+      <c r="P59" s="1">
+        <v>82668000</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>107457000</v>
+      </c>
+      <c r="R59" s="1">
+        <v>133118000</v>
+      </c>
+      <c r="S59" s="1">
+        <v>155848000</v>
+      </c>
+      <c r="T59" s="1">
+        <v>208195000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="1">
         <v>6365019</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E60" s="1">
         <v>26351077</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F60" s="1">
         <v>30621947</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G60" s="1">
         <v>40065494</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H60" s="1">
         <v>39908000</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I60" s="1">
         <v>60306000</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J60" s="1">
         <v>44670000</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K60" s="1">
         <v>49061000</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L60" s="1">
         <v>53414000</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M60" s="1">
         <v>75638000</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N60" s="1">
         <v>109145000</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O60" s="1">
         <v>105677000</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P60" s="1">
         <v>157773000</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q60" s="1">
         <v>213984000</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R60" s="1">
         <v>235000000</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S60" s="1">
         <v>365390000</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T60" s="1">
         <v>571023000</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="61" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="10">
+      <c r="B61" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="10">
         <v>12242067</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>31284037</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>35821551</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>45334917</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H61" s="10">
         <v>58678000</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I61" s="10">
         <v>85364000</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J61" s="10">
         <v>103439000</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K61" s="10">
         <v>133357000</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L61" s="10">
         <v>113514000</v>
       </c>
-      <c r="M60" s="10">
+      <c r="M61" s="10">
         <v>159881000</v>
       </c>
-      <c r="N60" s="10">
+      <c r="N61" s="10">
         <v>225504000</v>
       </c>
-      <c r="O60" s="10">
+      <c r="O61" s="10">
         <v>241449000</v>
       </c>
-      <c r="P60" s="10">
+      <c r="P61" s="10">
         <v>292598000</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q61" s="10">
         <v>500477000</v>
       </c>
-      <c r="R60" s="10">
+      <c r="R61" s="10">
         <v>620418000</v>
       </c>
-      <c r="S60" s="10">
+      <c r="S61" s="10">
         <v>883178000</v>
       </c>
-      <c r="T60" s="10">
+      <c r="T61" s="10">
         <v>1405334000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R61" s="1">
-        <v>611464000</v>
-      </c>
-      <c r="S61" s="1">
-        <v>632590000</v>
-      </c>
-      <c r="T61" s="1">
-        <v>692056000</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
@@ -5474,19 +5495,19 @@
       <c r="Q62" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>92</v>
+      <c r="R62" s="1">
+        <v>611464000</v>
+      </c>
+      <c r="S62" s="1">
+        <v>632590000</v>
+      </c>
+      <c r="T62" s="1">
+        <v>692056000</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>92</v>
@@ -5494,17 +5515,17 @@
       <c r="C63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="1">
-        <v>536707</v>
-      </c>
-      <c r="E63" s="1">
-        <v>384354</v>
-      </c>
-      <c r="F63" s="1">
-        <v>196538</v>
-      </c>
-      <c r="G63" s="1">
-        <v>158054</v>
+      <c r="D63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>92</v>
@@ -5518,37 +5539,37 @@
       <c r="K63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L63" s="1">
-        <v>3977000</v>
-      </c>
-      <c r="M63" s="1">
-        <v>3633000</v>
-      </c>
-      <c r="N63" s="1">
-        <v>10759000</v>
-      </c>
-      <c r="O63" s="1">
-        <v>7262000</v>
-      </c>
-      <c r="P63" s="1">
-        <v>1336000</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>14249000</v>
-      </c>
-      <c r="R63" s="1">
-        <v>43432000</v>
-      </c>
-      <c r="S63" s="1">
-        <v>58755000</v>
-      </c>
-      <c r="T63" s="1">
-        <v>53352000</v>
+      <c r="L63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>92</v>
@@ -5557,60 +5578,60 @@
         <v>92</v>
       </c>
       <c r="D64" s="1">
-        <v>1073409</v>
+        <v>536707</v>
       </c>
       <c r="E64" s="1">
-        <v>2239650</v>
+        <v>384354</v>
       </c>
       <c r="F64" s="1">
-        <v>6721220</v>
+        <v>196538</v>
       </c>
       <c r="G64" s="1">
-        <v>11300713</v>
-      </c>
-      <c r="H64" s="1">
-        <v>15472000</v>
-      </c>
-      <c r="I64" s="1">
-        <v>19645000</v>
-      </c>
-      <c r="J64" s="1">
-        <v>25014000</v>
-      </c>
-      <c r="K64" s="1">
-        <v>30422000</v>
+        <v>158054</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="L64" s="1">
-        <v>35515000</v>
+        <v>3977000</v>
       </c>
       <c r="M64" s="1">
-        <v>43131000</v>
+        <v>3633000</v>
       </c>
       <c r="N64" s="1">
-        <v>50332000</v>
+        <v>10759000</v>
       </c>
       <c r="O64" s="1">
-        <v>48857000</v>
+        <v>7262000</v>
       </c>
       <c r="P64" s="1">
-        <v>107589000</v>
+        <v>1336000</v>
       </c>
       <c r="Q64" s="1">
-        <v>124010000</v>
+        <v>14249000</v>
       </c>
       <c r="R64" s="1">
-        <v>53822000</v>
+        <v>43432000</v>
       </c>
       <c r="S64" s="1">
-        <v>52126000</v>
+        <v>58755000</v>
       </c>
       <c r="T64" s="1">
-        <v>51690000</v>
+        <v>53352000</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>92</v>
@@ -5619,16 +5640,16 @@
         <v>92</v>
       </c>
       <c r="D65" s="1">
-        <v>1610116</v>
+        <v>1073409</v>
       </c>
       <c r="E65" s="1">
-        <v>2624004</v>
+        <v>2239650</v>
       </c>
       <c r="F65" s="1">
-        <v>6917758</v>
+        <v>6721220</v>
       </c>
       <c r="G65" s="1">
-        <v>11458767</v>
+        <v>11300713</v>
       </c>
       <c r="H65" s="1">
         <v>15472000</v>
@@ -5643,222 +5664,222 @@
         <v>30422000</v>
       </c>
       <c r="L65" s="1">
-        <v>39492000</v>
+        <v>35515000</v>
       </c>
       <c r="M65" s="1">
-        <v>46764000</v>
+        <v>43131000</v>
       </c>
       <c r="N65" s="1">
-        <v>61091000</v>
+        <v>50332000</v>
       </c>
       <c r="O65" s="1">
-        <v>56119000</v>
+        <v>48857000</v>
       </c>
       <c r="P65" s="1">
-        <v>108925000</v>
+        <v>107589000</v>
       </c>
       <c r="Q65" s="1">
-        <v>138259000</v>
+        <v>124010000</v>
       </c>
       <c r="R65" s="1">
-        <v>708718000</v>
+        <v>53822000</v>
       </c>
       <c r="S65" s="1">
-        <v>743471000</v>
+        <v>52126000</v>
       </c>
       <c r="T65" s="1">
-        <v>797098000</v>
+        <v>51690000</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1610116</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2624004</v>
+      </c>
+      <c r="F66" s="1">
+        <v>6917758</v>
+      </c>
+      <c r="G66" s="1">
+        <v>11458767</v>
+      </c>
+      <c r="H66" s="1">
+        <v>15472000</v>
+      </c>
+      <c r="I66" s="1">
+        <v>19645000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>25014000</v>
+      </c>
+      <c r="K66" s="1">
+        <v>30422000</v>
+      </c>
+      <c r="L66" s="1">
+        <v>39492000</v>
+      </c>
+      <c r="M66" s="1">
+        <v>46764000</v>
+      </c>
+      <c r="N66" s="1">
+        <v>61091000</v>
+      </c>
+      <c r="O66" s="1">
+        <v>56119000</v>
+      </c>
+      <c r="P66" s="1">
+        <v>108925000</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>138259000</v>
+      </c>
+      <c r="R66" s="1">
+        <v>708718000</v>
+      </c>
+      <c r="S66" s="1">
+        <v>743471000</v>
+      </c>
+      <c r="T66" s="1">
+        <v>797098000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="1">
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="1">
         <v>1904000</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="D67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="10">
+      <c r="B68" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="10">
         <v>1904000</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>13852183</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>33908041</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>42739309</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>56793684</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H68" s="10">
         <v>74150000</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I68" s="10">
         <v>105009000</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J68" s="10">
         <v>128453000</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K68" s="10">
         <v>163779000</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L68" s="10">
         <v>153006000</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M68" s="10">
         <v>206645000</v>
       </c>
-      <c r="N67" s="10">
+      <c r="N68" s="10">
         <v>286595000</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O68" s="10">
         <v>297568000</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P68" s="10">
         <v>401523000</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q68" s="10">
         <v>638736000</v>
       </c>
-      <c r="R67" s="10">
+      <c r="R68" s="10">
         <v>1329136000</v>
       </c>
-      <c r="S67" s="10">
+      <c r="S68" s="10">
         <v>1626649000</v>
       </c>
-      <c r="T67" s="10">
+      <c r="T68" s="10">
         <v>2202432000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1">
-        <v>467056</v>
-      </c>
-      <c r="G68" s="1">
-        <v>504418</v>
-      </c>
-      <c r="H68" s="1">
-        <v>511000</v>
-      </c>
-      <c r="I68" s="1">
-        <v>534000</v>
-      </c>
-      <c r="J68" s="1">
-        <v>551000</v>
-      </c>
-      <c r="K68" s="1">
-        <v>562000</v>
-      </c>
-      <c r="L68" s="1">
-        <v>577000</v>
-      </c>
-      <c r="M68" s="1">
-        <v>661000</v>
-      </c>
-      <c r="N68" s="1">
-        <v>637000</v>
-      </c>
-      <c r="O68" s="1">
-        <v>637000</v>
-      </c>
-      <c r="P68" s="1">
-        <v>628000</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>608000</v>
-      </c>
-      <c r="R68" s="1">
-        <v>621000</v>
-      </c>
-      <c r="S68" s="1">
-        <v>626000</v>
-      </c>
-      <c r="T68" s="1">
-        <v>616000</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>92</v>
@@ -5867,60 +5888,60 @@
         <v>92</v>
       </c>
       <c r="D69" s="1">
-        <v>-68343726</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>-60677395</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
-        <v>-29834956</v>
+        <v>467056</v>
       </c>
       <c r="G69" s="1">
-        <v>9528271</v>
+        <v>504418</v>
       </c>
       <c r="H69" s="1">
-        <v>67809000</v>
+        <v>511000</v>
       </c>
       <c r="I69" s="1">
-        <v>189656000</v>
+        <v>534000</v>
       </c>
       <c r="J69" s="1">
-        <v>373719000</v>
+        <v>551000</v>
       </c>
       <c r="K69" s="1">
-        <v>644275000</v>
+        <v>562000</v>
       </c>
       <c r="L69" s="1">
-        <v>923822000</v>
+        <v>577000</v>
       </c>
       <c r="M69" s="1">
-        <v>1020619000</v>
+        <v>661000</v>
       </c>
       <c r="N69" s="1">
-        <v>1019515000</v>
+        <v>637000</v>
       </c>
       <c r="O69" s="1">
-        <v>1294214000</v>
+        <v>637000</v>
       </c>
       <c r="P69" s="1">
-        <v>1455002000</v>
+        <v>628000</v>
       </c>
       <c r="Q69" s="1">
-        <v>1346890000</v>
+        <v>608000</v>
       </c>
       <c r="R69" s="1">
-        <v>1820637000</v>
+        <v>621000</v>
       </c>
       <c r="S69" s="1">
-        <v>2346428000</v>
+        <v>626000</v>
       </c>
       <c r="T69" s="1">
-        <v>2512840000</v>
+        <v>616000</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>92</v>
@@ -5929,432 +5950,432 @@
         <v>92</v>
       </c>
       <c r="D70" s="1">
-        <v>558743</v>
+        <v>-68343726</v>
       </c>
       <c r="E70" s="1">
-        <v>-1056565</v>
+        <v>-60677395</v>
       </c>
       <c r="F70" s="1">
-        <v>5396954</v>
+        <v>-29834956</v>
       </c>
       <c r="G70" s="1">
-        <v>-11150789</v>
+        <v>9528271</v>
       </c>
       <c r="H70" s="1">
-        <v>5867000</v>
+        <v>67809000</v>
       </c>
       <c r="I70" s="1">
-        <v>20329000</v>
+        <v>189656000</v>
       </c>
       <c r="J70" s="1">
-        <v>21549000</v>
+        <v>373719000</v>
       </c>
       <c r="K70" s="1">
-        <v>21090000</v>
+        <v>644275000</v>
       </c>
       <c r="L70" s="1">
-        <v>-68068000</v>
+        <v>923822000</v>
       </c>
       <c r="M70" s="1">
-        <v>-173407000</v>
+        <v>1020619000</v>
       </c>
       <c r="N70" s="1">
-        <v>-238203000</v>
+        <v>1019515000</v>
       </c>
       <c r="O70" s="1">
-        <v>-201500000</v>
+        <v>1294214000</v>
       </c>
       <c r="P70" s="1">
-        <v>-142923000</v>
+        <v>1455002000</v>
       </c>
       <c r="Q70" s="1">
-        <v>-216808000</v>
+        <v>1346890000</v>
       </c>
       <c r="R70" s="1">
-        <v>-224581000</v>
+        <v>1820637000</v>
       </c>
       <c r="S70" s="1">
-        <v>-177155000</v>
+        <v>2346428000</v>
       </c>
       <c r="T70" s="1">
-        <v>-195917000</v>
+        <v>2512840000</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="1">
+        <v>558743</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-1056565</v>
+      </c>
+      <c r="F71" s="1">
+        <v>5396954</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-11150789</v>
+      </c>
+      <c r="H71" s="1">
+        <v>5867000</v>
+      </c>
+      <c r="I71" s="1">
+        <v>20329000</v>
+      </c>
+      <c r="J71" s="1">
+        <v>21549000</v>
+      </c>
+      <c r="K71" s="1">
+        <v>21090000</v>
+      </c>
+      <c r="L71" s="1">
+        <v>-68068000</v>
+      </c>
+      <c r="M71" s="1">
+        <v>-173407000</v>
+      </c>
+      <c r="N71" s="1">
+        <v>-238203000</v>
+      </c>
+      <c r="O71" s="1">
+        <v>-201500000</v>
+      </c>
+      <c r="P71" s="1">
+        <v>-142923000</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>-216808000</v>
+      </c>
+      <c r="R71" s="1">
+        <v>-224581000</v>
+      </c>
+      <c r="S71" s="1">
+        <v>-177155000</v>
+      </c>
+      <c r="T71" s="1">
+        <v>-195917000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="B72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="1">
         <v>419000</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D72" s="1">
         <v>95834516</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E72" s="1">
         <v>99110502</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F72" s="1">
         <v>136004955</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G72" s="1">
         <v>155960785</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H72" s="1">
         <v>158921000</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I72" s="1">
         <v>179870000</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J72" s="1">
         <v>205557000</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K72" s="1">
         <v>221372000</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L72" s="1">
         <v>240351000</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M72" s="1">
         <v>241695000</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N72" s="1">
         <v>245533000</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O72" s="1">
         <v>266622000</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P72" s="1">
         <v>284253000</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q72" s="1">
         <v>315285000</v>
       </c>
-      <c r="R71" s="1">
+      <c r="R72" s="1">
         <v>355541000</v>
       </c>
-      <c r="S71" s="1">
+      <c r="S72" s="1">
         <v>388667000</v>
       </c>
-      <c r="T71" s="1">
+      <c r="T72" s="1">
         <v>422507000</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="73" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="10">
+      <c r="B73" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="10">
         <v>419000</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>28051784</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>37378798</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>112034009</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>154842685</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H73" s="10">
         <v>233108000</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I73" s="10">
         <v>390389000</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J73" s="10">
         <v>601376000</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K73" s="10">
         <v>887299000</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L73" s="10">
         <v>1096682000</v>
       </c>
-      <c r="M72" s="10">
+      <c r="M73" s="10">
         <v>1089568000</v>
       </c>
-      <c r="N72" s="10">
+      <c r="N73" s="10">
         <v>1027482000</v>
       </c>
-      <c r="O72" s="10">
+      <c r="O73" s="10">
         <v>1359973000</v>
       </c>
-      <c r="P72" s="10">
+      <c r="P73" s="10">
         <v>1596960000</v>
       </c>
-      <c r="Q72" s="10">
+      <c r="Q73" s="10">
         <v>1445975000</v>
       </c>
-      <c r="R72" s="10">
+      <c r="R73" s="10">
         <v>1952218000</v>
       </c>
-      <c r="S72" s="10">
+      <c r="S73" s="10">
         <v>2558566000</v>
       </c>
-      <c r="T72" s="10">
+      <c r="T73" s="10">
         <v>2740046000</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="11">
+      <c r="B74" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="11">
         <v>2323000</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>41903967</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>71286839</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>154773318</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>211636369</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <v>307258000</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>495398000</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>729829000</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>1051078000</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L74" s="11">
         <v>1249688000</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M74" s="11">
         <v>1296213000</v>
       </c>
-      <c r="N73" s="11">
+      <c r="N74" s="11">
         <v>1314077000</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O74" s="11">
         <v>1657541000</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P74" s="11">
         <v>1998483000</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q74" s="11">
         <v>2084711000</v>
       </c>
-      <c r="R73" s="11">
+      <c r="R74" s="11">
         <v>3281354000</v>
       </c>
-      <c r="S73" s="11">
+      <c r="S74" s="11">
         <v>4185215000</v>
       </c>
-      <c r="T73" s="11">
+      <c r="T74" s="11">
         <v>4942478000</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K74" s="13" t="s">
+      <c r="K75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L74" s="13" t="s">
+      <c r="L75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M74" s="13" t="s">
+      <c r="M75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N74" s="13" t="s">
+      <c r="N75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O74" s="13" t="s">
+      <c r="O75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P74" s="13" t="s">
+      <c r="P75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q74" s="13" t="s">
+      <c r="Q75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R74" s="13" t="s">
+      <c r="R75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S74" s="13" t="s">
+      <c r="S75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="T74" s="13" t="s">
+      <c r="T75" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="K76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="L76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M75" s="9" t="s">
+      <c r="M76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="N76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O75" s="9" t="s">
+      <c r="O76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P75" s="9" t="s">
+      <c r="P76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q75" s="9" t="s">
+      <c r="Q76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="R75" s="9" t="s">
+      <c r="R76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S75" s="9" t="s">
+      <c r="S76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="T75" s="9" t="s">
+      <c r="T76" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1394104</v>
-      </c>
-      <c r="E76" s="1">
-        <v>7666331</v>
-      </c>
-      <c r="F76" s="1">
-        <v>30842439</v>
-      </c>
-      <c r="G76" s="1">
-        <v>39363227</v>
-      </c>
-      <c r="H76" s="1">
-        <v>58281000</v>
-      </c>
-      <c r="I76" s="1">
-        <v>122197000</v>
-      </c>
-      <c r="J76" s="1">
-        <v>184964000</v>
-      </c>
-      <c r="K76" s="1">
-        <v>271431000</v>
-      </c>
-      <c r="L76" s="1">
-        <v>279547000</v>
-      </c>
-      <c r="M76" s="1">
-        <v>239033000</v>
-      </c>
-      <c r="N76" s="1">
-        <v>266047000</v>
-      </c>
-      <c r="O76" s="1">
-        <v>303381000</v>
-      </c>
-      <c r="P76" s="1">
-        <v>258662000</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>483801000</v>
-      </c>
-      <c r="R76" s="1">
-        <v>645596000</v>
-      </c>
-      <c r="S76" s="1">
-        <v>588913000</v>
-      </c>
-      <c r="T76" s="1">
-        <v>975322000</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>92</v>
@@ -6363,60 +6384,60 @@
         <v>92</v>
       </c>
       <c r="D77" s="1">
-        <v>2466298</v>
+        <v>1394104</v>
       </c>
       <c r="E77" s="1">
-        <v>4618512</v>
+        <v>7666331</v>
       </c>
       <c r="F77" s="1">
-        <v>8340732</v>
+        <v>30842439</v>
       </c>
       <c r="G77" s="1">
-        <v>15822950</v>
+        <v>39363227</v>
       </c>
       <c r="H77" s="1">
-        <v>20832000</v>
+        <v>58281000</v>
       </c>
       <c r="I77" s="1">
-        <v>24614000</v>
+        <v>122197000</v>
       </c>
       <c r="J77" s="1">
-        <v>30259000</v>
+        <v>184964000</v>
       </c>
       <c r="K77" s="1">
-        <v>43000000</v>
+        <v>271431000</v>
       </c>
       <c r="L77" s="1">
-        <v>49068000</v>
+        <v>279547000</v>
       </c>
       <c r="M77" s="1">
-        <v>58364000</v>
+        <v>239033000</v>
       </c>
       <c r="N77" s="1">
-        <v>73383000</v>
+        <v>266047000</v>
       </c>
       <c r="O77" s="1">
-        <v>87697000</v>
+        <v>303381000</v>
       </c>
       <c r="P77" s="1">
-        <v>108235000</v>
+        <v>258662000</v>
       </c>
       <c r="Q77" s="1">
-        <v>122484000</v>
+        <v>483801000</v>
       </c>
       <c r="R77" s="1">
-        <v>161933000</v>
+        <v>645596000</v>
       </c>
       <c r="S77" s="1">
-        <v>185478000</v>
+        <v>588913000</v>
       </c>
       <c r="T77" s="1">
-        <v>224206000</v>
+        <v>975322000</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>92</v>
@@ -6425,2231 +6446,2301 @@
         <v>92</v>
       </c>
       <c r="D78" s="1">
-        <v>-174901</v>
+        <v>2466298</v>
       </c>
       <c r="E78" s="1">
-        <v>-3076876</v>
+        <v>4618512</v>
       </c>
       <c r="F78" s="1">
-        <v>1798882</v>
+        <v>8340732</v>
       </c>
       <c r="G78" s="1">
-        <v>-6441402</v>
+        <v>15822950</v>
       </c>
       <c r="H78" s="1">
-        <v>387000</v>
+        <v>20832000</v>
       </c>
       <c r="I78" s="1">
-        <v>11234000</v>
+        <v>24614000</v>
       </c>
       <c r="J78" s="1">
-        <v>-693000</v>
+        <v>30259000</v>
       </c>
       <c r="K78" s="1">
-        <v>-6445000</v>
+        <v>43000000</v>
       </c>
       <c r="L78" s="1">
-        <v>820000</v>
+        <v>49068000</v>
       </c>
       <c r="M78" s="1">
-        <v>2087000</v>
+        <v>58364000</v>
       </c>
       <c r="N78" s="1">
-        <v>11142000</v>
+        <v>73383000</v>
       </c>
       <c r="O78" s="1">
-        <v>-17563000</v>
+        <v>87697000</v>
       </c>
       <c r="P78" s="1">
-        <v>-11416000</v>
+        <v>108235000</v>
       </c>
       <c r="Q78" s="1">
-        <v>16786000</v>
+        <v>122484000</v>
       </c>
       <c r="R78" s="1">
-        <v>24129000</v>
+        <v>161933000</v>
       </c>
       <c r="S78" s="1">
-        <v>34908000</v>
+        <v>185478000</v>
       </c>
       <c r="T78" s="1">
-        <v>-5180000</v>
+        <v>224206000</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-174901</v>
+      </c>
+      <c r="E79" s="1">
+        <v>-3076876</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1798882</v>
+      </c>
+      <c r="G79" s="1">
+        <v>-6441402</v>
+      </c>
+      <c r="H79" s="1">
+        <v>387000</v>
+      </c>
+      <c r="I79" s="1">
+        <v>11234000</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-693000</v>
+      </c>
+      <c r="K79" s="1">
+        <v>-6445000</v>
+      </c>
+      <c r="L79" s="1">
+        <v>820000</v>
+      </c>
+      <c r="M79" s="1">
+        <v>2087000</v>
+      </c>
+      <c r="N79" s="1">
+        <v>11142000</v>
+      </c>
+      <c r="O79" s="1">
+        <v>-17563000</v>
+      </c>
+      <c r="P79" s="1">
+        <v>-11416000</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>16786000</v>
+      </c>
+      <c r="R79" s="1">
+        <v>24129000</v>
+      </c>
+      <c r="S79" s="1">
+        <v>34908000</v>
+      </c>
+      <c r="T79" s="1">
+        <v>-5180000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79" s="1">
+      <c r="B80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H80" s="1">
         <v>5616000</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I80" s="1">
         <v>7273000</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J80" s="1">
         <v>10340000</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K80" s="1">
         <v>15637000</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L80" s="1">
         <v>10087000</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M80" s="1">
         <v>8269000</v>
       </c>
-      <c r="N79" s="1">
+      <c r="N80" s="1">
         <v>10356000</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O80" s="1">
         <v>16822000</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P80" s="1">
         <v>17610000</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="Q80" s="1">
         <v>28568000</v>
       </c>
-      <c r="R79" s="1">
+      <c r="R80" s="1">
         <v>45593000</v>
       </c>
-      <c r="S79" s="1">
+      <c r="S80" s="1">
         <v>50797000</v>
       </c>
-      <c r="T79" s="1">
+      <c r="T80" s="1">
         <v>69137000</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+    <row r="81" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:T80" si="17">B79/B3</f>
+      <c r="B81" s="15" t="e">
+        <f t="shared" ref="B81:T81" si="34">B80/B3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C80" s="15" t="e">
-        <f t="shared" si="17"/>
+      <c r="C81" s="15" t="e">
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D80" s="15" t="e">
-        <f t="shared" si="17"/>
+      <c r="D81" s="15" t="e">
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E80" s="15" t="e">
-        <f t="shared" si="17"/>
+      <c r="E81" s="15" t="e">
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F80" s="15" t="e">
-        <f t="shared" si="17"/>
+      <c r="F81" s="15" t="e">
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G80" s="15" t="e">
-        <f t="shared" si="17"/>
+      <c r="G81" s="15" t="e">
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H80" s="15">
-        <f t="shared" si="17"/>
+      <c r="H81" s="15">
+        <f t="shared" si="34"/>
         <v>1.2400143078573983E-2</v>
       </c>
-      <c r="I80" s="15">
-        <f t="shared" si="17"/>
+      <c r="I81" s="15">
+        <f t="shared" si="34"/>
         <v>1.0219136045322213E-2</v>
       </c>
-      <c r="J80" s="15">
-        <f t="shared" si="17"/>
+      <c r="J81" s="15">
+        <f t="shared" si="34"/>
         <v>1.0331332012441562E-2</v>
       </c>
-      <c r="K80" s="15">
-        <f t="shared" si="17"/>
+      <c r="K81" s="15">
+        <f t="shared" si="34"/>
         <v>1.1410886790167241E-2</v>
       </c>
-      <c r="L80" s="15">
-        <f t="shared" si="17"/>
+      <c r="L81" s="15">
+        <f t="shared" si="34"/>
         <v>6.339288632141519E-3</v>
       </c>
-      <c r="M80" s="15">
-        <f t="shared" si="17"/>
+      <c r="M81" s="15">
+        <f t="shared" si="34"/>
         <v>4.6010127903592952E-3</v>
       </c>
-      <c r="N80" s="15">
-        <f t="shared" si="17"/>
+      <c r="N81" s="15">
+        <f t="shared" si="34"/>
         <v>5.0259084708105658E-3</v>
       </c>
-      <c r="O80" s="15">
-        <f t="shared" si="17"/>
+      <c r="O81" s="15">
+        <f t="shared" si="34"/>
         <v>7.1754211752983292E-3</v>
       </c>
-      <c r="P80" s="15">
-        <f t="shared" si="17"/>
+      <c r="P81" s="15">
+        <f t="shared" si="34"/>
         <v>6.6473374223958272E-3</v>
       </c>
-      <c r="Q80" s="15">
-        <f t="shared" si="17"/>
+      <c r="Q81" s="15">
+        <f t="shared" si="34"/>
         <v>8.6877215987864933E-3</v>
       </c>
-      <c r="R80" s="15">
-        <f t="shared" si="17"/>
+      <c r="R81" s="15">
+        <f t="shared" si="34"/>
         <v>1.1457554301062298E-2</v>
       </c>
-      <c r="S80" s="15">
-        <f t="shared" si="17"/>
+      <c r="S81" s="15">
+        <f t="shared" si="34"/>
         <v>1.1539844689052108E-2</v>
       </c>
-      <c r="T80" s="15">
-        <f t="shared" si="17"/>
+      <c r="T81" s="15">
+        <f t="shared" si="34"/>
         <v>1.1050220910118039E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="1">
-        <v>-16677486</v>
-      </c>
-      <c r="E81" s="1">
-        <v>12869203</v>
-      </c>
-      <c r="F81" s="1">
-        <v>-8504366</v>
-      </c>
-      <c r="G81" s="1">
-        <v>-3363035</v>
-      </c>
-      <c r="H81" s="1">
-        <v>30790000</v>
-      </c>
-      <c r="I81" s="1">
-        <v>23966000</v>
-      </c>
-      <c r="J81" s="1">
-        <v>-13730000</v>
-      </c>
-      <c r="K81" s="1">
-        <v>-32258000</v>
-      </c>
-      <c r="L81" s="1">
-        <v>-50072000</v>
-      </c>
-      <c r="M81" s="1">
-        <v>8577000</v>
-      </c>
-      <c r="N81" s="1">
-        <v>-59743000</v>
-      </c>
-      <c r="O81" s="1">
-        <v>603000</v>
-      </c>
-      <c r="P81" s="1">
-        <v>104628000</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>112875000</v>
-      </c>
-      <c r="R81" s="1">
-        <v>-194071000</v>
-      </c>
-      <c r="S81" s="1">
-        <v>-47549000</v>
-      </c>
-      <c r="T81" s="1">
-        <v>129131000</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-16677486</v>
+      </c>
+      <c r="E82" s="1">
+        <v>12869203</v>
+      </c>
+      <c r="F82" s="1">
+        <v>-8504366</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-3363035</v>
+      </c>
+      <c r="H82" s="1">
+        <v>30790000</v>
+      </c>
+      <c r="I82" s="1">
+        <v>23966000</v>
+      </c>
+      <c r="J82" s="1">
+        <v>-13730000</v>
+      </c>
+      <c r="K82" s="1">
+        <v>-32258000</v>
+      </c>
+      <c r="L82" s="1">
+        <v>-50072000</v>
+      </c>
+      <c r="M82" s="1">
+        <v>8577000</v>
+      </c>
+      <c r="N82" s="1">
+        <v>-59743000</v>
+      </c>
+      <c r="O82" s="1">
+        <v>603000</v>
+      </c>
+      <c r="P82" s="1">
+        <v>104628000</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>112875000</v>
+      </c>
+      <c r="R82" s="1">
+        <v>-194071000</v>
+      </c>
+      <c r="S82" s="1">
+        <v>-47549000</v>
+      </c>
+      <c r="T82" s="1">
+        <v>129131000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H82" s="1">
+      <c r="B83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H83" s="1">
         <v>2229000</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I83" s="1">
         <v>-587000</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J83" s="1">
         <v>3743000</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="K83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="B84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="1">
         <v>-10693625</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E84" s="1">
         <v>-5430998</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F84" s="1">
         <v>-12056739</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G84" s="1">
         <v>-19782088</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H84" s="1">
         <v>11296000</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I84" s="1">
         <v>-7954000</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J84" s="1">
         <v>-46072000</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K84" s="1">
         <v>-51022000</v>
       </c>
-      <c r="L83" s="1">
+      <c r="L84" s="1">
         <v>-37407000</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M84" s="1">
         <v>-26806000</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N84" s="1">
         <v>-83286000</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O84" s="1">
         <v>-5403000</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P84" s="1">
         <v>-21178000</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q84" s="1">
         <v>-85942000</v>
       </c>
-      <c r="R83" s="1">
+      <c r="R84" s="1">
         <v>-117591000</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S84" s="1">
         <v>-96548000</v>
       </c>
-      <c r="T83" s="1">
+      <c r="T84" s="1">
         <v>-323609000</v>
       </c>
-      <c r="AA83" s="63" t="s">
+      <c r="AA84" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AB83" s="64"/>
-    </row>
-    <row r="84" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="AB84" s="64"/>
+    </row>
+    <row r="85" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I84" s="1">
+      <c r="B85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85" s="1">
         <v>-5167000</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J85" s="1">
         <v>7861000</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K85" s="1">
         <v>-13481000</v>
       </c>
-      <c r="L84" s="1">
+      <c r="L85" s="1">
         <v>11627000</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M85" s="1">
         <v>-2198000</v>
       </c>
-      <c r="N84" s="1">
+      <c r="N85" s="1">
         <v>1247000</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O85" s="1">
         <v>14080000</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P85" s="1">
         <v>-1551000</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q85" s="1">
         <v>71962000</v>
       </c>
-      <c r="R84" s="1">
+      <c r="R85" s="1">
         <v>-14810000</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S85" s="1">
         <v>82663000</v>
       </c>
-      <c r="T84" s="1">
+      <c r="T85" s="1">
         <v>117655000</v>
       </c>
-      <c r="AA84" s="65" t="s">
+      <c r="AA85" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AB84" s="66"/>
-    </row>
-    <row r="85" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="AB85" s="66"/>
+    </row>
+    <row r="86" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" s="1">
+      <c r="B86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="1">
         <v>909415</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G86" s="1">
         <v>-191610</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H86" s="1">
         <v>675000</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I86" s="1">
         <v>2096000</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J86" s="1">
         <v>17830000</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K86" s="1">
         <v>24038000</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L86" s="1">
         <v>8241000</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M86" s="1">
         <v>30260000</v>
       </c>
-      <c r="N85" s="1">
+      <c r="N86" s="1">
         <v>33991000</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O86" s="1">
         <v>15572000</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P86" s="1">
         <v>78423000</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q86" s="1">
         <v>60316000</v>
       </c>
-      <c r="R85" s="1">
+      <c r="R86" s="1">
         <v>82164000</v>
       </c>
-      <c r="S85" s="1">
+      <c r="S86" s="1">
         <v>54537000</v>
       </c>
-      <c r="T85" s="1">
+      <c r="T86" s="1">
         <v>160208000</v>
       </c>
-      <c r="AA85" s="23" t="s">
+      <c r="AA86" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="AB85" s="24">
+      <c r="AB86" s="24">
         <f>T17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="87" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="B87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="1">
         <v>2709916</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E87" s="1">
         <v>3622109</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F87" s="1">
         <v>5612877</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G87" s="1">
         <v>1056034</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H87" s="1">
         <v>2054000</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I87" s="1">
         <v>-9289000</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J87" s="1">
         <v>-7525000</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K87" s="1">
         <v>-11252000</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L87" s="1">
         <v>-11111000</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M87" s="1">
         <v>-1881000</v>
       </c>
-      <c r="N86" s="1">
+      <c r="N87" s="1">
         <v>-2445000</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O87" s="1">
         <v>-5821000</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P87" s="1">
         <v>11618000</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="Q87" s="1">
         <v>-21735000</v>
       </c>
-      <c r="R86" s="1">
+      <c r="R87" s="1">
         <v>-13864000</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S87" s="1">
         <v>-9211000</v>
       </c>
-      <c r="T86" s="1">
+      <c r="T87" s="1">
         <v>-3508000</v>
       </c>
-      <c r="AA86" s="23" t="s">
+      <c r="AA87" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="AB86" s="24">
-        <f>T56</f>
+      <c r="AB87" s="24">
+        <f>T57</f>
         <v>188996000</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+    <row r="88" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D87" s="10">
+      <c r="B88" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="10">
         <v>-10282069</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>25699279</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>38090564</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>46437774</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>117960000</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>179995000</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>203615000</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>280113000</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L88" s="10">
         <v>278339000</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M88" s="10">
         <v>314449000</v>
       </c>
-      <c r="N87" s="10">
+      <c r="N88" s="10">
         <v>298740000</v>
       </c>
-      <c r="O87" s="10">
+      <c r="O88" s="10">
         <v>385119000</v>
       </c>
-      <c r="P87" s="10">
+      <c r="P88" s="10">
         <v>489337000</v>
       </c>
-      <c r="Q87" s="10">
+      <c r="Q88" s="10">
         <v>742779000</v>
       </c>
-      <c r="R87" s="10">
+      <c r="R88" s="10">
         <v>669316000</v>
       </c>
-      <c r="S87" s="10">
+      <c r="S88" s="10">
         <v>803336000</v>
       </c>
-      <c r="T87" s="10">
+      <c r="T88" s="10">
         <v>1389108000</v>
       </c>
-      <c r="AA87" s="23" t="s">
+      <c r="AA88" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AB87" s="24">
-        <f>T61</f>
+      <c r="AB88" s="24">
+        <f>T62</f>
         <v>692056000</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="89" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="1">
         <v>-7846264</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E89" s="1">
         <v>-12413833</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F89" s="1">
         <v>-29675940</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G89" s="1">
         <v>-40530459</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H89" s="1">
         <v>-15497000</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I89" s="1">
         <v>-30357000</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J89" s="1">
         <v>-116657000</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K89" s="1">
         <v>-93229000</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L89" s="1">
         <v>-106408000</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M89" s="1">
         <v>-119733000</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N89" s="1">
         <v>-143487000</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O89" s="1">
         <v>-149511000</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P89" s="1">
         <v>-157864000</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q89" s="1">
         <v>-225807000</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R89" s="1">
         <v>-283048000</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S89" s="1">
         <v>-229226000</v>
       </c>
-      <c r="T88" s="1">
+      <c r="T89" s="1">
         <v>-394502000</v>
       </c>
-      <c r="AA88" s="32" t="s">
+      <c r="U89" s="1">
+        <v>-670002000</v>
+      </c>
+      <c r="AA89" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AB88" s="33">
-        <f>AB85/(AB86+AB87)</f>
+      <c r="AB89" s="33">
+        <f>AB86/(AB87+AB88)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+    <row r="90" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:T89" si="18">(-1*B88)/B3</f>
+      <c r="B90" s="15" t="e">
+        <f t="shared" ref="B90:U90" si="35">(-1*B89)/B3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="18"/>
+      <c r="C90" s="15" t="e">
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D89" s="15">
-        <f t="shared" si="18"/>
+      <c r="D90" s="15">
+        <f t="shared" si="35"/>
         <v>9.326457376641395E-2</v>
       </c>
-      <c r="E89" s="15">
-        <f t="shared" si="18"/>
+      <c r="E90" s="15">
+        <f t="shared" si="35"/>
         <v>8.3378761063064355E-2</v>
       </c>
-      <c r="F89" s="15">
-        <f t="shared" si="18"/>
+      <c r="F90" s="15">
+        <f t="shared" si="35"/>
         <v>0.10802511918897506</v>
       </c>
-      <c r="G89" s="15">
-        <f t="shared" si="18"/>
+      <c r="G90" s="15">
+        <f t="shared" si="35"/>
         <v>0.11465858725721807</v>
       </c>
-      <c r="H89" s="15">
-        <f t="shared" si="18"/>
+      <c r="H90" s="15">
+        <f t="shared" si="35"/>
         <v>3.4217417608379812E-2</v>
       </c>
-      <c r="I89" s="15">
-        <f t="shared" si="18"/>
+      <c r="I90" s="15">
+        <f t="shared" si="35"/>
         <v>4.2653968503759992E-2</v>
       </c>
-      <c r="J89" s="15">
-        <f t="shared" si="18"/>
+      <c r="J90" s="15">
+        <f t="shared" si="35"/>
         <v>0.11655920682547342</v>
       </c>
-      <c r="K89" s="15">
-        <f t="shared" si="18"/>
+      <c r="K90" s="15">
+        <f t="shared" si="35"/>
         <v>6.8032587104975492E-2</v>
       </c>
-      <c r="L89" s="15">
-        <f t="shared" si="18"/>
+      <c r="L90" s="15">
+        <f t="shared" si="35"/>
         <v>6.6873304725777225E-2</v>
       </c>
-      <c r="M89" s="15">
-        <f t="shared" si="18"/>
+      <c r="M90" s="15">
+        <f t="shared" si="35"/>
         <v>6.6621485600204311E-2</v>
       </c>
-      <c r="N89" s="15">
-        <f t="shared" si="18"/>
+      <c r="N90" s="15">
+        <f t="shared" si="35"/>
         <v>6.9636204012282321E-2</v>
       </c>
-      <c r="O89" s="15">
-        <f t="shared" si="18"/>
+      <c r="O90" s="15">
+        <f t="shared" si="35"/>
         <v>6.3773891055762005E-2</v>
       </c>
-      <c r="P89" s="15">
-        <f t="shared" si="18"/>
+      <c r="P90" s="15">
+        <f t="shared" si="35"/>
         <v>5.9589737356564164E-2</v>
       </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="18"/>
+      <c r="Q90" s="15">
+        <f t="shared" si="35"/>
         <v>6.8669432618915616E-2</v>
       </c>
-      <c r="R89" s="15">
-        <f t="shared" si="18"/>
+      <c r="R90" s="15">
+        <f t="shared" si="35"/>
         <v>7.1130169758670883E-2</v>
       </c>
-      <c r="S89" s="15">
-        <f t="shared" si="18"/>
+      <c r="S90" s="15">
+        <f t="shared" si="35"/>
         <v>5.2074579969144996E-2</v>
       </c>
-      <c r="T89" s="15">
-        <f t="shared" si="18"/>
+      <c r="T90" s="15">
+        <f t="shared" si="35"/>
         <v>6.3053563930795184E-2</v>
       </c>
-      <c r="AA89" s="23" t="s">
+      <c r="U90" s="15">
+        <f t="shared" si="35"/>
+        <v>7.2043225806451616E-2</v>
+      </c>
+      <c r="AA90" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AB89" s="24">
+      <c r="AB90" s="24">
         <f>T27</f>
         <v>358547000</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="91" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="B91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="1">
         <v>-460567</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E91" s="1">
         <v>-511850</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F91" s="1">
         <v>-5559179</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G91" s="1">
         <v>-3401633</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S90" s="1">
+      <c r="H91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S91" s="1">
         <v>-452581000</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA90" s="23" t="s">
+      <c r="T91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA91" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AB90" s="24">
+      <c r="AB91" s="24">
         <f>T25</f>
         <v>1333869000</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="92" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G91" s="1">
+      <c r="B92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="1">
         <v>-2863353</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P91" s="1">
+      <c r="H92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P92" s="1">
         <v>-7203000</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="Q92" s="1">
         <v>-16216000</v>
       </c>
-      <c r="R91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S91" s="1">
+      <c r="R92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S92" s="1">
         <v>-14607000</v>
       </c>
-      <c r="T91" s="1">
+      <c r="T92" s="1">
         <v>-23389000</v>
       </c>
-      <c r="AA91" s="32" t="s">
+      <c r="AA92" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="AB91" s="33">
-        <f>AB89/AB90</f>
+      <c r="AB92" s="33">
+        <f>AB90/AB91</f>
         <v>0.26880225869257024</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="93" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R92" s="1">
+      <c r="B93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R93" s="1">
         <v>347000</v>
       </c>
-      <c r="S92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA92" s="34" t="s">
+      <c r="S93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA93" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="AB92" s="35">
-        <f>AB88*(1-AB91)</f>
+      <c r="AB93" s="35">
+        <f>AB89*(1-AB92)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H93" s="1">
+      <c r="B94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H94" s="1">
         <v>-810000</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I94" s="1">
         <v>-12482000</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J94" s="1">
         <v>-5654000</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P93" s="1">
+      <c r="K94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P94" s="1">
         <v>-8325000</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q94" s="1">
         <v>-771000</v>
       </c>
-      <c r="R93" s="1">
+      <c r="R94" s="1">
         <v>4293000</v>
       </c>
-      <c r="S93" s="1">
+      <c r="S94" s="1">
         <v>882000</v>
       </c>
-      <c r="T93" s="1">
+      <c r="T94" s="1">
         <v>-10000000</v>
       </c>
-      <c r="AA93" s="65" t="s">
+      <c r="AA94" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AB93" s="66"/>
-    </row>
-    <row r="94" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="AB94" s="66"/>
+    </row>
+    <row r="95" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="10">
+      <c r="B95" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="10">
         <v>-8306831</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E95" s="10">
         <v>-12925683</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F95" s="10">
         <v>-35235119</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G95" s="10">
         <v>-46795445</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H95" s="10">
         <v>-16307000</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I95" s="10">
         <v>-42839000</v>
       </c>
-      <c r="J94" s="10">
+      <c r="J95" s="10">
         <v>-122311000</v>
       </c>
-      <c r="K94" s="10">
+      <c r="K95" s="10">
         <v>-93229000</v>
       </c>
-      <c r="L94" s="10">
+      <c r="L95" s="10">
         <v>-106408000</v>
       </c>
-      <c r="M94" s="10">
+      <c r="M95" s="10">
         <v>-119733000</v>
       </c>
-      <c r="N94" s="10">
+      <c r="N95" s="10">
         <v>-143487000</v>
       </c>
-      <c r="O94" s="10">
+      <c r="O95" s="10">
         <v>-149511000</v>
       </c>
-      <c r="P94" s="10">
+      <c r="P95" s="10">
         <v>-173392000</v>
       </c>
-      <c r="Q94" s="10">
+      <c r="Q95" s="10">
         <v>-242794000</v>
       </c>
-      <c r="R94" s="10">
+      <c r="R95" s="10">
         <v>-278408000</v>
       </c>
-      <c r="S94" s="10">
+      <c r="S95" s="10">
         <v>-695532000</v>
       </c>
-      <c r="T94" s="10">
+      <c r="T95" s="10">
         <v>-427891000</v>
       </c>
-      <c r="AA94" s="23" t="s">
+      <c r="AA95" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AB94" s="36">
+      <c r="AB95" s="36">
         <v>4.095E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA95" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB95" s="38">
-        <v>1.33</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA96" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB96" s="38">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="B97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="1">
         <v>93036851</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E97" s="1">
         <v>446419</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F97" s="1">
         <v>38404466</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G97" s="1">
         <v>1436471</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA96" s="23" t="s">
+      <c r="H97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA97" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AB96" s="36">
+      <c r="AB97" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="98" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F97" s="1">
+      <c r="B98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="1">
         <v>-6992309</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M97" s="1">
+      <c r="G98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M98" s="1">
         <v>-147431000</v>
       </c>
-      <c r="N97" s="1">
+      <c r="N98" s="1">
         <v>-274193000</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O98" s="1">
         <v>-29327000</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P98" s="1">
         <v>-100261000</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="Q98" s="1">
         <v>-598340000</v>
       </c>
-      <c r="R97" s="1">
+      <c r="R98" s="1">
         <v>-173399000</v>
       </c>
-      <c r="S97" s="1">
+      <c r="S98" s="1">
         <v>-63663000</v>
       </c>
-      <c r="T97" s="1">
+      <c r="T98" s="1">
         <v>-812602000</v>
       </c>
-      <c r="AA97" s="34" t="s">
+      <c r="AA98" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="AB97" s="35">
-        <f>(AB94)+((AB95)*(AB96-AB94))</f>
+      <c r="AB98" s="35">
+        <f>(AB95)+((AB96)*(AB97-AB95))</f>
         <v>9.8206500000000002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="99" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA98" s="65" t="s">
+      <c r="B99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA99" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AB98" s="66"/>
-    </row>
-    <row r="99" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="AB99" s="66"/>
+    </row>
+    <row r="100" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="B100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="1">
         <v>-72951041</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E100" s="1">
         <v>222440</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F100" s="1">
         <v>564397</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G100" s="1">
         <v>12024413</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H100" s="1">
         <v>-2649000</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I100" s="1">
         <v>13699000</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J100" s="1">
         <v>15364000</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K100" s="1">
         <v>-5491000</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L100" s="1">
         <v>8907000</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M100" s="1">
         <v>-1646000</v>
       </c>
-      <c r="N99" s="1">
+      <c r="N100" s="1">
         <v>500000</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O100" s="1">
         <v>3989000</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P100" s="1">
         <v>2399000</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q100" s="1">
         <v>8126000</v>
       </c>
-      <c r="R99" s="1">
+      <c r="R100" s="1">
         <v>-3774000</v>
       </c>
-      <c r="S99" s="1">
+      <c r="S100" s="1">
         <v>-17125000</v>
       </c>
-      <c r="T99" s="1">
+      <c r="T100" s="1">
         <v>-32385000</v>
       </c>
-      <c r="AA99" s="23" t="s">
+      <c r="AA100" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="AB99" s="24">
-        <f>AB86+AB87</f>
+      <c r="AB100" s="24">
+        <f>AB87+AB88</f>
         <v>881052000</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+    <row r="101" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D100" s="10">
+      <c r="B101" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="10">
         <v>20085810</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E101" s="10">
         <v>668859</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F101" s="10">
         <v>31976554</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G101" s="10">
         <v>13460884</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H101" s="10">
         <v>-2649000</v>
       </c>
-      <c r="I100" s="10">
+      <c r="I101" s="10">
         <v>13699000</v>
       </c>
-      <c r="J100" s="10">
+      <c r="J101" s="10">
         <v>15364000</v>
       </c>
-      <c r="K100" s="10">
+      <c r="K101" s="10">
         <v>-5491000</v>
       </c>
-      <c r="L100" s="10">
+      <c r="L101" s="10">
         <v>8907000</v>
       </c>
-      <c r="M100" s="10">
+      <c r="M101" s="10">
         <v>-149077000</v>
       </c>
-      <c r="N100" s="10">
+      <c r="N101" s="10">
         <v>-273693000</v>
       </c>
-      <c r="O100" s="10">
+      <c r="O101" s="10">
         <v>-25338000</v>
       </c>
-      <c r="P100" s="10">
+      <c r="P101" s="10">
         <v>-97862000</v>
       </c>
-      <c r="Q100" s="10">
+      <c r="Q101" s="10">
         <v>-590214000</v>
       </c>
-      <c r="R100" s="10">
+      <c r="R101" s="10">
         <v>-177173000</v>
       </c>
-      <c r="S100" s="10">
+      <c r="S101" s="10">
         <v>-80788000</v>
       </c>
-      <c r="T100" s="10">
+      <c r="T101" s="10">
         <v>-844987000</v>
       </c>
-      <c r="AA100" s="32" t="s">
+      <c r="AA101" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AB100" s="33">
-        <f>AB99/AB103</f>
-        <v>2.2790315706655198E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="AB101" s="33">
+        <f>AB100/AB104</f>
+        <v>1.8563503699402597E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="B102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="1">
         <v>-271667</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E102" s="1">
         <v>-1290938</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F102" s="1">
         <v>2478793</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G102" s="1">
         <v>-8851203</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H102" s="1">
         <v>3772000</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I102" s="1">
         <v>5858000</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J102" s="1">
         <v>-3517000</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K102" s="1">
         <v>-651000</v>
       </c>
-      <c r="L101" s="1">
+      <c r="L102" s="1">
         <v>-72368000</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M102" s="1">
         <v>-79809000</v>
       </c>
-      <c r="N101" s="1">
+      <c r="N102" s="1">
         <v>-44557000</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O102" s="1">
         <v>23094000</v>
       </c>
-      <c r="P101" s="1">
+      <c r="P102" s="1">
         <v>37572000</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="Q102" s="1">
         <v>-18952000</v>
       </c>
-      <c r="R101" s="1">
+      <c r="R102" s="1">
         <v>-1550000</v>
       </c>
-      <c r="S101" s="1">
+      <c r="S102" s="1">
         <v>29996000</v>
       </c>
-      <c r="T101" s="1">
+      <c r="T102" s="1">
         <v>-6876000</v>
       </c>
-      <c r="AA101" s="37" t="s">
+      <c r="AA102" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AB101" s="39">
-        <v>37778000000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="AB102" s="51">
+        <f>V117*T34</f>
+        <v>46580462500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D102" s="10">
+      <c r="B103" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="10">
         <v>1225243</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E103" s="10">
         <v>12151517</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F103" s="10">
         <v>37310792</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G103" s="10">
         <v>4252010</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H103" s="10">
         <v>102776000</v>
       </c>
-      <c r="I102" s="10">
+      <c r="I103" s="10">
         <v>156713000</v>
       </c>
-      <c r="J102" s="10">
+      <c r="J103" s="10">
         <v>93151000</v>
       </c>
-      <c r="K102" s="10">
+      <c r="K103" s="10">
         <v>180742000</v>
       </c>
-      <c r="L102" s="10">
+      <c r="L103" s="10">
         <v>108470000</v>
       </c>
-      <c r="M102" s="10">
+      <c r="M103" s="10">
         <v>-34170000</v>
       </c>
-      <c r="N102" s="10">
+      <c r="N103" s="10">
         <v>-162997000</v>
       </c>
-      <c r="O102" s="10">
+      <c r="O103" s="10">
         <v>233364000</v>
       </c>
-      <c r="P102" s="10">
+      <c r="P103" s="10">
         <v>255655000</v>
       </c>
-      <c r="Q102" s="10">
+      <c r="Q103" s="10">
         <v>-109181000</v>
       </c>
-      <c r="R102" s="10">
+      <c r="R103" s="10">
         <v>212185000</v>
       </c>
-      <c r="S102" s="10">
+      <c r="S103" s="10">
         <v>57012000</v>
       </c>
-      <c r="T102" s="10">
+      <c r="T103" s="10">
         <v>109354000</v>
       </c>
-      <c r="AA102" s="32" t="s">
+      <c r="AA103" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AB102" s="33">
-        <f>AB101/AB103</f>
-        <v>0.97720968429334476</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="AB103" s="33">
+        <f>AB102/AB104</f>
+        <v>0.98143649630059737</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="B104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104" s="1">
         <v>2651774</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E104" s="1">
         <v>3877017</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F104" s="1">
         <v>16028534</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G104" s="1">
         <v>52544971</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H104" s="1">
         <v>56797000</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I104" s="1">
         <v>159573000</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J104" s="1">
         <v>316286000</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K104" s="1">
         <v>409437000</v>
       </c>
-      <c r="L103" s="1">
+      <c r="L104" s="1">
         <v>590179000</v>
       </c>
-      <c r="M103" s="1">
+      <c r="M104" s="1">
         <v>698649000</v>
       </c>
-      <c r="N103" s="1">
+      <c r="N104" s="1">
         <v>664479000</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O104" s="1">
         <v>501482000</v>
       </c>
-      <c r="P103" s="1">
+      <c r="P104" s="1">
         <v>734846000</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="Q104" s="1">
         <v>990501000</v>
       </c>
-      <c r="R103" s="1">
+      <c r="R104" s="1">
         <v>881320000</v>
       </c>
-      <c r="S103" s="1">
+      <c r="S104" s="1">
         <v>1093505000</v>
       </c>
-      <c r="T103" s="1">
+      <c r="T104" s="1">
         <v>1150517000</v>
       </c>
-      <c r="AA103" s="34" t="s">
+      <c r="AA104" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="AB103" s="40">
-        <f>AB99+AB101</f>
-        <v>38659052000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+      <c r="AB104" s="39">
+        <f>AB100+AB102</f>
+        <v>47461514500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D104" s="11">
+      <c r="B105" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" s="11">
         <v>3877017</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E105" s="11">
         <v>16028534</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F105" s="11">
         <v>53339326</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G105" s="11">
         <v>56796981</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H105" s="11">
         <v>159573000</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I105" s="11">
         <v>316286000</v>
       </c>
-      <c r="J104" s="11">
+      <c r="J105" s="11">
         <v>409437000</v>
       </c>
-      <c r="K104" s="11">
+      <c r="K105" s="11">
         <v>590179000</v>
       </c>
-      <c r="L104" s="11">
+      <c r="L105" s="11">
         <v>698649000</v>
       </c>
-      <c r="M104" s="11">
+      <c r="M105" s="11">
         <v>664479000</v>
       </c>
-      <c r="N104" s="11">
+      <c r="N105" s="11">
         <v>501482000</v>
       </c>
-      <c r="O104" s="11">
+      <c r="O105" s="11">
         <v>734846000</v>
       </c>
-      <c r="P104" s="11">
+      <c r="P105" s="11">
         <v>990501000</v>
       </c>
-      <c r="Q104" s="11">
+      <c r="Q105" s="11">
         <v>881320000</v>
       </c>
-      <c r="R104" s="11">
+      <c r="R105" s="11">
         <v>1093505000</v>
       </c>
-      <c r="S104" s="11">
+      <c r="S105" s="11">
         <v>1150517000</v>
       </c>
-      <c r="T104" s="11">
+      <c r="T105" s="11">
         <v>1259871000</v>
       </c>
-      <c r="AA104" s="65" t="s">
+      <c r="AA105" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AB104" s="66"/>
-    </row>
-    <row r="105" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+      <c r="AB105" s="66"/>
+    </row>
+    <row r="106" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>-1.7328553596185596</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
         <v>-0.3666284142813121</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
         <v>-0.2979704143643257</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:O105" si="19">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" ref="H106:O106" si="36">(H107/G107)-1</f>
         <v>16.207987046568533</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="19"/>
+      <c r="I106" s="15">
+        <f t="shared" si="36"/>
         <v>0.34925678533835702</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="19"/>
+      <c r="J106" s="15">
+        <f t="shared" si="36"/>
         <v>-0.40721514188223629</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="19"/>
+      <c r="K106" s="15">
+        <f t="shared" si="36"/>
         <v>1.2985830955426549</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="19"/>
+      <c r="L106" s="15">
+        <f t="shared" si="36"/>
         <v>-8.0012200081333917E-2</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="19"/>
+      <c r="M106" s="15">
+        <f t="shared" si="36"/>
         <v>0.13252409396792908</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="19"/>
+      <c r="N106" s="15">
+        <f t="shared" si="36"/>
         <v>-0.20266952895499091</v>
       </c>
-      <c r="O105" s="15">
-        <f t="shared" si="19"/>
+      <c r="O106" s="15">
+        <f t="shared" si="36"/>
         <v>0.51757453962242272</v>
       </c>
-      <c r="P105" s="15">
-        <f t="shared" ref="P105" si="20">(P106/O106)-1</f>
+      <c r="P106" s="15">
+        <f t="shared" ref="P106" si="37">(P107/O107)-1</f>
         <v>0.40688346745441573</v>
       </c>
-      <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="21">(Q106/P106)-1</f>
+      <c r="Q106" s="15">
+        <f t="shared" ref="Q106" si="38">(Q107/P107)-1</f>
         <v>0.55962024056257986</v>
       </c>
-      <c r="R105" s="15">
-        <f t="shared" ref="R105" si="22">(R106/Q106)-1</f>
+      <c r="R106" s="15">
+        <f t="shared" ref="R106" si="39">(R107/Q107)-1</f>
         <v>-0.25282607181820294</v>
       </c>
-      <c r="S105" s="15">
-        <f t="shared" ref="S105" si="23">(S106/R106)-1</f>
+      <c r="S106" s="15">
+        <f t="shared" ref="S106" si="40">(S107/R107)-1</f>
         <v>0.48629966758830667</v>
       </c>
-      <c r="T105" s="15">
-        <f t="shared" ref="T105" si="24">(T106/S106)-1</f>
+      <c r="T106" s="15">
+        <f t="shared" ref="T106" si="41">(T107/S107)-1</f>
         <v>0.73243106721708373</v>
       </c>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="25" t="s">
+      <c r="U106" s="15"/>
+      <c r="V106" s="15"/>
+      <c r="W106" s="15"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="15"/>
+      <c r="AA106" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="AB105" s="26">
-        <f>(AB100*AB92)+(AB102*AB97)</f>
-        <v>9.5968342860554362E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="AB106" s="26">
+        <f>(AB101*AB93)+(AB103*AB98)</f>
+        <v>9.6383443273944616E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="B107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107" s="1">
         <v>-18128333</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>13285446</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>8414624</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>5907315</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>101653000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>137156000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>81304000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>186884000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>171931000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>194716000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>155253000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>235608000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>331473000</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q107" s="1">
         <v>516972000</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R107" s="1">
         <v>386268000</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S107" s="1">
         <v>574110000</v>
       </c>
-      <c r="T106" s="1">
+      <c r="T107" s="1">
         <v>994606000</v>
       </c>
-      <c r="U106" s="41">
-        <f>T106*(1+$AB$106)</f>
-        <v>1144300234.0248864</v>
-      </c>
-      <c r="V106" s="41">
-        <f t="shared" ref="V106:Y106" si="25">U106*(1+$AB$106)</f>
-        <v>1316524357.9763341</v>
-      </c>
-      <c r="W106" s="41">
-        <f t="shared" si="25"/>
-        <v>1514669256.9035199</v>
-      </c>
-      <c r="X106" s="41">
-        <f t="shared" si="25"/>
-        <v>1742636164.6169422</v>
-      </c>
-      <c r="Y106" s="41">
-        <f t="shared" si="25"/>
-        <v>2004913474.2716184</v>
-      </c>
-      <c r="Z106" s="42" t="s">
+      <c r="U107" s="40">
+        <f>T107*(1+$AB$107)</f>
+        <v>1153619134.2736006</v>
+      </c>
+      <c r="V107" s="40">
+        <f t="shared" ref="V107:Y107" si="42">U107*(1+$AB$107)</f>
+        <v>1338054573.3307176</v>
+      </c>
+      <c r="W107" s="40">
+        <f t="shared" si="42"/>
+        <v>1551976720.9293072</v>
+      </c>
+      <c r="X107" s="40">
+        <f t="shared" si="42"/>
+        <v>1800099779.4214482</v>
+      </c>
+      <c r="Y107" s="40">
+        <f t="shared" si="42"/>
+        <v>2087891636.630254</v>
+      </c>
+      <c r="Z107" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="AA106" s="43" t="s">
+      <c r="AA107" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="AB106" s="44">
+      <c r="AB107" s="43">
         <f>(SUM(U4:Y4)/5)</f>
-        <v>0.15050606373266023</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="42"/>
-      <c r="V107" s="42"/>
-      <c r="W107" s="42"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="45">
-        <f>Y106*(1+AB107)/(AB108-AB107)</f>
-        <v>31303816178.3895</v>
-      </c>
-      <c r="Z107" s="46" t="s">
+        <v>0.15987550273535517</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="41"/>
+      <c r="V108" s="41"/>
+      <c r="W108" s="41"/>
+      <c r="X108" s="41"/>
+      <c r="Y108" s="44">
+        <f>Y107*(1+AB108)/(AB109-AB108)</f>
+        <v>32395553464.356682</v>
+      </c>
+      <c r="Z108" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="AA107" s="47" t="s">
+      <c r="AA108" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="AB107" s="48">
+      <c r="AB108" s="47">
         <v>0.03</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U108" s="45">
-        <f t="shared" ref="U108:W108" si="26">U107+U106</f>
-        <v>1144300234.0248864</v>
-      </c>
-      <c r="V108" s="45">
-        <f t="shared" si="26"/>
-        <v>1316524357.9763341</v>
-      </c>
-      <c r="W108" s="45">
-        <f t="shared" si="26"/>
-        <v>1514669256.9035199</v>
-      </c>
-      <c r="X108" s="45">
-        <f>X107+X106</f>
-        <v>1742636164.6169422</v>
-      </c>
-      <c r="Y108" s="45">
-        <f>Y107+Y106</f>
-        <v>33308729652.661118</v>
-      </c>
-      <c r="Z108" s="46" t="s">
+    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U109" s="44">
+        <f t="shared" ref="U109:W109" si="43">U108+U107</f>
+        <v>1153619134.2736006</v>
+      </c>
+      <c r="V109" s="44">
+        <f t="shared" si="43"/>
+        <v>1338054573.3307176</v>
+      </c>
+      <c r="W109" s="44">
+        <f t="shared" si="43"/>
+        <v>1551976720.9293072</v>
+      </c>
+      <c r="X109" s="44">
+        <f>X108+X107</f>
+        <v>1800099779.4214482</v>
+      </c>
+      <c r="Y109" s="44">
+        <f>Y108+Y107</f>
+        <v>34483445100.986938</v>
+      </c>
+      <c r="Z109" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="AA108" s="49" t="s">
+      <c r="AA109" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AB108" s="50">
-        <f>AB105</f>
-        <v>9.5968342860554362E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="61" t="s">
+      <c r="AB109" s="49">
+        <f>AB106</f>
+        <v>9.6383443273944616E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U110" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="V109" s="62"/>
-    </row>
-    <row r="110" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U110" s="51" t="s">
+      <c r="V110" s="62"/>
+    </row>
+    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U111" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="V110" s="52">
-        <f>NPV(AB108,U108,V108,W108,X108,Y108)</f>
-        <v>25563927247.886311</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U111" s="51" t="s">
+      <c r="V111" s="51">
+        <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
+        <v>26355723488.636967</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U112" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="V111" s="52">
+      <c r="V112" s="51">
         <f>T40</f>
         <v>1259871000</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U112" s="51" t="s">
+    <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U113" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="V112" s="52">
-        <f>AB99</f>
+      <c r="V113" s="51">
+        <f>AB100</f>
         <v>881052000</v>
       </c>
     </row>
-    <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U113" s="51" t="s">
+    <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U114" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="V113" s="52">
-        <f>V110+V111-V112</f>
-        <v>25942746247.886311</v>
-      </c>
-    </row>
-    <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U114" s="51" t="s">
+      <c r="V114" s="51">
+        <f>V111+V112-V113</f>
+        <v>26734542488.636967</v>
+      </c>
+    </row>
+    <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U115" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="V114" s="53">
+      <c r="V115" s="52">
         <f>T34*(1+(5*Z16))</f>
         <v>123526575.90439142</v>
       </c>
     </row>
-    <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U115" s="54" t="s">
+    <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U116" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="V115" s="55">
-        <f>V113/V114</f>
-        <v>210.0175290859336</v>
-      </c>
-    </row>
-    <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U116" s="56" t="s">
+      <c r="V116" s="54">
+        <f>V114/V115</f>
+        <v>216.42745533017356</v>
+      </c>
+    </row>
+    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U117" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="V116" s="57">
-        <v>296.26</v>
-      </c>
-    </row>
-    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U117" s="58" t="s">
+      <c r="V117" s="56">
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U118" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="V117" s="59">
-        <f>V115/V116-1</f>
-        <v>-0.29110399957492195</v>
-      </c>
-    </row>
-    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U118" s="58" t="s">
+      <c r="V118" s="58">
+        <f>V116/V117-1</f>
+        <v>-0.39460851655895512</v>
+      </c>
+    </row>
+    <row r="119" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U119" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="V118" s="60" t="str">
-        <f>IF(V115&gt;V116,"BUY","SELL")</f>
+      <c r="V119" s="59" t="str">
+        <f>IF(V116&gt;V117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="U109:V109"/>
-    <mergeCell ref="AA83:AB83"/>
+    <mergeCell ref="U110:V110"/>
     <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AA93:AB93"/>
-    <mergeCell ref="AA98:AB98"/>
-    <mergeCell ref="AA104:AB104"/>
+    <mergeCell ref="AA85:AB85"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AA99:AB99"/>
+    <mergeCell ref="AA105:AB105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/LULU" display="ROIC.AI | LULU" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B36" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B74" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B75" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C36" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C74" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C75" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D36" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D74" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D75" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E36" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E74" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E75" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F36" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000090956708000415/0000909567-08-000415-index.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000090956708000415/0000909567-08-000415-index.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F75" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000090956708000415/0000909567-08-000415-index.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000090956709000292/0000909567-09-000292-index.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000090956709000292/0000909567-09-000292-index.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G75" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000090956709000292/0000909567-09-000292-index.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="H36" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000095012310028033/0000950123-10-028033-index.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H74" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000095012310028033/0000950123-10-028033-index.html" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H75" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000095012310028033/0000950123-10-028033-index.html" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000095012311026220/o67665e10vk.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I74" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000095012311026220/o67665e10vk.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I75" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000095012311026220/o67665e10vk.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="J36" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000119312512126444/0001193125-12-126444-index.html" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J74" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000119312512126444/0001193125-12-126444-index.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J75" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000119312512126444/0001193125-12-126444-index.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="K36" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000119312513118393/0001193125-13-118393-index.html" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K74" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000119312513118393/0001193125-13-118393-index.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K75" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000119312513118393/0001193125-13-118393-index.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="L36" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718714000021/lulu-20140202x10k.htm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L74" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718714000021/lulu-20140202x10k.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L75" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718714000021/lulu-20140202x10k.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="M36" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718715000016/lulu-20150201x10k.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M74" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718715000016/lulu-20150201x10k.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M75" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718715000016/lulu-20150201x10k.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="N36" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718716000089/0001397187-16-000089-index.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N74" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718716000089/0001397187-16-000089-index.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N75" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718716000089/0001397187-16-000089-index.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="O36" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718717000008/0001397187-17-000008-index.html" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O74" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718717000008/0001397187-17-000008-index.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="O75" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718717000008/0001397187-17-000008-index.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="P36" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718718000013/0001397187-18-000013-index.html" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="P74" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718718000013/0001397187-18-000013-index.html" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="P75" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718718000013/0001397187-18-000013-index.html" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718719000011/0001397187-19-000011-index.html" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718719000011/0001397187-19-000011-index.html" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Q75" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718719000011/0001397187-19-000011-index.html" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="R36" r:id="rId34" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718720000012/0001397187-20-000012-index.html" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="R74" r:id="rId35" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718720000012/0001397187-20-000012-index.html" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="R75" r:id="rId35" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718720000012/0001397187-20-000012-index.html" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="S36" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718721000009/0001397187-21-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="S74" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718721000009/0001397187-21-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="S75" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718721000009/0001397187-21-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="T36" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T74" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T75" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="U1" r:id="rId40" display="https://finbox.com/NASDAQGS:LULU/explorer/revenue_proj" xr:uid="{BBE035EE-A2F8-3A45-96BF-43935D2DF3D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7C553B-0F6D-D447-956A-2220509E33B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE12E78-A563-3842-964A-202BE1C8970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Lululemon</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -861,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,12 +965,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -969,10 +998,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1001,6 +1026,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,6 +1045,446 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1x6m7&amp;q=XNAS%3aLULU&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1x6m7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>389.06</v>
+    <v>251.51</v>
+    <v>1.3929</v>
+    <v>-2</v>
+    <v>-5.2729999999999999E-3</v>
+    <v>0.73</v>
+    <v>1.9350000000000001E-3</v>
+    <v>USD</v>
+    <v>lululemon athletica inc. is a designer, distributor and retailer of lifestyle inspired athletic apparel and accessories. The Company’s segments include Company-operated stores and direct to consumer. Its apparel assortment includes items such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities such as yoga, running, training, and other sweaty pursuits. It also offers fitness-related accessories. Its Company-operated stores include approximately 600 stores in 17 countries. Its retail stores are located primarily on street locations, in lifestyle centers, and in malls. Its direct to consumer segment includes electronic commerce Website www.lululemon.com, other country and region-specific websites, and mobile applications, including mobile applications on in-store devices. The Company also conduct business through MIRROR, which offers in-home fitness through a workout platform; operate outlets and temporary locations.</v>
+    <v>34000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
+    <v>379.66</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>Stock</v>
+    <v>45057.994011875002</v>
+    <v>0</v>
+    <v>376.05</v>
+    <v>48040382400</v>
+    <v>LULULEMON ATHLETICA INC.</v>
+    <v>LULULEMON ATHLETICA INC.</v>
+    <v>378.75</v>
+    <v>56.786999999999999</v>
+    <v>379.32</v>
+    <v>377.32</v>
+    <v>378.05</v>
+    <v>127320000</v>
+    <v>LULU</v>
+    <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
+    <v>775898</v>
+    <v>1241843</v>
+    <v>2005</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1319,10 +1787,10 @@
   <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="X85" sqref="X85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1333,8 +1801,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2004</v>
@@ -1544,36 +2012,36 @@
         <v>6256617000</v>
       </c>
       <c r="U3" s="28">
-        <v>9300000000</v>
+        <v>8111000000</v>
       </c>
       <c r="V3" s="28">
-        <v>9174000000</v>
+        <v>9392000000</v>
       </c>
       <c r="W3" s="28">
-        <v>10403000000</v>
+        <v>10617000000</v>
       </c>
       <c r="X3" s="28">
-        <v>11345000000</v>
+        <v>11801000000</v>
       </c>
       <c r="Y3" s="28">
-        <v>12502000000</v>
+        <v>13018000000</v>
       </c>
       <c r="Z3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -1650,23 +2118,23 @@
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>0.48642629075744925</v>
+        <v>0.29638748863802911</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>-1.3548387096774195E-2</v>
+        <v>0.1579336703242511</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13396555482886408</v>
+        <v>0.13043015332197605</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>9.0550802653080797E-2</v>
+        <v>0.11151926156164649</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10198325253415597</v>
+        <v>0.10312685365646979</v>
       </c>
       <c r="Z4" s="17">
         <f>(T4+S4+R4)/3</f>
@@ -1809,16 +2277,16 @@
         <v>3608565000</v>
       </c>
       <c r="Z6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AB6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AC6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -1963,7 +2431,7 @@
     </row>
     <row r="9" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -2042,16 +2510,16 @@
         <v>0</v>
       </c>
       <c r="Z9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AA9" s="19" t="s">
+      <c r="AB9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AC9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2256,21 +2724,21 @@
         <v>2225034000</v>
       </c>
       <c r="Z12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AA12" s="19" t="s">
+      <c r="AB12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AB12" s="19" t="s">
+      <c r="AC12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -2489,16 +2957,16 @@
         <v>2233816000</v>
       </c>
       <c r="Z15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AA15" s="19" t="s">
+      <c r="AB15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AB15" s="19" t="s">
+      <c r="AC15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2568,15 +3036,15 @@
       </c>
       <c r="AA16" s="30">
         <f>AB102/T3</f>
-        <v>7.4449918382410178</v>
+        <v>7.6783319803657468</v>
       </c>
       <c r="AB16" s="30">
         <f>AB102/T28</f>
-        <v>47.759060597423208</v>
+        <v>49.255919993602113</v>
       </c>
       <c r="AC16" s="31">
         <f>AB102/T107</f>
-        <v>46.833080134244113</v>
+        <v>48.30091754926071</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -2703,7 +3171,7 @@
         <v>224206000</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -2767,14 +3235,14 @@
       <c r="T19" s="10">
         <v>1558075000</v>
       </c>
-      <c r="Z19" s="60">
+      <c r="Z19" s="55">
         <f>T40-T57-T62</f>
         <v>378819000</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3348,7 +3816,7 @@
     </row>
     <row r="29" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3609,9 +4077,7 @@
       <c r="T32" s="12">
         <v>7.49</v>
       </c>
-      <c r="U32" s="12">
-        <v>11.5</v>
-      </c>
+      <c r="U32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -3739,7 +4205,7 @@
     </row>
     <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4251,7 +4717,7 @@
     </row>
     <row r="43" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="22" t="e">
@@ -6623,7 +7089,7 @@
     </row>
     <row r="81" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="15" t="e">
         <f t="shared" ref="B81:T81" si="34">B80/B3</f>
@@ -6887,10 +7353,10 @@
       <c r="T84" s="1">
         <v>-323609000</v>
       </c>
-      <c r="AA84" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB84" s="64"/>
+      <c r="AA84" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB84" s="59"/>
     </row>
     <row r="85" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6953,10 +7419,10 @@
       <c r="T85" s="1">
         <v>117655000</v>
       </c>
-      <c r="AA85" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB85" s="66"/>
+      <c r="AA85" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB85" s="61"/>
     </row>
     <row r="86" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -7020,7 +7486,7 @@
         <v>160208000</v>
       </c>
       <c r="AA86" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB86" s="24">
         <f>T17</f>
@@ -7089,7 +7555,7 @@
         <v>-3508000</v>
       </c>
       <c r="AA87" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB87" s="24">
         <f>T57</f>
@@ -7158,7 +7624,7 @@
         <v>1389108000</v>
       </c>
       <c r="AA88" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB88" s="24">
         <f>T62</f>
@@ -7226,11 +7692,9 @@
       <c r="T89" s="1">
         <v>-394502000</v>
       </c>
-      <c r="U89" s="1">
-        <v>-670002000</v>
-      </c>
+      <c r="U89" s="1"/>
       <c r="AA89" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB89" s="33">
         <f>AB86/(AB87+AB88)</f>
@@ -7239,7 +7703,7 @@
     </row>
     <row r="90" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="15" t="e">
         <f t="shared" ref="B90:U90" si="35">(-1*B89)/B3</f>
@@ -7317,12 +7781,9 @@
         <f t="shared" si="35"/>
         <v>6.3053563930795184E-2</v>
       </c>
-      <c r="U90" s="15">
-        <f t="shared" si="35"/>
-        <v>7.2043225806451616E-2</v>
-      </c>
+      <c r="U90" s="15"/>
       <c r="AA90" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB90" s="24">
         <f>T27</f>
@@ -7460,7 +7921,7 @@
         <v>-23389000</v>
       </c>
       <c r="AA92" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB92" s="33">
         <f>AB90/AB91</f>
@@ -7529,7 +7990,7 @@
         <v>92</v>
       </c>
       <c r="AA93" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB93" s="35">
         <f>AB89*(1-AB92)</f>
@@ -7597,10 +8058,10 @@
       <c r="T94" s="1">
         <v>-10000000</v>
       </c>
-      <c r="AA94" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB94" s="66"/>
+      <c r="AA94" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB94" s="61"/>
     </row>
     <row r="95" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -7664,7 +8125,7 @@
         <v>-427891000</v>
       </c>
       <c r="AA95" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB95" s="36">
         <v>4.095E-2</v>
@@ -7731,11 +8192,12 @@
       <c r="T96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA96" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB96" s="38">
-        <v>1.33</v>
+      <c r="AA96" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB96" s="62" cm="1">
+        <f t="array" ref="AB96">_FV(A1,"Beta")</f>
+        <v>1.3929</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -7800,7 +8262,7 @@
         <v>92</v>
       </c>
       <c r="AA97" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB97" s="36">
         <v>8.4000000000000005E-2</v>
@@ -7868,11 +8330,11 @@
         <v>-812602000</v>
       </c>
       <c r="AA98" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB98" s="35">
         <f>(AB95)+((AB96)*(AB97-AB95))</f>
-        <v>9.8206500000000002E-2</v>
+        <v>0.10091434500000002</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -7936,10 +8398,10 @@
       <c r="T99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA99" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB99" s="66"/>
+      <c r="AA99" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB99" s="61"/>
     </row>
     <row r="100" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -8003,7 +8465,7 @@
         <v>-32385000</v>
       </c>
       <c r="AA100" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB100" s="24">
         <f>AB87+AB88</f>
@@ -8072,11 +8534,11 @@
         <v>-844987000</v>
       </c>
       <c r="AA101" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB101" s="33">
         <f>AB100/AB104</f>
-        <v>1.8563503699402597E-2</v>
+        <v>1.8009529172758679E-2</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8141,11 +8603,11 @@
         <v>-6876000</v>
       </c>
       <c r="AA102" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB102" s="51">
-        <f>V117*T34</f>
-        <v>46580462500</v>
+        <v>141</v>
+      </c>
+      <c r="AB102" s="48" cm="1">
+        <f t="array" ref="AB102">_FV(A1,"Market cap",TRUE)</f>
+        <v>48040382400</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8210,11 +8672,11 @@
         <v>109354000</v>
       </c>
       <c r="AA103" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB103" s="33">
         <f>AB102/AB104</f>
-        <v>0.98143649630059737</v>
+        <v>0.98199047082724134</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8279,11 +8741,11 @@
         <v>1150517000</v>
       </c>
       <c r="AA104" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB104" s="39">
+        <v>143</v>
+      </c>
+      <c r="AB104" s="37">
         <f>AB100+AB102</f>
-        <v>47461514500</v>
+        <v>48921434400</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8347,14 +8809,14 @@
       <c r="T105" s="11">
         <v>1259871000</v>
       </c>
-      <c r="AA105" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB105" s="66"/>
+      <c r="AA105" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB105" s="61"/>
     </row>
     <row r="106" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
@@ -8436,11 +8898,11 @@
       <c r="Y106" s="15"/>
       <c r="Z106" s="15"/>
       <c r="AA106" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB106" s="26">
         <f>(AB101*AB93)+(AB103*AB98)</f>
-        <v>9.6383443273944616E-2</v>
+        <v>9.9096925159772684E-2</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8504,35 +8966,35 @@
       <c r="T107" s="1">
         <v>994606000</v>
       </c>
-      <c r="U107" s="40">
+      <c r="U107" s="63">
         <f>T107*(1+$AB$107)</f>
-        <v>1153619134.2736006</v>
-      </c>
-      <c r="V107" s="40">
+        <v>1153623095.555685</v>
+      </c>
+      <c r="V107" s="63">
         <f t="shared" ref="V107:Y107" si="42">U107*(1+$AB$107)</f>
-        <v>1338054573.3307176</v>
-      </c>
-      <c r="W107" s="40">
+        <v>1338063762.5345929</v>
+      </c>
+      <c r="W107" s="63">
         <f t="shared" si="42"/>
-        <v>1551976720.9293072</v>
-      </c>
-      <c r="X107" s="40">
+        <v>1551992708.4554527</v>
+      </c>
+      <c r="X107" s="63">
         <f t="shared" si="42"/>
-        <v>1800099779.4214482</v>
-      </c>
-      <c r="Y107" s="40">
+        <v>1800124504.1837986</v>
+      </c>
+      <c r="Y107" s="63">
         <f t="shared" si="42"/>
-        <v>2087891636.630254</v>
-      </c>
-      <c r="Z107" s="41" t="s">
+        <v>2087927483.7495012</v>
+      </c>
+      <c r="Z107" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA107" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AA107" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB107" s="43">
+      <c r="AB107" s="40">
         <f>(SUM(U4:Y4)/5)</f>
-        <v>0.15987550273535517</v>
+        <v>0.15987948550047451</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8556,138 +9018,139 @@
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
       <c r="T108" s="13"/>
-      <c r="U108" s="41"/>
-      <c r="V108" s="41"/>
-      <c r="W108" s="41"/>
-      <c r="X108" s="41"/>
-      <c r="Y108" s="44">
+      <c r="U108" s="38"/>
+      <c r="V108" s="38"/>
+      <c r="W108" s="38"/>
+      <c r="X108" s="38"/>
+      <c r="Y108" s="41">
         <f>Y107*(1+AB108)/(AB109-AB108)</f>
-        <v>32395553464.356682</v>
-      </c>
-      <c r="Z108" s="45" t="s">
+        <v>31123893042.841461</v>
+      </c>
+      <c r="Z108" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA108" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AA108" s="46" t="s">
+      <c r="AB108" s="44">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U109" s="41">
+        <f t="shared" ref="U109:W109" si="43">U108+U107</f>
+        <v>1153623095.555685</v>
+      </c>
+      <c r="V109" s="41">
+        <f t="shared" si="43"/>
+        <v>1338063762.5345929</v>
+      </c>
+      <c r="W109" s="41">
+        <f t="shared" si="43"/>
+        <v>1551992708.4554527</v>
+      </c>
+      <c r="X109" s="41">
+        <f>X108+X107</f>
+        <v>1800124504.1837986</v>
+      </c>
+      <c r="Y109" s="41">
+        <f>Y108+Y107</f>
+        <v>33211820526.590961</v>
+      </c>
+      <c r="Z109" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA109" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AB108" s="47">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="44">
-        <f t="shared" ref="U109:W109" si="43">U108+U107</f>
-        <v>1153619134.2736006</v>
-      </c>
-      <c r="V109" s="44">
-        <f t="shared" si="43"/>
-        <v>1338054573.3307176</v>
-      </c>
-      <c r="W109" s="44">
-        <f t="shared" si="43"/>
-        <v>1551976720.9293072</v>
-      </c>
-      <c r="X109" s="44">
-        <f>X108+X107</f>
-        <v>1800099779.4214482</v>
-      </c>
-      <c r="Y109" s="44">
-        <f>Y108+Y107</f>
-        <v>34483445100.986938</v>
-      </c>
-      <c r="Z109" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA109" s="48" t="s">
+      <c r="AB109" s="46">
+        <f>AB106</f>
+        <v>9.9096925159772684E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U110" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="AB109" s="49">
-        <f>AB106</f>
-        <v>9.6383443273944616E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U110" s="61" t="s">
+      <c r="V110" s="57"/>
+    </row>
+    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U111" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="V110" s="62"/>
-    </row>
-    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U111" s="50" t="s">
+      <c r="V111" s="48">
+        <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
+        <v>25266519687.149921</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U112" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="V111" s="51">
-        <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
-        <v>26355723488.636967</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U112" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="V112" s="51">
+      <c r="V112" s="48">
         <f>T40</f>
         <v>1259871000</v>
       </c>
     </row>
     <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U113" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="V113" s="51">
+      <c r="U113" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="V113" s="48">
         <f>AB100</f>
         <v>881052000</v>
       </c>
     </row>
     <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U114" s="50" t="s">
+      <c r="U114" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="V114" s="48">
+        <f>V111+V112-V113</f>
+        <v>25645338687.149921</v>
+      </c>
+    </row>
+    <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U115" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="V114" s="51">
-        <f>V111+V112-V113</f>
-        <v>26734542488.636967</v>
-      </c>
-    </row>
-    <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U115" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="V115" s="52">
+      <c r="V115" s="49">
         <f>T34*(1+(5*Z16))</f>
         <v>123526575.90439142</v>
       </c>
     </row>
     <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U116" s="53" t="s">
+      <c r="U116" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="V116" s="51">
+        <f>V114/V115</f>
+        <v>207.60988879833604</v>
+      </c>
+    </row>
+    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U117" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="V116" s="54">
-        <f>V114/V115</f>
-        <v>216.42745533017356</v>
-      </c>
-    </row>
-    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U117" s="55" t="s">
+      <c r="V117" s="64" cm="1">
+        <f t="array" ref="V117">_FV(A1,"Price",TRUE)</f>
+        <v>377.32</v>
+      </c>
+    </row>
+    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U118" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="V117" s="56">
-        <v>357.5</v>
-      </c>
-    </row>
-    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U118" s="57" t="s">
+      <c r="V118" s="53">
+        <f>V116/V117-1</f>
+        <v>-0.44977767200695418</v>
+      </c>
+    </row>
+    <row r="119" spans="21:22" ht="20" x14ac:dyDescent="0.25">
+      <c r="U119" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="V118" s="58">
-        <f>V116/V117-1</f>
-        <v>-0.39460851655895512</v>
-      </c>
-    </row>
-    <row r="119" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U119" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="V119" s="59" t="str">
+      <c r="V119" s="54" t="str">
         <f>IF(V116&gt;V117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE12E78-A563-3842-964A-202BE1C8970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F1767-4E9D-9C45-A2BA-087177C44C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,6 +1008,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,9 +1029,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,12 +1168,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>389.06</v>
-    <v>251.51</v>
-    <v>1.3929</v>
-    <v>-2</v>
-    <v>-5.2729999999999999E-3</v>
-    <v>0.73</v>
-    <v>1.9350000000000001E-3</v>
+    <v>258.79000000000002</v>
+    <v>1.4081999999999999</v>
+    <v>0.18</v>
+    <v>4.8890000000000001E-4</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>lululemon athletica inc. is a designer, distributor and retailer of lifestyle inspired athletic apparel and accessories. The Company’s segments include Company-operated stores and direct to consumer. Its apparel assortment includes items such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities such as yoga, running, training, and other sweaty pursuits. It also offers fitness-related accessories. Its Company-operated stores include approximately 600 stores in 17 countries. Its retail stores are located primarily on street locations, in lifestyle centers, and in malls. Its direct to consumer segment includes electronic commerce Website www.lululemon.com, other country and region-specific websites, and mobile applications, including mobile applications on in-store devices. The Company also conduct business through MIRROR, which offers in-home fitness through a workout platform; operate outlets and temporary locations.</v>
     <v>34000</v>
@@ -1181,25 +1181,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
-    <v>379.66</v>
+    <v>370.53</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45057.994011875002</v>
+    <v>45090.94719746484</v>
     <v>0</v>
-    <v>376.05</v>
-    <v>48040382400</v>
+    <v>364.43</v>
+    <v>44921317820</v>
     <v>LULULEMON ATHLETICA INC.</v>
     <v>LULULEMON ATHLETICA INC.</v>
-    <v>378.75</v>
-    <v>56.786999999999999</v>
-    <v>379.32</v>
-    <v>377.32</v>
-    <v>378.05</v>
-    <v>127320000</v>
+    <v>370.25</v>
+    <v>49.253300000000003</v>
+    <v>368.18</v>
+    <v>368.36</v>
+    <v>368.36</v>
+    <v>121949500</v>
     <v>LULU</v>
     <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
-    <v>775898</v>
-    <v>1241843</v>
+    <v>1629040</v>
+    <v>2065775</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -1787,10 +1787,10 @@
   <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X85" sqref="X85"/>
+      <selection pane="bottomRight" activeCell="Y101" sqref="Y101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3036,15 +3036,15 @@
       </c>
       <c r="AA16" s="30">
         <f>AB102/T3</f>
-        <v>7.6783319803657468</v>
+        <v>7.1798094433461408</v>
       </c>
       <c r="AB16" s="30">
         <f>AB102/T28</f>
-        <v>49.255919993602113</v>
+        <v>46.057935553591534</v>
       </c>
       <c r="AC16" s="31">
         <f>AB102/T107</f>
-        <v>48.30091754926071</v>
+        <v>45.164937492836359</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -7353,10 +7353,10 @@
       <c r="T84" s="1">
         <v>-323609000</v>
       </c>
-      <c r="AA84" s="58" t="s">
+      <c r="AA84" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AB84" s="59"/>
+      <c r="AB84" s="62"/>
     </row>
     <row r="85" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7419,10 +7419,10 @@
       <c r="T85" s="1">
         <v>117655000</v>
       </c>
-      <c r="AA85" s="60" t="s">
+      <c r="AA85" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AB85" s="61"/>
+      <c r="AB85" s="64"/>
     </row>
     <row r="86" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -7706,7 +7706,7 @@
         <v>105</v>
       </c>
       <c r="B90" s="15" t="e">
-        <f t="shared" ref="B90:U90" si="35">(-1*B89)/B3</f>
+        <f t="shared" ref="B90:T90" si="35">(-1*B89)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C90" s="15" t="e">
@@ -8058,10 +8058,10 @@
       <c r="T94" s="1">
         <v>-10000000</v>
       </c>
-      <c r="AA94" s="60" t="s">
+      <c r="AA94" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="AB94" s="61"/>
+      <c r="AB94" s="64"/>
     </row>
     <row r="95" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -8195,9 +8195,9 @@
       <c r="AA96" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AB96" s="62" cm="1">
+      <c r="AB96" s="56" cm="1">
         <f t="array" ref="AB96">_FV(A1,"Beta")</f>
-        <v>1.3929</v>
+        <v>1.4081999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="AB98" s="35">
         <f>(AB95)+((AB96)*(AB97-AB95))</f>
-        <v>0.10091434500000002</v>
+        <v>0.10157301000000001</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8398,10 +8398,10 @@
       <c r="T99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA99" s="60" t="s">
+      <c r="AA99" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AB99" s="61"/>
+      <c r="AB99" s="64"/>
     </row>
     <row r="100" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -8538,7 +8538,7 @@
       </c>
       <c r="AB101" s="33">
         <f>AB100/AB104</f>
-        <v>1.8009529172758679E-2</v>
+        <v>1.9235947909736345E-2</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="AB102" s="48" cm="1">
         <f t="array" ref="AB102">_FV(A1,"Market cap",TRUE)</f>
-        <v>48040382400</v>
+        <v>44921317820</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="AB103" s="33">
         <f>AB102/AB104</f>
-        <v>0.98199047082724134</v>
+        <v>0.98076405209026363</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="AB104" s="37">
         <f>AB100+AB102</f>
-        <v>48921434400</v>
+        <v>45802369820</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8809,10 +8809,10 @@
       <c r="T105" s="11">
         <v>1259871000</v>
       </c>
-      <c r="AA105" s="60" t="s">
+      <c r="AA105" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="AB105" s="61"/>
+      <c r="AB105" s="64"/>
     </row>
     <row r="106" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="AB106" s="26">
         <f>(AB101*AB93)+(AB103*AB98)</f>
-        <v>9.9096925159772684E-2</v>
+        <v>9.961915687060488E-2</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8966,23 +8966,23 @@
       <c r="T107" s="1">
         <v>994606000</v>
       </c>
-      <c r="U107" s="63">
+      <c r="U107" s="57">
         <f>T107*(1+$AB$107)</f>
         <v>1153623095.555685</v>
       </c>
-      <c r="V107" s="63">
+      <c r="V107" s="57">
         <f t="shared" ref="V107:Y107" si="42">U107*(1+$AB$107)</f>
         <v>1338063762.5345929</v>
       </c>
-      <c r="W107" s="63">
+      <c r="W107" s="57">
         <f t="shared" si="42"/>
         <v>1551992708.4554527</v>
       </c>
-      <c r="X107" s="63">
+      <c r="X107" s="57">
         <f t="shared" si="42"/>
         <v>1800124504.1837986</v>
       </c>
-      <c r="Y107" s="63">
+      <c r="Y107" s="57">
         <f t="shared" si="42"/>
         <v>2087927483.7495012</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="X108" s="38"/>
       <c r="Y108" s="41">
         <f>Y107*(1+AB108)/(AB109-AB108)</f>
-        <v>31123893042.841461</v>
+        <v>30890424488.464523</v>
       </c>
       <c r="Z108" s="42" t="s">
         <v>147</v>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="Y109" s="41">
         <f>Y108+Y107</f>
-        <v>33211820526.590961</v>
+        <v>32978351972.214024</v>
       </c>
       <c r="Z109" s="42" t="s">
         <v>143</v>
@@ -9065,14 +9065,14 @@
       </c>
       <c r="AB109" s="46">
         <f>AB106</f>
-        <v>9.9096925159772684E-2</v>
+        <v>9.961915687060488E-2</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U110" s="56" t="s">
+      <c r="U110" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="V110" s="57"/>
+      <c r="V110" s="60"/>
     </row>
     <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
       <c r="U111" s="47" t="s">
@@ -9080,7 +9080,7 @@
       </c>
       <c r="V111" s="48">
         <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
-        <v>25266519687.149921</v>
+        <v>25066622510.582317</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9107,7 +9107,7 @@
       </c>
       <c r="V114" s="48">
         <f>V111+V112-V113</f>
-        <v>25645338687.149921</v>
+        <v>25445441510.582317</v>
       </c>
     </row>
     <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
@@ -9125,16 +9125,16 @@
       </c>
       <c r="V116" s="51">
         <f>V114/V115</f>
-        <v>207.60988879833604</v>
+        <v>205.99163640929288</v>
       </c>
     </row>
     <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
       <c r="U117" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="V117" s="64" cm="1">
+      <c r="V117" s="58" cm="1">
         <f t="array" ref="V117">_FV(A1,"Price",TRUE)</f>
-        <v>377.32</v>
+        <v>368.36</v>
       </c>
     </row>
     <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
@@ -9143,7 +9143,7 @@
       </c>
       <c r="V118" s="53">
         <f>V116/V117-1</f>
-        <v>-0.44977767200695418</v>
+        <v>-0.44078717447797566</v>
       </c>
     </row>
     <row r="119" spans="21:22" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F1767-4E9D-9C45-A2BA-087177C44C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4EFB1-59B3-5944-90BC-9D7024272C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,11 +1169,9 @@
     <v>Powered by Refinitiv</v>
     <v>389.06</v>
     <v>258.79000000000002</v>
-    <v>1.4081999999999999</v>
-    <v>0.18</v>
-    <v>4.8890000000000001E-4</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.4152</v>
+    <v>-2.4049999999999998</v>
+    <v>-6.3629999999999997E-3</v>
     <v>USD</v>
     <v>lululemon athletica inc. is a designer, distributor and retailer of lifestyle inspired athletic apparel and accessories. The Company’s segments include Company-operated stores and direct to consumer. Its apparel assortment includes items such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities such as yoga, running, training, and other sweaty pursuits. It also offers fitness-related accessories. Its Company-operated stores include approximately 600 stores in 17 countries. Its retail stores are located primarily on street locations, in lifestyle centers, and in malls. Its direct to consumer segment includes electronic commerce Website www.lululemon.com, other country and region-specific websites, and mobile applications, including mobile applications on in-store devices. The Company also conduct business through MIRROR, which offers in-home fitness through a workout platform; operate outlets and temporary locations.</v>
     <v>34000</v>
@@ -1181,25 +1179,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
-    <v>370.53</v>
+    <v>377.3</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45090.94719746484</v>
+    <v>45100.775138055469</v>
     <v>0</v>
-    <v>364.43</v>
-    <v>44921317820</v>
+    <v>372.51</v>
+    <v>45798744472</v>
     <v>LULULEMON ATHLETICA INC.</v>
     <v>LULULEMON ATHLETICA INC.</v>
-    <v>370.25</v>
-    <v>49.253300000000003</v>
-    <v>368.18</v>
-    <v>368.36</v>
-    <v>368.36</v>
+    <v>374.53</v>
+    <v>50.561700000000002</v>
+    <v>377.96</v>
+    <v>375.55500000000001</v>
     <v>121949500</v>
     <v>LULU</v>
     <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
-    <v>1629040</v>
-    <v>2065775</v>
+    <v>833808</v>
+    <v>2165460</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -1231,8 +1228,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1253,7 +1248,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1270,7 +1264,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1281,16 +1275,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1356,19 +1347,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1413,9 +1398,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1423,9 +1405,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1790,7 +1769,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="R85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y101" sqref="Y101"/>
+      <selection pane="bottomRight" activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3036,15 +3015,15 @@
       </c>
       <c r="AA16" s="30">
         <f>AB102/T3</f>
-        <v>7.1798094433461408</v>
+        <v>7.320049232996042</v>
       </c>
       <c r="AB16" s="30">
         <f>AB102/T28</f>
-        <v>46.057935553591534</v>
+        <v>46.957563217070877</v>
       </c>
       <c r="AC16" s="31">
         <f>AB102/T107</f>
-        <v>45.164937492836359</v>
+        <v>46.04712265158264</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -8197,7 +8176,7 @@
       </c>
       <c r="AB96" s="56" cm="1">
         <f t="array" ref="AB96">_FV(A1,"Beta")</f>
-        <v>1.4081999999999999</v>
+        <v>1.4152</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8334,7 +8313,7 @@
       </c>
       <c r="AB98" s="35">
         <f>(AB95)+((AB96)*(AB97-AB95))</f>
-        <v>0.10157301000000001</v>
+        <v>0.10187436000000001</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8538,7 +8517,7 @@
       </c>
       <c r="AB101" s="33">
         <f>AB100/AB104</f>
-        <v>1.9235947909736345E-2</v>
+        <v>1.8874375352696374E-2</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8607,7 +8586,7 @@
       </c>
       <c r="AB102" s="48" cm="1">
         <f t="array" ref="AB102">_FV(A1,"Market cap",TRUE)</f>
-        <v>44921317820</v>
+        <v>45798744472</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -8676,7 +8655,7 @@
       </c>
       <c r="AB103" s="33">
         <f>AB102/AB104</f>
-        <v>0.98076405209026363</v>
+        <v>0.98112562464730357</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8745,7 +8724,7 @@
       </c>
       <c r="AB104" s="37">
         <f>AB100+AB102</f>
-        <v>45802369820</v>
+        <v>46679796472</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -8902,7 +8881,7 @@
       </c>
       <c r="AB106" s="26">
         <f>(AB101*AB93)+(AB103*AB98)</f>
-        <v>9.961915687060488E-2</v>
+        <v>9.9951545090544283E-2</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9024,7 +9003,7 @@
       <c r="X108" s="38"/>
       <c r="Y108" s="41">
         <f>Y107*(1+AB108)/(AB109-AB108)</f>
-        <v>30890424488.464523</v>
+        <v>30743642695.501938</v>
       </c>
       <c r="Z108" s="42" t="s">
         <v>147</v>
@@ -9055,7 +9034,7 @@
       </c>
       <c r="Y109" s="41">
         <f>Y108+Y107</f>
-        <v>32978351972.214024</v>
+        <v>32831570179.251438</v>
       </c>
       <c r="Z109" s="42" t="s">
         <v>143</v>
@@ -9065,7 +9044,7 @@
       </c>
       <c r="AB109" s="46">
         <f>AB106</f>
-        <v>9.961915687060488E-2</v>
+        <v>9.9951545090544283E-2</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9080,7 +9059,7 @@
       </c>
       <c r="V111" s="48">
         <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
-        <v>25066622510.582317</v>
+        <v>24940957393.220322</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -9107,7 +9086,7 @@
       </c>
       <c r="V114" s="48">
         <f>V111+V112-V113</f>
-        <v>25445441510.582317</v>
+        <v>25319776393.220322</v>
       </c>
     </row>
     <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
@@ -9125,7 +9104,7 @@
       </c>
       <c r="V116" s="51">
         <f>V114/V115</f>
-        <v>205.99163640929288</v>
+        <v>204.97432400957689</v>
       </c>
     </row>
     <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
@@ -9134,7 +9113,7 @@
       </c>
       <c r="V117" s="58" cm="1">
         <f t="array" ref="V117">_FV(A1,"Price",TRUE)</f>
-        <v>368.36</v>
+        <v>375.55500000000001</v>
       </c>
     </row>
     <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
@@ -9143,7 +9122,7 @@
       </c>
       <c r="V118" s="53">
         <f>V116/V117-1</f>
-        <v>-0.44078717447797566</v>
+        <v>-0.45420957247386695</v>
       </c>
     </row>
     <row r="119" spans="21:22" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4EFB1-59B3-5944-90BC-9D7024272C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6DA36-2652-B141-BA27-94CF708730ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -553,17 +547,49 @@
   </si>
   <si>
     <t>Inventory Growth YoY</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -726,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -832,22 +858,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -855,47 +872,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -937,96 +919,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1045,6 +1026,1263 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Lululemon</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2590371753790437E-2"/>
+          <c:y val="0.15972473279369476"/>
+          <c:w val="0.83709454438102981"/>
+          <c:h val="0.64099187380933675"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>18188000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40748376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84129093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148884834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274713328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>353488212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>452898000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>711704000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000839000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1370358000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1591188000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1797213000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2060523000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2344392000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2649181000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3288319000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3979296000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4401879000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6256617000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8110518000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-170D-FC40-83BA-2C228CA729D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$28:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>319000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1411032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1394104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7666331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30842439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39363227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58281000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121847000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184063000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270556000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>279547000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>239033000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>266047000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>303381000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>258662000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>483801000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>645596000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>588913000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>975322000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>854800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-170D-FC40-83BA-2C228CA729D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Levered FCF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$108:$U$108</c:f>
+              <c:numCache>
+                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18128333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13285446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8414624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5907315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101653000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137156000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81304000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186884000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171931000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>194716000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155253000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>235608000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>331473000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>516972000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>386268000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>574110000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>994606000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>327800000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-170D-FC40-83BA-2C228CA729D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="432405008"/>
+        <c:axId val="432407280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="432405008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432407280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432407280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432405008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34524288319631413"/>
+          <c:y val="0.89384284433111894"/>
+          <c:w val="0.31482103238964942"/>
+          <c:h val="6.3178635639872777E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22553F1B-01C3-855D-8602-53F990ACDEB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7679999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,9 +2407,9 @@
     <v>Powered by Refinitiv</v>
     <v>389.06</v>
     <v>258.79000000000002</v>
-    <v>1.4152</v>
-    <v>-2.4049999999999998</v>
-    <v>-6.3629999999999997E-3</v>
+    <v>1.4139999999999999</v>
+    <v>-5.99</v>
+    <v>-1.592E-2</v>
     <v>USD</v>
     <v>lululemon athletica inc. is a designer, distributor and retailer of lifestyle inspired athletic apparel and accessories. The Company’s segments include Company-operated stores and direct to consumer. Its apparel assortment includes items such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities such as yoga, running, training, and other sweaty pursuits. It also offers fitness-related accessories. Its Company-operated stores include approximately 600 stores in 17 countries. Its retail stores are located primarily on street locations, in lifestyle centers, and in malls. Its direct to consumer segment includes electronic commerce Website www.lululemon.com, other country and region-specific websites, and mobile applications, including mobile applications on in-store devices. The Company also conduct business through MIRROR, which offers in-home fitness through a workout platform; operate outlets and temporary locations.</v>
     <v>34000</v>
@@ -1179,24 +2417,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
-    <v>377.3</v>
+    <v>379.96</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45100.775138055469</v>
+    <v>45106.997400659377</v>
     <v>0</v>
-    <v>372.51</v>
-    <v>45798744472</v>
+    <v>369.84</v>
+    <v>45153021870</v>
     <v>LULULEMON ATHLETICA INC.</v>
     <v>LULULEMON ATHLETICA INC.</v>
-    <v>374.53</v>
-    <v>50.561700000000002</v>
-    <v>377.96</v>
-    <v>375.55500000000001</v>
+    <v>378.02</v>
+    <v>49.531599999999997</v>
+    <v>376.25</v>
+    <v>370.26</v>
     <v>121949500</v>
     <v>LULU</v>
     <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
-    <v>833808</v>
-    <v>2165460</v>
+    <v>592</v>
+    <v>2165419</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -1349,10 +2587,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -1763,23 +3001,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC119"/>
+  <dimension ref="A1:AD119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W101" sqref="W101"/>
+      <selection pane="bottomRight" activeCell="U106" sqref="U106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="20" width="15" customWidth="1"/>
-    <col min="21" max="29" width="21" customWidth="1"/>
+    <col min="2" max="21" width="15" customWidth="1"/>
+    <col min="22" max="30" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -1840,96 +3078,102 @@
       <c r="T1" s="8">
         <v>2022</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="8">
         <v>2023</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="23">
         <v>2024</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="23">
         <v>2025</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2026</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2027</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
+      <c r="Z1" s="23">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="X2" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="Y2" s="9"/>
-    </row>
-    <row r="3" spans="1:29" ht="40" x14ac:dyDescent="0.25">
+      <c r="Z2" s="9"/>
+    </row>
+    <row r="3" spans="1:30" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1990,37 +3234,40 @@
       <c r="T3" s="1">
         <v>6256617000</v>
       </c>
-      <c r="U3" s="28">
-        <v>8111000000</v>
-      </c>
-      <c r="V3" s="28">
-        <v>9392000000</v>
-      </c>
-      <c r="W3" s="28">
-        <v>10617000000</v>
-      </c>
-      <c r="X3" s="28">
-        <v>11801000000</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>13018000000</v>
-      </c>
-      <c r="Z3" s="18" t="s">
+      <c r="U3" s="1">
+        <v>8110518000</v>
+      </c>
+      <c r="V3" s="24">
+        <v>9497000000</v>
+      </c>
+      <c r="W3" s="24">
+        <v>10726000000</v>
+      </c>
+      <c r="X3" s="24">
+        <v>11985000000</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>13157000000</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>14697000000</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2036,7 +3283,7 @@
         <v>0.76971875828971559</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:Y4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:Z4" si="0">(F3/E3)-1</f>
         <v>0.84513976756020703</v>
       </c>
       <c r="G4" s="15">
@@ -2097,50 +3344,54 @@
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>0.29638748863802911</v>
+        <v>0.29631045020016411</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.1579336703242511</v>
+        <f>(V3/U3)-1</f>
+        <v>0.1709486373126845</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13043015332197605</v>
+        <v>0.12940928714330835</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11151926156164649</v>
+        <v>0.11737833302256195</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10312685365646979</v>
-      </c>
-      <c r="Z4" s="17">
-        <f>(T4+S4+R4)/3</f>
-        <v>0.24589253794947807</v>
+        <v>9.7788902795160615E-2</v>
+      </c>
+      <c r="Z4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11704795926122968</v>
       </c>
       <c r="AA4" s="17">
-        <f>(T20+S20+R20)/3</f>
-        <v>0.25455213163387197</v>
+        <f>SUM(S4:U4)/3</f>
+        <v>0.27461909836852033</v>
       </c>
       <c r="AB4" s="17">
-        <f>(T29+S29+R29)/3</f>
-        <v>0.30092152076057715</v>
+        <f>SUM(S20:U20)/3</f>
+        <v>0.26691632890176192</v>
       </c>
       <c r="AC4" s="17">
-        <f>(T106+S106+R106)/3</f>
-        <v>0.32196822099572914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <f>SUM(S29:U29)/3</f>
+        <v>0.14825612457496554</v>
+      </c>
+      <c r="AD4" s="17">
+        <f>SUM(S107:U107)/3</f>
+        <v>0.18276949238252804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1">
         <v>41176981</v>
@@ -2193,8 +3444,11 @@
       <c r="T5" s="1">
         <v>2648052000</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="U5" s="1">
+        <v>3618178000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2202,7 +3456,7 @@
         <v>18188000</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10">
         <v>42952112</v>
@@ -2255,20 +3509,24 @@
       <c r="T6" s="10">
         <v>3608565000</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="U6" s="10">
+        <f>U3-U5</f>
+        <v>4492340000</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AB6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2276,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2">
         <v>0.51060000000000005</v>
@@ -2329,24 +3587,28 @@
       <c r="T7" s="2">
         <v>0.57679999999999998</v>
       </c>
-      <c r="Z7" s="17">
-        <f>T7</f>
-        <v>0.57679999999999998</v>
-      </c>
-      <c r="AA7" s="20">
-        <f>T21</f>
-        <v>0.249</v>
+      <c r="U7" s="2">
+        <f>U6/U3</f>
+        <v>0.55389063929085669</v>
+      </c>
+      <c r="AA7" s="17">
+        <f>U7</f>
+        <v>0.55389063929085669</v>
       </c>
       <c r="AB7" s="20">
-        <f>T30</f>
-        <v>0.15590000000000001</v>
+        <f>U21</f>
+        <v>0.25004568142256761</v>
       </c>
       <c r="AC7" s="20">
-        <f>T107/T3</f>
-        <v>0.15896865670377458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <f>U30</f>
+        <v>0.10539400812623806</v>
+      </c>
+      <c r="AD7" s="20">
+        <f>U108/U3</f>
+        <v>4.0416654028756237E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2407,10 +3669,13 @@
       <c r="T8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -2488,168 +3753,178 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="18" t="s">
+      <c r="U9" s="15">
+        <f t="shared" ref="U9" si="2">U8/U3</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="19" t="s">
+      <c r="AC9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AD9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AC9" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z10" s="17">
-        <f>T9</f>
+        <v>91</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" s="17">
+        <f>U9</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="20">
-        <f>T13</f>
-        <v>0.35562892854077532</v>
-      </c>
       <c r="AB10" s="20">
-        <f>T81</f>
-        <v>1.1050220910118039E-2</v>
+        <f>U13</f>
+        <v>0.33998407993176266</v>
       </c>
       <c r="AC10" s="20">
-        <f>T90</f>
-        <v>6.3053563930795184E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <f>U81</f>
+        <v>9.6263888447075761E-3</v>
+      </c>
+      <c r="AD10" s="20">
+        <f>U90</f>
+        <v>7.8744292288112791E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1">
         <v>39225404</v>
@@ -2702,117 +3977,124 @@
       <c r="T12" s="1">
         <v>2225034000</v>
       </c>
-      <c r="Z12" s="18" t="s">
+      <c r="U12" s="1">
+        <v>2757447000</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AA12" s="19" t="s">
+      <c r="AD12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AB12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15" t="e">
-        <f t="shared" ref="C13:T13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:T13" si="3">C12/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46625254833069457</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35289019430951579</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35010077123014577</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33409415927001268</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30064385358292595</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29897822690331938</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28207533879075458</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2819606263472757</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28200187532837101</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29943417947677875</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30482066931550872</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33205411040474458</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34133719062608409</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33769564327548512</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33530453627978418</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36552640361082167</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35562892854077532</v>
       </c>
-      <c r="Z13" s="17">
-        <f>T28/T73</f>
-        <v>0.35595095848755826</v>
-      </c>
-      <c r="AA13" s="20">
-        <f>T28/T55</f>
-        <v>0.19733461636045724</v>
+      <c r="U13" s="15">
+        <f t="shared" ref="U13" si="4">U12/U3</f>
+        <v>0.33998407993176266</v>
+      </c>
+      <c r="AA13" s="17">
+        <f>U28/U73</f>
+        <v>0.27146858214830477</v>
       </c>
       <c r="AB13" s="20">
-        <f>T22/(T73+T57+T62)</f>
-        <v>0.36821842435636926</v>
-      </c>
-      <c r="AC13" s="21">
-        <f>T68/T73</f>
-        <v>0.80379380492152319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <f>U28/U55</f>
+        <v>0.14977997342929905</v>
+      </c>
+      <c r="AC13" s="20">
+        <f>U22/(U73+U57+U62)</f>
+        <v>0.411458941920058</v>
+      </c>
+      <c r="AD13" s="21">
+        <f>U68/U73</f>
+        <v>0.7806909872621276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -2820,52 +4102,52 @@
         <v>17427000</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1">
         <v>7228310</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1">
         <v>4404855</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1">
         <v>5160000</v>
@@ -2873,8 +4155,11 @@
       <c r="T14" s="1">
         <v>8782000</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="U14" s="1">
+        <v>8752000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2882,7 +4167,7 @@
         <v>17427000</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
         <v>39225404</v>
@@ -2935,20 +4220,23 @@
       <c r="T15" s="1">
         <v>2233816000</v>
       </c>
-      <c r="Z15" s="18" t="s">
+      <c r="U15" s="1">
+        <v>2766199000</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AA15" s="19" t="s">
+      <c r="AD15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AB15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2956,7 +4244,7 @@
         <v>17427000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1">
         <v>80402385</v>
@@ -3009,24 +4297,28 @@
       <c r="T16" s="1">
         <v>4881868000</v>
       </c>
-      <c r="Z16" s="29">
-        <f>(T35+S35+R35+Q35+P35)/5</f>
-        <v>-1.038938423670681E-2</v>
-      </c>
-      <c r="AA16" s="30">
-        <f>AB102/T3</f>
-        <v>7.320049232996042</v>
-      </c>
-      <c r="AB16" s="30">
-        <f>AB102/T28</f>
-        <v>46.957563217070877</v>
+      <c r="U16" s="1">
+        <f>U5+U15</f>
+        <v>6384377000</v>
+      </c>
+      <c r="AA16" s="25">
+        <f>SUM(Q35:U35)/5</f>
+        <v>-1.2277930951466759E-2</v>
+      </c>
+      <c r="AB16" s="31">
+        <f>AC102/U3</f>
+        <v>5.5672180087634358</v>
       </c>
       <c r="AC16" s="31">
-        <f>AB102/T107</f>
-        <v>46.04712265158264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+        <f>AC102/U28</f>
+        <v>52.822908130556854</v>
+      </c>
+      <c r="AD16" s="32">
+        <f>AC102/U108</f>
+        <v>137.7456432885906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3087,16 +4379,19 @@
       <c r="T17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>2466298</v>
@@ -3149,11 +4444,23 @@
       <c r="T18" s="1">
         <v>224206000</v>
       </c>
-      <c r="Z18" s="18" t="s">
+      <c r="U18" s="1">
+        <v>291791000</v>
+      </c>
+      <c r="AA18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC18" s="19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="AD18" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3214,14 +4521,44 @@
       <c r="T19" s="10">
         <v>1558075000</v>
       </c>
-      <c r="Z19" s="55">
+      <c r="U19" s="10">
+        <v>2028000000</v>
+      </c>
+      <c r="V19" s="62">
+        <v>2489000000</v>
+      </c>
+      <c r="W19" s="62">
+        <v>2821000000</v>
+      </c>
+      <c r="X19" s="62">
+        <v>3161000000</v>
+      </c>
+      <c r="Y19" s="62">
+        <v>3495000000</v>
+      </c>
+      <c r="Z19" s="62">
+        <v>3969000000</v>
+      </c>
+      <c r="AA19" s="28">
         <f>T40-T57-T62</f>
         <v>378819000</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="30">
+        <f>AC102/V3</f>
+        <v>4.7544510761293042</v>
+      </c>
+      <c r="AC19" s="31">
+        <f>AC102/V28</f>
+        <v>29.843372022471911</v>
+      </c>
+      <c r="AD19" s="32">
+        <f>AC102/V107</f>
+        <v>45.162054280856168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3237,67 +4574,91 @@
         <v>2.3951450065423523</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:O20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:O20" si="5">(F19/E19)-1</f>
         <v>1.835504204047318</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20813944180798405</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.49218477554990403</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.92985996168938656</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53615912036657809</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.32841827260865197</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.3534535477579581E-2</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.0522328852472285E-2</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5843909046223743E-4</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15512879120481227</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" ref="P20" si="4">(P19/O19)-1</f>
+        <f t="shared" ref="P20" si="6">(P19/O19)-1</f>
         <v>0.11325245971012454</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" ref="Q20" si="5">(Q19/P19)-1</f>
+        <f t="shared" ref="Q20" si="7">(Q19/P19)-1</f>
         <v>0.47427903694435214</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" ref="R20" si="6">(R19/Q19)-1</f>
+        <f t="shared" ref="R20" si="8">(R19/Q19)-1</f>
         <v>0.26451355680920186</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" ref="S20" si="7">(S19/R19)-1</f>
+        <f t="shared" ref="S20" si="9">(S19/R19)-1</f>
         <v>-5.1445919386477801E-2</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" ref="T20" si="8">(T19/S19)-1</f>
+        <f t="shared" ref="T20:U20" si="10">(T19/S19)-1</f>
         <v>0.55058875747889191</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U20" s="15">
+        <f t="shared" si="10"/>
+        <v>0.30160614861287161</v>
+      </c>
+      <c r="V20" s="16">
+        <f>(V19/U19)-1</f>
+        <v>0.22731755424063116</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" ref="W20:Z20" si="11">(W19/V19)-1</f>
+        <v>0.13338690237042994</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="11"/>
+        <v>0.12052463665366897</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="11"/>
+        <v>0.10566276494780125</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="11"/>
+        <v>0.13562231759656651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3358,8 +4719,38 @@
       <c r="T21" s="2">
         <v>0.249</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U21" s="2">
+        <f>U19/U3</f>
+        <v>0.25004568142256761</v>
+      </c>
+      <c r="V21" s="63">
+        <f>V19/V3</f>
+        <v>0.26208276297778244</v>
+      </c>
+      <c r="W21" s="63">
+        <f t="shared" ref="W21:Z21" si="12">W19/W3</f>
+        <v>0.26300578034682082</v>
+      </c>
+      <c r="X21" s="63">
+        <f t="shared" si="12"/>
+        <v>0.26374634960367127</v>
+      </c>
+      <c r="Y21" s="63">
+        <f t="shared" si="12"/>
+        <v>0.26563806338831042</v>
+      </c>
+      <c r="Z21" s="63">
+        <f t="shared" si="12"/>
+        <v>0.27005511328842619</v>
+      </c>
+      <c r="AC21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD21" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3420,8 +4811,19 @@
       <c r="T22" s="10">
         <v>1333355000</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U22" s="10">
+        <v>1736000000</v>
+      </c>
+      <c r="AC22" s="33">
+        <f>U99/AC102</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="34">
+        <f>U108/AC102</f>
+        <v>7.2597577398865682E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3482,8 +4884,12 @@
       <c r="T23" s="2">
         <v>0.21310000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U23" s="2">
+        <f>U22/U3</f>
+        <v>0.2140430487917048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3491,7 +4897,7 @@
         <v>-4000</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>3542</v>
@@ -3544,8 +4950,11 @@
       <c r="T24" s="1">
         <v>514000</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U24" s="1">
+        <v>514000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3553,7 +4962,7 @@
         <v>757000</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10">
         <v>3730250</v>
@@ -3606,8 +5015,11 @@
       <c r="T25" s="10">
         <v>1333869000</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U25" s="10">
+        <v>1332571000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3615,7 +5027,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2">
         <v>4.4299999999999999E-2</v>
@@ -3668,16 +5080,20 @@
       <c r="T26" s="2">
         <v>0.2132</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U26" s="2">
+        <f>U25/U3</f>
+        <v>0.16430158961486802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1">
         <v>2336146</v>
@@ -3730,8 +5146,11 @@
       <c r="T27" s="1">
         <v>358547000</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U27" s="1">
+        <v>477771000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3792,10 +5211,28 @@
       <c r="T28" s="11">
         <v>975322000</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="11">
+        <v>854800000</v>
+      </c>
+      <c r="V28" s="59">
+        <v>1513000000</v>
+      </c>
+      <c r="W28" s="59">
+        <v>1720000000</v>
+      </c>
+      <c r="X28" s="59">
+        <v>1922000000</v>
+      </c>
+      <c r="Y28" s="59">
+        <v>2118000000</v>
+      </c>
+      <c r="Z28" s="59">
+        <v>2517000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3811,39 +5248,39 @@
         <v>4.4991098225096549</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:N29" si="9">(F28/E28)-1</f>
+        <f t="shared" ref="F29:N29" si="13">(F28/E28)-1</f>
         <v>3.0231029680299484</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.27626829382721652</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.48059507417925862</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.0906813541291331</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.51060756522524153</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.46990975915854905</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.323156758674739E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-0.14492732885704374</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.11301368430300429</v>
       </c>
       <c r="O29" s="15">
@@ -3851,27 +5288,51 @@
         <v>0.14032858855766084</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29:T29" si="10">(P28/O28)-1</f>
+        <f t="shared" ref="P29:U29" si="14">(P28/O28)-1</f>
         <v>-0.14740211153631899</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.87039843502331227</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.33442469114367279</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-8.7799490703164174E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.65613936184122279</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U29" s="15">
+        <f t="shared" si="14"/>
+        <v>-0.12357149741316198</v>
+      </c>
+      <c r="V29" s="16">
+        <f>(V28/U28)-1</f>
+        <v>0.77000467945718287</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" ref="W29:Z29" si="15">(W28/V28)-1</f>
+        <v>0.13681427627230658</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="15"/>
+        <v>0.11744186046511618</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="15"/>
+        <v>0.10197710718002084</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="15"/>
+        <v>0.18838526912181308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3932,8 +5393,32 @@
       <c r="T30" s="2">
         <v>0.15590000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U30" s="2">
+        <f>U28/U3</f>
+        <v>0.10539400812623806</v>
+      </c>
+      <c r="V30" s="60">
+        <f>V28/V3</f>
+        <v>0.1593134674107613</v>
+      </c>
+      <c r="W30" s="60">
+        <f t="shared" ref="W30:Z30" si="16">W28/W3</f>
+        <v>0.16035800857728882</v>
+      </c>
+      <c r="X30" s="60">
+        <f t="shared" si="16"/>
+        <v>0.1603671255736337</v>
+      </c>
+      <c r="Y30" s="60">
+        <f t="shared" si="16"/>
+        <v>0.16097894656836664</v>
+      </c>
+      <c r="Z30" s="60">
+        <f t="shared" si="16"/>
+        <v>0.17125944070218413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3994,8 +5479,26 @@
       <c r="T31" s="12">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="U31" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="V31" s="61">
+        <v>11.91</v>
+      </c>
+      <c r="W31" s="61">
+        <v>13.54</v>
+      </c>
+      <c r="X31" s="61">
+        <v>15.13</v>
+      </c>
+      <c r="Y31" s="61">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="Z31" s="61">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4056,9 +5559,12 @@
       <c r="T32" s="12">
         <v>7.49</v>
       </c>
-      <c r="U32" s="12"/>
-    </row>
-    <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U32" s="12">
+        <v>6.68</v>
+      </c>
+      <c r="V32" s="12"/>
+    </row>
+    <row r="33" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4119,8 +5625,11 @@
       <c r="T33" s="1">
         <v>129768000</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U33" s="1">
+        <v>127666000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4181,10 +5690,13 @@
       <c r="T34" s="1">
         <v>130295000</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="1">
+        <v>128017000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4192,204 +5704,214 @@
         <v>0.32291755859009946</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:O35" si="11">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="17">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.54770284606924813</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.3731549182501664E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>9.2694887335679425E-5</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.3812738727818574E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>9.8708448609045023E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.6344112666749267E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.6254475124480475E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-1.1948535705237498E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-2.5558219795146157E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-2.3526065002489153E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" ref="P35" si="12">(P34-O34)/O34</f>
+        <f t="shared" ref="P35" si="18">(P34-O34)/O34</f>
         <v>-8.0406694731322195E-3</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" ref="Q35" si="13">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35" si="19">(Q34-P34)/P34</f>
         <v>-1.635119458435513E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" ref="R35" si="14">(R34-Q34)/Q34</f>
+        <f t="shared" ref="R35" si="20">(R34-Q34)/Q34</f>
         <v>-2.2512334759015009E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" ref="S35" si="15">(S34-R34)/R34</f>
+        <f t="shared" ref="S35" si="21">(S34-R34)/R34</f>
         <v>-6.4144171662021301E-4</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" ref="T35" si="16">(T34-S34)/S34</f>
+        <f t="shared" ref="T35:U35" si="22">(T34-S34)/S34</f>
         <v>-4.4012806504114743E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U35" s="22">
+        <f t="shared" si="22"/>
+        <v>-1.7483403046931963E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="U36" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>433000</v>
@@ -4445,75 +5967,81 @@
       <c r="T38" s="1">
         <v>1259871000</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U38" s="1">
+        <v>1154867000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>433000</v>
@@ -4569,16 +6097,19 @@
       <c r="T40" s="1">
         <v>1259871000</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U40" s="1">
+        <v>1154867000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>1300281</v>
@@ -4631,16 +6162,19 @@
       <c r="T41" s="1">
         <v>77001000</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U41" s="1">
+        <v>132906000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>21077881</v>
@@ -4693,10 +6227,13 @@
       <c r="T42" s="1">
         <v>966481000</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U42" s="1">
+        <v>1447367000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="22" t="e">
@@ -4704,83 +6241,87 @@
         <v>#VALUE!</v>
       </c>
       <c r="D43" s="22" t="e">
-        <f t="shared" ref="D43" si="17">(D42-C42)/C42</f>
+        <f t="shared" ref="D43" si="23">(D42-C42)/C42</f>
         <v>#VALUE!</v>
       </c>
       <c r="E43" s="22">
-        <f t="shared" ref="E43" si="18">(E42-D42)/D42</f>
+        <f t="shared" ref="E43" si="24">(E42-D42)/D42</f>
         <v>0.26332020756735464</v>
       </c>
       <c r="F43" s="22">
-        <f t="shared" ref="F43" si="19">(F42-E42)/E42</f>
+        <f t="shared" ref="F43" si="25">(F42-E42)/E42</f>
         <v>0.4680802954381334</v>
       </c>
       <c r="G43" s="22">
-        <f t="shared" ref="G43" si="20">(G42-F42)/F42</f>
+        <f t="shared" ref="G43" si="26">(G42-F42)/F42</f>
         <v>0.33149017829844762</v>
       </c>
       <c r="H43" s="22">
-        <f t="shared" ref="H43" si="21">(H42-G42)/G42</f>
+        <f t="shared" ref="H43" si="27">(H42-G42)/G42</f>
         <v>-0.15332861448999979</v>
       </c>
       <c r="I43" s="22">
-        <f t="shared" ref="I43" si="22">(I42-H42)/H42</f>
+        <f t="shared" ref="I43" si="28">(I42-H42)/H42</f>
         <v>0.30403902881778988</v>
       </c>
       <c r="J43" s="22">
-        <f t="shared" ref="J43" si="23">(J42-I42)/I42</f>
+        <f t="shared" ref="J43" si="29">(J42-I42)/I42</f>
         <v>0.81135916755120152</v>
       </c>
       <c r="K43" s="22">
-        <f t="shared" ref="K43" si="24">(K42-J42)/J42</f>
+        <f t="shared" ref="K43" si="30">(K42-J42)/J42</f>
         <v>0.49112846671854138</v>
       </c>
       <c r="L43" s="22">
-        <f t="shared" ref="L43" si="25">(L42-K42)/K42</f>
+        <f t="shared" ref="L43" si="31">(L42-K42)/K42</f>
         <v>0.19886356315470746</v>
       </c>
       <c r="M43" s="22">
-        <f t="shared" ref="M43" si="26">(M42-L42)/L42</f>
+        <f t="shared" ref="M43" si="32">(M42-L42)/L42</f>
         <v>0.11836208286313074</v>
       </c>
       <c r="N43" s="22">
-        <f t="shared" ref="N43" si="27">(N42-M42)/M42</f>
+        <f t="shared" ref="N43" si="33">(N42-M42)/M42</f>
         <v>0.36466682042706949</v>
       </c>
       <c r="O43" s="22">
-        <f t="shared" ref="O43" si="28">(O42-N42)/N42</f>
+        <f t="shared" ref="O43" si="34">(O42-N42)/N42</f>
         <v>5.0783601928107915E-2</v>
       </c>
       <c r="P43" s="22">
-        <f t="shared" ref="P43" si="29">(P42-O42)/O42</f>
+        <f t="shared" ref="P43" si="35">(P42-O42)/O42</f>
         <v>0.1043118700407463</v>
       </c>
       <c r="Q43" s="22">
-        <f t="shared" ref="Q43" si="30">(Q42-P42)/P42</f>
+        <f t="shared" ref="Q43" si="36">(Q42-P42)/P42</f>
         <v>0.22842439358906669</v>
       </c>
       <c r="R43" s="22">
-        <f t="shared" ref="R43" si="31">(R42-Q42)/Q42</f>
+        <f t="shared" ref="R43" si="37">(R42-Q42)/Q42</f>
         <v>0.28077867414942126</v>
       </c>
       <c r="S43" s="22">
-        <f t="shared" ref="S43" si="32">(S42-R42)/R42</f>
+        <f t="shared" ref="S43" si="38">(S42-R42)/R42</f>
         <v>0.24824257058164403</v>
       </c>
       <c r="T43" s="22">
-        <f t="shared" ref="T43" si="33">(T42-S42)/S42</f>
+        <f t="shared" ref="T43:U43" si="39">(T42-S42)/S42</f>
         <v>0.49325742008250545</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U43" s="22">
+        <f t="shared" si="39"/>
+        <v>0.49756384243456414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="1">
         <v>962145</v>
@@ -4833,16 +6374,19 @@
       <c r="T44" s="1">
         <v>311500000</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U44" s="1">
+        <v>371578000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="10">
         <v>27217324</v>
@@ -4895,16 +6439,19 @@
       <c r="T45" s="10">
         <v>2614853000</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U45" s="10">
+        <v>3159453000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1">
         <v>10426795</v>
@@ -4957,16 +6504,19 @@
       <c r="T46" s="1">
         <v>1731253000</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U46" s="1">
+        <v>2239033000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>840325</v>
@@ -5011,7 +6561,7 @@
         <v>24239000</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1">
         <v>386877000</v>
@@ -5019,16 +6569,19 @@
       <c r="T47" s="1">
         <v>386880000</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U47" s="1">
+        <v>24144000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>2441739</v>
@@ -5070,10 +6623,10 @@
         <v>73000</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S48" s="1">
         <v>80080000</v>
@@ -5081,16 +6634,19 @@
       <c r="T48" s="1">
         <v>71299000</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U48" s="1">
+        <v>21961000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1">
         <v>3282064</v>
@@ -5143,78 +6699,85 @@
       <c r="T49" s="1">
         <v>458179000</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U49" s="1">
+        <f>U47+U48</f>
+        <v>46105000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>186772</v>
@@ -5267,16 +6830,19 @@
       <c r="T51" s="1">
         <v>6091000</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U51" s="1">
+        <v>6091000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>801012</v>
@@ -5329,16 +6895,19 @@
       <c r="T52" s="1">
         <v>132102000</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U52" s="1">
+        <v>132102000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1">
         <v>14696643</v>
@@ -5391,75 +6960,81 @@
       <c r="T53" s="1">
         <v>2327625000</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U53" s="1">
+        <v>2447000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1">
         <v>2323000</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="11">
         <v>2323000</v>
@@ -5515,16 +7090,19 @@
       <c r="T55" s="11">
         <v>4942478000</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U55" s="11">
+        <v>5707038000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>5877048</v>
@@ -5577,58 +7155,61 @@
       <c r="T56" s="1">
         <v>289728000</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U56" s="1">
+        <v>172732000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1">
         <v>128497000</v>
@@ -5639,28 +7220,31 @@
       <c r="T57" s="1">
         <v>188996000</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U57" s="1">
+        <v>207972000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1">
         <v>7742000</v>
@@ -5701,34 +7285,37 @@
       <c r="T58" s="1">
         <v>147392000</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U58" s="1">
+        <v>478000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1">
         <v>22773000</v>
@@ -5763,16 +7350,19 @@
       <c r="T59" s="1">
         <v>208195000</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U59" s="1">
+        <v>251478000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="1">
         <v>6365019</v>
@@ -5825,16 +7415,19 @@
       <c r="T60" s="1">
         <v>571023000</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U60" s="1">
+        <v>571023000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="10">
         <v>12242067</v>
@@ -5887,58 +7480,61 @@
       <c r="T61" s="10">
         <v>1405334000</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U61" s="10">
+        <v>1492000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1">
         <v>611464000</v>
@@ -5949,78 +7545,84 @@
       <c r="T62" s="1">
         <v>692056000</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U62" s="1">
+        <v>862362000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>536707</v>
@@ -6035,16 +7637,16 @@
         <v>158054</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1">
         <v>3977000</v>
@@ -6073,16 +7675,19 @@
       <c r="T64" s="1">
         <v>53352000</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U64" s="1">
+        <v>55084000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>1073409</v>
@@ -6135,16 +7740,19 @@
       <c r="T65" s="1">
         <v>51690000</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U65" s="1">
+        <v>51690000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1">
         <v>1610116</v>
@@ -6197,75 +7805,81 @@
       <c r="T66" s="1">
         <v>797098000</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U66" s="1">
+        <v>966041000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="1">
         <v>1904000</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="10">
         <v>1904000</v>
@@ -6321,16 +7935,19 @@
       <c r="T68" s="10">
         <v>2202432000</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U68" s="10">
+        <v>2458239000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -6383,16 +8000,19 @@
       <c r="T69" s="1">
         <v>616000</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U69" s="1">
+        <v>616000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-68343726</v>
@@ -6445,16 +8065,19 @@
       <c r="T70" s="1">
         <v>2512840000</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U70" s="1">
+        <v>2926000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1">
         <v>558743</v>
@@ -6507,13 +8130,16 @@
       <c r="T71" s="1">
         <v>-195917000</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U71" s="1">
+        <v>-252840000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="1">
         <v>419000</v>
@@ -6569,13 +8195,16 @@
       <c r="T72" s="1">
         <v>422507000</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U72" s="1">
+        <v>474645000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="10">
         <v>419000</v>
@@ -6631,13 +8260,16 @@
       <c r="T73" s="10">
         <v>2740046000</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U73" s="10">
+        <v>3148799000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="11">
         <v>2323000</v>
@@ -6693,140 +8325,150 @@
       <c r="T74" s="11">
         <v>4942478000</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U74" s="11">
+        <f>U55</f>
+        <v>5707038000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T75" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="U75" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T76" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="U76" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>1394104</v>
@@ -6879,16 +8521,19 @@
       <c r="T77" s="1">
         <v>975322000</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U77" s="1">
+        <v>854800000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>2466298</v>
@@ -6941,16 +8586,19 @@
       <c r="T78" s="1">
         <v>224206000</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U78" s="1">
+        <v>291791000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1">
         <v>-174901</v>
@@ -7003,28 +8651,31 @@
       <c r="T79" s="1">
         <v>-5180000</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U79" s="1">
+        <v>3042000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H80" s="1">
         <v>5616000</v>
@@ -7065,97 +8716,104 @@
       <c r="T80" s="1">
         <v>69137000</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U80" s="1">
+        <v>78075000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81" s="15" t="e">
-        <f t="shared" ref="B81:T81" si="34">B80/B3</f>
+        <f t="shared" ref="B81:U81" si="40">B80/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C81" s="15" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="D81" s="15" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="E81" s="15" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="F81" s="15" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="G81" s="15" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="H81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1.2400143078573983E-2</v>
       </c>
       <c r="I81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1.0219136045322213E-2</v>
       </c>
       <c r="J81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1.0331332012441562E-2</v>
       </c>
       <c r="K81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1.1410886790167241E-2</v>
       </c>
       <c r="L81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>6.339288632141519E-3</v>
       </c>
       <c r="M81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>4.6010127903592952E-3</v>
       </c>
       <c r="N81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>5.0259084708105658E-3</v>
       </c>
       <c r="O81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>7.1754211752983292E-3</v>
       </c>
       <c r="P81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>6.6473374223958272E-3</v>
       </c>
       <c r="Q81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>8.6877215987864933E-3</v>
       </c>
       <c r="R81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1.1457554301062298E-2</v>
       </c>
       <c r="S81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1.1539844689052108E-2</v>
       </c>
       <c r="T81" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>1.1050220910118039E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U81" s="15">
+        <f t="shared" si="40"/>
+        <v>9.6263888447075761E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1">
         <v>-16677486</v>
@@ -7208,28 +8866,31 @@
       <c r="T82" s="1">
         <v>129131000</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U82" s="1">
+        <v>-596992000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1">
         <v>2229000</v>
@@ -7241,45 +8902,48 @@
         <v>3743000</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1">
         <v>-10693625</v>
@@ -7332,35 +8996,38 @@
       <c r="T84" s="1">
         <v>-323609000</v>
       </c>
-      <c r="AA84" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB84" s="62"/>
-    </row>
-    <row r="85" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U84" s="1">
+        <v>1447000000</v>
+      </c>
+      <c r="AB84" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC84" s="66"/>
+    </row>
+    <row r="85" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1">
         <v>-5167000</v>
@@ -7398,26 +9065,29 @@
       <c r="T85" s="1">
         <v>117655000</v>
       </c>
-      <c r="AA85" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB85" s="64"/>
-    </row>
-    <row r="86" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U85" s="1">
+        <v>172700000</v>
+      </c>
+      <c r="AB85" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC85" s="67"/>
+    </row>
+    <row r="86" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>909415</v>
@@ -7464,23 +9134,26 @@
       <c r="T86" s="1">
         <v>160208000</v>
       </c>
-      <c r="AA86" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB86" s="24">
-        <f>T17</f>
+      <c r="U86" s="1">
+        <v>160208000</v>
+      </c>
+      <c r="AB86" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC86" s="38">
+        <f>U17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="1">
         <v>2709916</v>
@@ -7533,23 +9206,26 @@
       <c r="T87" s="1">
         <v>-3508000</v>
       </c>
-      <c r="AA87" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB87" s="24">
-        <f>T57</f>
-        <v>188996000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U87" s="1">
+        <v>-3508000</v>
+      </c>
+      <c r="AB87" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC87" s="38">
+        <f>U57</f>
+        <v>207972000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="10">
         <v>-10282069</v>
@@ -7602,23 +9278,26 @@
       <c r="T88" s="10">
         <v>1389108000</v>
       </c>
-      <c r="AA88" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB88" s="24">
+      <c r="U88" s="10">
+        <v>966463000</v>
+      </c>
+      <c r="AB88" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC88" s="38">
         <f>T62</f>
         <v>692056000</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="1">
         <v>-7846264</v>
@@ -7671,113 +9350,120 @@
       <c r="T89" s="1">
         <v>-394502000</v>
       </c>
-      <c r="U89" s="1"/>
-      <c r="AA89" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB89" s="33">
-        <f>AB86/(AB87+AB88)</f>
+      <c r="U89" s="1">
+        <v>-638657000</v>
+      </c>
+      <c r="V89" s="1"/>
+      <c r="AB89" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC89" s="40">
+        <f>AC86/(AC87+AC88)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="15" t="e">
+        <f t="shared" ref="B90:U90" si="41">(-1*B89)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C90" s="15" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D90" s="15">
+        <f t="shared" si="41"/>
+        <v>9.326457376641395E-2</v>
+      </c>
+      <c r="E90" s="15">
+        <f t="shared" si="41"/>
+        <v>8.3378761063064355E-2</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="41"/>
+        <v>0.10802511918897506</v>
+      </c>
+      <c r="G90" s="15">
+        <f t="shared" si="41"/>
+        <v>0.11465858725721807</v>
+      </c>
+      <c r="H90" s="15">
+        <f t="shared" si="41"/>
+        <v>3.4217417608379812E-2</v>
+      </c>
+      <c r="I90" s="15">
+        <f t="shared" si="41"/>
+        <v>4.2653968503759992E-2</v>
+      </c>
+      <c r="J90" s="15">
+        <f t="shared" si="41"/>
+        <v>0.11655920682547342</v>
+      </c>
+      <c r="K90" s="15">
+        <f t="shared" si="41"/>
+        <v>6.8032587104975492E-2</v>
+      </c>
+      <c r="L90" s="15">
+        <f t="shared" si="41"/>
+        <v>6.6873304725777225E-2</v>
+      </c>
+      <c r="M90" s="15">
+        <f t="shared" si="41"/>
+        <v>6.6621485600204311E-2</v>
+      </c>
+      <c r="N90" s="15">
+        <f t="shared" si="41"/>
+        <v>6.9636204012282321E-2</v>
+      </c>
+      <c r="O90" s="15">
+        <f t="shared" si="41"/>
+        <v>6.3773891055762005E-2</v>
+      </c>
+      <c r="P90" s="15">
+        <f t="shared" si="41"/>
+        <v>5.9589737356564164E-2</v>
+      </c>
+      <c r="Q90" s="15">
+        <f t="shared" si="41"/>
+        <v>6.8669432618915616E-2</v>
+      </c>
+      <c r="R90" s="15">
+        <f t="shared" si="41"/>
+        <v>7.1130169758670883E-2</v>
+      </c>
+      <c r="S90" s="15">
+        <f t="shared" si="41"/>
+        <v>5.2074579969144996E-2</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="41"/>
+        <v>6.3053563930795184E-2</v>
+      </c>
+      <c r="U90" s="15">
+        <f t="shared" si="41"/>
+        <v>7.8744292288112791E-2</v>
+      </c>
+      <c r="V90" s="15"/>
+      <c r="AB90" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="15" t="e">
-        <f t="shared" ref="B90:T90" si="35">(-1*B89)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C90" s="15" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D90" s="15">
-        <f t="shared" si="35"/>
-        <v>9.326457376641395E-2</v>
-      </c>
-      <c r="E90" s="15">
-        <f t="shared" si="35"/>
-        <v>8.3378761063064355E-2</v>
-      </c>
-      <c r="F90" s="15">
-        <f t="shared" si="35"/>
-        <v>0.10802511918897506</v>
-      </c>
-      <c r="G90" s="15">
-        <f t="shared" si="35"/>
-        <v>0.11465858725721807</v>
-      </c>
-      <c r="H90" s="15">
-        <f t="shared" si="35"/>
-        <v>3.4217417608379812E-2</v>
-      </c>
-      <c r="I90" s="15">
-        <f t="shared" si="35"/>
-        <v>4.2653968503759992E-2</v>
-      </c>
-      <c r="J90" s="15">
-        <f t="shared" si="35"/>
-        <v>0.11655920682547342</v>
-      </c>
-      <c r="K90" s="15">
-        <f t="shared" si="35"/>
-        <v>6.8032587104975492E-2</v>
-      </c>
-      <c r="L90" s="15">
-        <f t="shared" si="35"/>
-        <v>6.6873304725777225E-2</v>
-      </c>
-      <c r="M90" s="15">
-        <f t="shared" si="35"/>
-        <v>6.6621485600204311E-2</v>
-      </c>
-      <c r="N90" s="15">
-        <f t="shared" si="35"/>
-        <v>6.9636204012282321E-2</v>
-      </c>
-      <c r="O90" s="15">
-        <f t="shared" si="35"/>
-        <v>6.3773891055762005E-2</v>
-      </c>
-      <c r="P90" s="15">
-        <f t="shared" si="35"/>
-        <v>5.9589737356564164E-2</v>
-      </c>
-      <c r="Q90" s="15">
-        <f t="shared" si="35"/>
-        <v>6.8669432618915616E-2</v>
-      </c>
-      <c r="R90" s="15">
-        <f t="shared" si="35"/>
-        <v>7.1130169758670883E-2</v>
-      </c>
-      <c r="S90" s="15">
-        <f t="shared" si="35"/>
-        <v>5.2074579969144996E-2</v>
-      </c>
-      <c r="T90" s="15">
-        <f t="shared" si="35"/>
-        <v>6.3053563930795184E-2</v>
-      </c>
-      <c r="U90" s="15"/>
-      <c r="AA90" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB90" s="24">
-        <f>T27</f>
-        <v>358547000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="AC90" s="38">
+        <f>U27</f>
+        <v>477771000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1">
         <v>-460567</v>
@@ -7792,97 +9478,100 @@
         <v>-3401633</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1">
         <v>-452581000</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA91" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB91" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AB91" s="24">
-        <f>T25</f>
-        <v>1333869000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="AC91" s="38">
+        <f>U25</f>
+        <v>1332571000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>-2863353</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1">
         <v>-7203000</v>
@@ -7891,7 +9580,7 @@
         <v>-16216000</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1">
         <v>-14607000</v>
@@ -7899,104 +9588,110 @@
       <c r="T92" s="1">
         <v>-23389000</v>
       </c>
-      <c r="AA92" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB92" s="33">
-        <f>AB90/AB91</f>
-        <v>0.26880225869257024</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U92" s="1">
+        <v>-47804000</v>
+      </c>
+      <c r="AB92" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC92" s="40">
+        <f>AC90/AC91</f>
+        <v>0.35853324138075943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1">
         <v>347000</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA93" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB93" s="35">
-        <f>AB89*(1-AB92)</f>
+        <v>91</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB93" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC93" s="40">
+        <f>AC89*(1-AC92)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H94" s="1">
         <v>-810000</v>
@@ -8008,19 +9703,19 @@
         <v>-5654000</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P94" s="1">
         <v>-8325000</v>
@@ -8037,20 +9732,23 @@
       <c r="T94" s="1">
         <v>-10000000</v>
       </c>
-      <c r="AA94" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB94" s="64"/>
-    </row>
-    <row r="95" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U94" s="1">
+        <v>20916000</v>
+      </c>
+      <c r="AB94" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC94" s="67"/>
+    </row>
+    <row r="95" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="10">
         <v>-8306831</v>
@@ -8103,91 +9801,98 @@
       <c r="T95" s="10">
         <v>-427891000</v>
       </c>
-      <c r="AA95" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB95" s="36">
-        <v>4.095E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U95" s="10">
+        <v>-569937000</v>
+      </c>
+      <c r="AB95" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC95" s="41">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7679999999999998E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA96" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB96" s="56" cm="1">
-        <f t="array" ref="AB96">_FV(A1,"Beta")</f>
-        <v>1.4152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB96" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC96" s="42" cm="1">
+        <f t="array" ref="AC96">_FV(A1,"Beta")</f>
+        <v>1.4139999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1">
         <v>93036851</v>
@@ -8202,87 +9907,90 @@
         <v>1436471</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA97" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB97" s="36">
+        <v>91</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB97" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC97" s="41">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-6992309</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1">
         <v>-147431000</v>
@@ -8308,89 +10016,95 @@
       <c r="T98" s="1">
         <v>-812602000</v>
       </c>
-      <c r="AA98" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB98" s="35">
-        <f>(AB95)+((AB96)*(AB97-AB95))</f>
-        <v>0.10187436000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U98" s="1">
+        <v>-479159000</v>
+      </c>
+      <c r="AB98" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC98" s="40">
+        <f>(AC95)+((AC96)*(AC97-AC95))</f>
+        <v>0.10317648000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA99" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB99" s="64"/>
-    </row>
-    <row r="100" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="U99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC99" s="67"/>
+    </row>
+    <row r="100" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="1">
         <v>-72951041</v>
@@ -8443,23 +10157,26 @@
       <c r="T100" s="1">
         <v>-32385000</v>
       </c>
-      <c r="AA100" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB100" s="24">
-        <f>AB87+AB88</f>
-        <v>881052000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U100" s="1">
+        <v>-32385000</v>
+      </c>
+      <c r="AB100" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC100" s="38">
+        <f>AC87+AC88</f>
+        <v>900028000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="10">
         <v>20085810</v>
@@ -8512,23 +10229,26 @@
       <c r="T101" s="10">
         <v>-844987000</v>
       </c>
-      <c r="AA101" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB101" s="33">
-        <f>AB100/AB104</f>
-        <v>1.8874375352696374E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U101" s="10">
+        <v>-467487000</v>
+      </c>
+      <c r="AB101" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC101" s="40">
+        <f>AC100/AC104</f>
+        <v>1.9543287633297414E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="1">
         <v>-271667</v>
@@ -8581,23 +10301,26 @@
       <c r="T102" s="1">
         <v>-6876000</v>
       </c>
-      <c r="AA102" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB102" s="48" cm="1">
-        <f t="array" ref="AB102">_FV(A1,"Market cap",TRUE)</f>
-        <v>45798744472</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+      <c r="U102" s="1">
+        <v>-34043000</v>
+      </c>
+      <c r="AB102" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC102" s="43" cm="1">
+        <f t="array" ref="AC102">_FV(A1,"Market cap",TRUE)</f>
+        <v>45153021870</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="10">
         <v>1225243</v>
@@ -8650,23 +10373,27 @@
       <c r="T103" s="10">
         <v>109354000</v>
       </c>
-      <c r="AA103" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB103" s="33">
-        <f>AB102/AB104</f>
-        <v>0.98112562464730357</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U103" s="10">
+        <f>-70961000+U102</f>
+        <v>-105004000</v>
+      </c>
+      <c r="AB103" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC103" s="40">
+        <f>AC102/AC104</f>
+        <v>0.98045671236670262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="1">
         <v>2651774</v>
@@ -8719,23 +10446,26 @@
       <c r="T104" s="1">
         <v>1150517000</v>
       </c>
-      <c r="AA104" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB104" s="37">
-        <f>AB100+AB102</f>
-        <v>46679796472</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="U104" s="1">
+        <v>1259871000</v>
+      </c>
+      <c r="AB104" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC104" s="44">
+        <f>AC100+AC102</f>
+        <v>46053049870</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D105" s="11">
         <v>3877017</v>
@@ -8788,360 +10518,441 @@
       <c r="T105" s="11">
         <v>1259871000</v>
       </c>
-      <c r="AA105" s="63" t="s">
+      <c r="U105" s="11">
+        <v>1154867000</v>
+      </c>
+      <c r="AB105" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC105" s="67"/>
+    </row>
+    <row r="106" spans="1:29" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="1" t="e">
+        <f t="shared" ref="C106:T106" si="42">(C22*(1-$AC$92))+C78+C89+C82</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="42"/>
+        <v>-19666892.698919609</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" si="42"/>
+        <v>15474248.124731816</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="42"/>
+        <v>2313822.1897715032</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="42"/>
+        <v>8213488.2180206552</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="42"/>
+        <v>91641382.091460794</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="42"/>
+        <v>133937830.05408344</v>
+      </c>
+      <c r="J106" s="1">
+        <f t="shared" si="42"/>
+        <v>83946018.119860053</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" si="42"/>
+        <v>158986105.14786834</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" si="42"/>
+        <v>143631147.7197088</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" si="42"/>
+        <v>188420669.64386892</v>
+      </c>
+      <c r="N106" s="1">
+        <f t="shared" si="42"/>
+        <v>106902985.4041549</v>
+      </c>
+      <c r="O106" s="1">
+        <f t="shared" si="42"/>
+        <v>208944008.32601041</v>
+      </c>
+      <c r="P106" s="1">
+        <f t="shared" si="42"/>
+        <v>347508483.39713234</v>
+      </c>
+      <c r="Q106" s="1">
+        <f t="shared" si="42"/>
+        <v>462322331.03677034</v>
+      </c>
+      <c r="R106" s="1">
+        <f t="shared" si="42"/>
+        <v>255148509.75595307</v>
+      </c>
+      <c r="S106" s="1">
+        <f t="shared" si="42"/>
+        <v>434696761.53315663</v>
+      </c>
+      <c r="T106" s="1">
+        <f t="shared" si="42"/>
+        <v>814137909.93875742</v>
+      </c>
+      <c r="U106" s="1">
+        <f>(U22*(1-$AC$92))+U78+U89+U82</f>
+        <v>169728292.96300173</v>
+      </c>
+      <c r="V106" s="29">
+        <f>U106*(1+$AC$107)</f>
+        <v>191201404.11359113</v>
+      </c>
+      <c r="W106" s="29">
+        <f t="shared" ref="W106:Z106" si="43">V106*(1+$AC$107)</f>
+        <v>215391177.84551033</v>
+      </c>
+      <c r="X106" s="29">
+        <f t="shared" si="43"/>
+        <v>242641311.70351845</v>
+      </c>
+      <c r="Y106" s="29">
+        <f t="shared" si="43"/>
+        <v>273338985.99798757</v>
+      </c>
+      <c r="Z106" s="29">
+        <f t="shared" si="43"/>
+        <v>307920365.01064068</v>
+      </c>
+      <c r="AA106" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB106" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC106" s="46">
+        <f>(AC101*AC93)+(AC103*AC98)</f>
+        <v>0.10116007237436886</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="15" t="e">
+        <f t="shared" ref="C107:U107" si="44">(C108/B108)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D107" s="15" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E107" s="15">
+        <f t="shared" si="44"/>
+        <v>-1.7328553596185596</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" si="44"/>
+        <v>-0.3666284142813121</v>
+      </c>
+      <c r="G107" s="15">
+        <f t="shared" si="44"/>
+        <v>-0.2979704143643257</v>
+      </c>
+      <c r="H107" s="15">
+        <f t="shared" si="44"/>
+        <v>16.207987046568533</v>
+      </c>
+      <c r="I107" s="15">
+        <f t="shared" si="44"/>
+        <v>0.34925678533835702</v>
+      </c>
+      <c r="J107" s="15">
+        <f t="shared" si="44"/>
+        <v>-0.40721514188223629</v>
+      </c>
+      <c r="K107" s="15">
+        <f t="shared" si="44"/>
+        <v>1.2985830955426549</v>
+      </c>
+      <c r="L107" s="15">
+        <f t="shared" si="44"/>
+        <v>-8.0012200081333917E-2</v>
+      </c>
+      <c r="M107" s="15">
+        <f t="shared" si="44"/>
+        <v>0.13252409396792908</v>
+      </c>
+      <c r="N107" s="15">
+        <f t="shared" si="44"/>
+        <v>-0.20266952895499091</v>
+      </c>
+      <c r="O107" s="15">
+        <f t="shared" si="44"/>
+        <v>0.51757453962242272</v>
+      </c>
+      <c r="P107" s="15">
+        <f t="shared" si="44"/>
+        <v>0.40688346745441573</v>
+      </c>
+      <c r="Q107" s="15">
+        <f t="shared" si="44"/>
+        <v>0.55962024056257986</v>
+      </c>
+      <c r="R107" s="15">
+        <f t="shared" si="44"/>
+        <v>-0.25282607181820294</v>
+      </c>
+      <c r="S107" s="15">
+        <f t="shared" si="44"/>
+        <v>0.48629966758830667</v>
+      </c>
+      <c r="T107" s="15">
+        <f t="shared" si="44"/>
+        <v>0.73243106721708373</v>
+      </c>
+      <c r="U107" s="15">
+        <f t="shared" si="44"/>
+        <v>-0.67042225765780628</v>
+      </c>
+      <c r="V107" s="36">
+        <v>999800000</v>
+      </c>
+      <c r="W107" s="36">
+        <v>1191000000</v>
+      </c>
+      <c r="X107" s="36">
+        <v>1318000000</v>
+      </c>
+      <c r="Y107" s="36">
+        <v>1512000000</v>
+      </c>
+      <c r="Z107" s="36">
+        <v>1835000000</v>
+      </c>
+      <c r="AA107" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB107" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC107" s="48">
+        <f>(SUM(V4:Z4)/5)</f>
+        <v>0.12651462390698903</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-18128333</v>
+      </c>
+      <c r="E108" s="1">
+        <v>13285446</v>
+      </c>
+      <c r="F108" s="1">
+        <v>8414624</v>
+      </c>
+      <c r="G108" s="1">
+        <v>5907315</v>
+      </c>
+      <c r="H108" s="1">
+        <v>101653000</v>
+      </c>
+      <c r="I108" s="1">
+        <v>137156000</v>
+      </c>
+      <c r="J108" s="1">
+        <v>81304000</v>
+      </c>
+      <c r="K108" s="1">
+        <v>186884000</v>
+      </c>
+      <c r="L108" s="1">
+        <v>171931000</v>
+      </c>
+      <c r="M108" s="1">
+        <v>194716000</v>
+      </c>
+      <c r="N108" s="1">
+        <v>155253000</v>
+      </c>
+      <c r="O108" s="1">
+        <v>235608000</v>
+      </c>
+      <c r="P108" s="1">
+        <v>331473000</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>516972000</v>
+      </c>
+      <c r="R108" s="1">
+        <v>386268000</v>
+      </c>
+      <c r="S108" s="1">
+        <v>574110000</v>
+      </c>
+      <c r="T108" s="1">
+        <v>994606000</v>
+      </c>
+      <c r="U108" s="1">
+        <v>327800000</v>
+      </c>
+      <c r="V108" s="26"/>
+      <c r="W108" s="26"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="Z108" s="58">
+        <f>Z107*(1+AC108)/(AC109-AC108)</f>
+        <v>24696339451.392052</v>
+      </c>
+      <c r="AA108" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AB105" s="64"/>
-    </row>
-    <row r="106" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D106" s="15" t="e">
-        <f>(D107/C107)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
-        <v>-1.7328553596185596</v>
-      </c>
-      <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
-        <v>-0.3666284142813121</v>
-      </c>
-      <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
-        <v>-0.2979704143643257</v>
-      </c>
-      <c r="H106" s="15">
-        <f t="shared" ref="H106:O106" si="36">(H107/G107)-1</f>
-        <v>16.207987046568533</v>
-      </c>
-      <c r="I106" s="15">
-        <f t="shared" si="36"/>
-        <v>0.34925678533835702</v>
-      </c>
-      <c r="J106" s="15">
-        <f t="shared" si="36"/>
-        <v>-0.40721514188223629</v>
-      </c>
-      <c r="K106" s="15">
-        <f t="shared" si="36"/>
-        <v>1.2985830955426549</v>
-      </c>
-      <c r="L106" s="15">
-        <f t="shared" si="36"/>
-        <v>-8.0012200081333917E-2</v>
-      </c>
-      <c r="M106" s="15">
-        <f t="shared" si="36"/>
-        <v>0.13252409396792908</v>
-      </c>
-      <c r="N106" s="15">
-        <f t="shared" si="36"/>
-        <v>-0.20266952895499091</v>
-      </c>
-      <c r="O106" s="15">
-        <f t="shared" si="36"/>
-        <v>0.51757453962242272</v>
-      </c>
-      <c r="P106" s="15">
-        <f t="shared" ref="P106" si="37">(P107/O107)-1</f>
-        <v>0.40688346745441573</v>
-      </c>
-      <c r="Q106" s="15">
-        <f t="shared" ref="Q106" si="38">(Q107/P107)-1</f>
-        <v>0.55962024056257986</v>
-      </c>
-      <c r="R106" s="15">
-        <f t="shared" ref="R106" si="39">(R107/Q107)-1</f>
-        <v>-0.25282607181820294</v>
-      </c>
-      <c r="S106" s="15">
-        <f t="shared" ref="S106" si="40">(S107/R107)-1</f>
-        <v>0.48629966758830667</v>
-      </c>
-      <c r="T106" s="15">
-        <f t="shared" ref="T106" si="41">(T107/S107)-1</f>
-        <v>0.73243106721708373</v>
-      </c>
-      <c r="U106" s="15"/>
-      <c r="V106" s="15"/>
-      <c r="W106" s="15"/>
-      <c r="X106" s="15"/>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="15"/>
-      <c r="AA106" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB106" s="26">
-        <f>(AB101*AB93)+(AB103*AB98)</f>
-        <v>9.9951545090544283E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D107" s="1">
-        <v>-18128333</v>
-      </c>
-      <c r="E107" s="1">
-        <v>13285446</v>
-      </c>
-      <c r="F107" s="1">
-        <v>8414624</v>
-      </c>
-      <c r="G107" s="1">
-        <v>5907315</v>
-      </c>
-      <c r="H107" s="1">
-        <v>101653000</v>
-      </c>
-      <c r="I107" s="1">
-        <v>137156000</v>
-      </c>
-      <c r="J107" s="1">
-        <v>81304000</v>
-      </c>
-      <c r="K107" s="1">
-        <v>186884000</v>
-      </c>
-      <c r="L107" s="1">
-        <v>171931000</v>
-      </c>
-      <c r="M107" s="1">
-        <v>194716000</v>
-      </c>
-      <c r="N107" s="1">
-        <v>155253000</v>
-      </c>
-      <c r="O107" s="1">
-        <v>235608000</v>
-      </c>
-      <c r="P107" s="1">
-        <v>331473000</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>516972000</v>
-      </c>
-      <c r="R107" s="1">
-        <v>386268000</v>
-      </c>
-      <c r="S107" s="1">
-        <v>574110000</v>
-      </c>
-      <c r="T107" s="1">
-        <v>994606000</v>
-      </c>
-      <c r="U107" s="57">
-        <f>T107*(1+$AB$107)</f>
-        <v>1153623095.555685</v>
-      </c>
-      <c r="V107" s="57">
-        <f t="shared" ref="V107:Y107" si="42">U107*(1+$AB$107)</f>
-        <v>1338063762.5345929</v>
-      </c>
-      <c r="W107" s="57">
-        <f t="shared" si="42"/>
-        <v>1551992708.4554527</v>
-      </c>
-      <c r="X107" s="57">
-        <f t="shared" si="42"/>
-        <v>1800124504.1837986</v>
-      </c>
-      <c r="Y107" s="57">
-        <f t="shared" si="42"/>
-        <v>2087927483.7495012</v>
-      </c>
-      <c r="Z107" s="38" t="s">
+      <c r="AB108" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="AA107" s="39" t="s">
+      <c r="AC108" s="50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="V109" s="58">
+        <f t="shared" ref="V109:Y109" si="45">V108+V107</f>
+        <v>999800000</v>
+      </c>
+      <c r="W109" s="58">
+        <f t="shared" si="45"/>
+        <v>1191000000</v>
+      </c>
+      <c r="X109" s="58">
+        <f t="shared" si="45"/>
+        <v>1318000000</v>
+      </c>
+      <c r="Y109" s="58">
+        <f t="shared" si="45"/>
+        <v>1512000000</v>
+      </c>
+      <c r="Z109" s="58">
+        <f>Z108+Z107</f>
+        <v>26531339451.392052</v>
+      </c>
+      <c r="AA109" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB109" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="AB107" s="40">
-        <f>(SUM(U4:Y4)/5)</f>
-        <v>0.15987948550047451</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="13"/>
-      <c r="T108" s="13"/>
-      <c r="U108" s="38"/>
-      <c r="V108" s="38"/>
-      <c r="W108" s="38"/>
-      <c r="X108" s="38"/>
-      <c r="Y108" s="41">
-        <f>Y107*(1+AB108)/(AB109-AB108)</f>
-        <v>30743642695.501938</v>
-      </c>
-      <c r="Z108" s="42" t="s">
+      <c r="AC109" s="48">
+        <f>AC106</f>
+        <v>0.10116007237436886</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="V110" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="AA108" s="43" t="s">
+      <c r="W110" s="64"/>
+    </row>
+    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="V111" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="AB108" s="44">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U109" s="41">
-        <f t="shared" ref="U109:W109" si="43">U108+U107</f>
-        <v>1153623095.555685</v>
-      </c>
-      <c r="V109" s="41">
-        <f t="shared" si="43"/>
-        <v>1338063762.5345929</v>
-      </c>
-      <c r="W109" s="41">
-        <f t="shared" si="43"/>
-        <v>1551992708.4554527</v>
-      </c>
-      <c r="X109" s="41">
-        <f>X108+X107</f>
-        <v>1800124504.1837986</v>
-      </c>
-      <c r="Y109" s="41">
-        <f>Y108+Y107</f>
-        <v>32831570179.251438</v>
-      </c>
-      <c r="Z109" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA109" s="45" t="s">
+      <c r="W111" s="43">
+        <f>NPV(AC109,V109,W109,X109,Y109,Z109)</f>
+        <v>20292935062.059559</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="V112" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="AB109" s="46">
-        <f>AB106</f>
-        <v>9.9951545090544283E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="U110" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="V110" s="60"/>
-    </row>
-    <row r="111" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U111" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="V111" s="48">
-        <f>NPV(AB109,U109,V109,W109,X109,Y109)</f>
-        <v>24940957393.220322</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="U112" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="V112" s="48">
+      <c r="W112" s="43">
         <f>T40</f>
         <v>1259871000</v>
       </c>
     </row>
-    <row r="113" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U113" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="V113" s="48">
-        <f>AB100</f>
-        <v>881052000</v>
-      </c>
-    </row>
-    <row r="114" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U114" s="47" t="s">
+    <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V113" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="W113" s="43">
+        <f>AC100</f>
+        <v>900028000</v>
+      </c>
+    </row>
+    <row r="114" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V114" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="W114" s="43">
+        <f>W111+W112-W113</f>
+        <v>20652778062.059559</v>
+      </c>
+    </row>
+    <row r="115" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V115" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="W115" s="52">
+        <f>U34*(1+(5*AA16))</f>
+        <v>120158080.5669304</v>
+      </c>
+    </row>
+    <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V116" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="W116" s="54">
+        <f>W114/W115</f>
+        <v>171.88005970647606</v>
+      </c>
+    </row>
+    <row r="117" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V117" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="V114" s="48">
-        <f>V111+V112-V113</f>
-        <v>25319776393.220322</v>
-      </c>
-    </row>
-    <row r="115" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U115" s="47" t="s">
+      <c r="W117" s="55" cm="1">
+        <f t="array" ref="W117">_FV(A1,"Price",TRUE)</f>
+        <v>370.26</v>
+      </c>
+    </row>
+    <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V118" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="V115" s="49">
-        <f>T34*(1+(5*Z16))</f>
-        <v>123526575.90439142</v>
-      </c>
-    </row>
-    <row r="116" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U116" s="50" t="s">
+      <c r="W118" s="56">
+        <f>W116/W117-1</f>
+        <v>-0.53578550287237059</v>
+      </c>
+    </row>
+    <row r="119" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V119" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="V116" s="51">
-        <f>V114/V115</f>
-        <v>204.97432400957689</v>
-      </c>
-    </row>
-    <row r="117" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U117" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="V117" s="58" cm="1">
-        <f t="array" ref="V117">_FV(A1,"Price",TRUE)</f>
-        <v>375.55500000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U118" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="V118" s="53">
-        <f>V116/V117-1</f>
-        <v>-0.45420957247386695</v>
-      </c>
-    </row>
-    <row r="119" spans="21:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="U119" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="V119" s="54" t="str">
-        <f>IF(V116&gt;V117,"BUY","SELL")</f>
+      <c r="W119" s="57" t="str">
+        <f>IF(W116&gt;W117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AA85:AB85"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AA99:AB99"/>
-    <mergeCell ref="AA105:AB105"/>
+    <mergeCell ref="V110:W110"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="AB85:AC85"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="AB99:AC99"/>
+    <mergeCell ref="AB105:AC105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/LULU" display="ROIC.AI | LULU" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -9183,8 +10994,12 @@
     <hyperlink ref="S75" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718721000009/0001397187-21-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="T36" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="T75" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="U1" r:id="rId40" display="https://finbox.com/NASDAQGS:LULU/explorer/revenue_proj" xr:uid="{BBE035EE-A2F8-3A45-96BF-43935D2DF3D6}"/>
+    <hyperlink ref="V1" r:id="rId40" display="https://finbox.com/NASDAQGS:LULU/explorer/revenue_proj" xr:uid="{BBE035EE-A2F8-3A45-96BF-43935D2DF3D6}"/>
+    <hyperlink ref="U36" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{1CDF487B-F3E3-B04C-B4EB-E1300CF78C80}"/>
+    <hyperlink ref="U75" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{30AA2D83-3926-5C42-BF4A-41B271F4C871}"/>
+    <hyperlink ref="AA107" r:id="rId43" xr:uid="{AF302325-EA1C-5947-B1AF-7FF64A10ED46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId44"/>
 </worksheet>
 </file>
--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6DA36-2652-B141-BA27-94CF708730ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2FF70A-1613-C945-964E-9C6CE38F7D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -573,10 +570,16 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -703,6 +706,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -877,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,7 +941,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -998,8 +1007,28 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,6 +1038,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1062,7 +1097,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Lululemon</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1099,15 +1133,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2590371753790437E-2"/>
-          <c:y val="0.15972473279369476"/>
-          <c:w val="0.83709454438102981"/>
-          <c:h val="0.64099187380933675"/>
+          <c:x val="8.5195325542570949E-2"/>
+          <c:y val="0.15374673036444325"/>
+          <c:w val="0.86004674457429053"/>
+          <c:h val="0.61897765117682324"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1156,12 +1190,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$U$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>18188000</c:v>
                 </c:pt>
@@ -1221,13 +1339,28 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8110518000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9573000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10886000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12210000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13253000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14725000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-170D-FC40-83BA-2C228CA729D9}"/>
+              <c16:uniqueId val="{00000000-E9C7-B343-AD17-75D525CC5701}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1278,12 +1411,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$U$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$Z$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>319000</c:v>
                 </c:pt>
@@ -1343,13 +1560,28 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>854800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1543000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1760000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2187000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2533000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-170D-FC40-83BA-2C228CA729D9}"/>
+              <c16:uniqueId val="{00000001-E9C7-B343-AD17-75D525CC5701}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1400,12 +1632,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$108:$U$108</c:f>
+              <c:f>'Sheet 1'!$B$108:$Z$108</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1465,13 +1781,28 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>327800000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1025000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1219000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1364000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1512000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1859000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-170D-FC40-83BA-2C228CA729D9}"/>
+              <c16:uniqueId val="{00000002-E9C7-B343-AD17-75D525CC5701}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1483,13 +1814,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="432405008"/>
-        <c:axId val="432407280"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2033601808"/>
+        <c:axId val="2033603808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432405008"/>
+        <c:axId val="2033601808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1848,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1529,7 +1860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432407280"/>
+        <c:crossAx val="2033603808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1537,7 +1868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432407280"/>
+        <c:axId val="2033603808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1586,7 +1917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432405008"/>
+        <c:crossAx val="2033601808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,10 +1935,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34524288319631413"/>
-          <c:y val="0.89384284433111894"/>
-          <c:w val="0.31482103238964942"/>
-          <c:h val="6.3178635639872777E-2"/>
+          <c:x val="0.34153825930356363"/>
+          <c:y val="0.89240231369002032"/>
+          <c:w val="0.31492551818547565"/>
+          <c:h val="6.3932963599387715E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1714,7 +2045,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1952,7 +2283,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2187,22 +2517,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22553F1B-01C3-855D-8602-53F990ACDEB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69770AE-3713-FC48-ED2A-E624C8926F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,27 +2560,23 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2259,27 +2585,23 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.7679999999999998E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2405,36 +2727,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>389.06</v>
-    <v>258.79000000000002</v>
-    <v>1.4139999999999999</v>
-    <v>-5.99</v>
-    <v>-1.592E-2</v>
+    <v>419.86</v>
+    <v>286.57499999999999</v>
+    <v>1.3452999999999999</v>
+    <v>-9.42</v>
+    <v>-2.3224000000000002E-2</v>
+    <v>-0.51</v>
+    <v>-1.2870000000000002E-3</v>
     <v>USD</v>
-    <v>lululemon athletica inc. is a designer, distributor and retailer of lifestyle inspired athletic apparel and accessories. The Company’s segments include Company-operated stores and direct to consumer. Its apparel assortment includes items such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities such as yoga, running, training, and other sweaty pursuits. It also offers fitness-related accessories. Its Company-operated stores include approximately 600 stores in 17 countries. Its retail stores are located primarily on street locations, in lifestyle centers, and in malls. Its direct to consumer segment includes electronic commerce Website www.lululemon.com, other country and region-specific websites, and mobile applications, including mobile applications on in-store devices. The Company also conduct business through MIRROR, which offers in-home fitness through a workout platform; operate outlets and temporary locations.</v>
+    <v>lululemon athletica inc. is engaged in the design, distribution, and retail of technical athletic apparel, footwear, and accessories. The Company’s segments include company-operated stores and direct to consumer. Its apparel assortment includes items, such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities, such as yoga, running, training, and other activities. It also offers apparel designed for being on the move and fitness-inspired accessories. Its technical athletic apparel, footwear, and accessories, which are sold through a chain of company-operated stores, direct to consumers through e-commerce, outlets, sales to wholesale accounts, license and supply arrangements, recommence, and sales from temporary locations. It also offers in-home connected fitness and associated content subscriptions through lululemon Studio. It operates stores in the United States, Canada, Australia, the United Kingdom, South Korea, Germany and others.</v>
     <v>34000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
-    <v>379.96</v>
+    <v>408.21</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45106.997400659377</v>
+    <v>45218.998694455469</v>
     <v>0</v>
-    <v>369.84</v>
-    <v>45153021870</v>
+    <v>394.58</v>
+    <v>50134358028</v>
     <v>LULULEMON ATHLETICA INC.</v>
     <v>LULULEMON ATHLETICA INC.</v>
-    <v>378.02</v>
-    <v>49.531599999999997</v>
-    <v>376.25</v>
-    <v>370.26</v>
-    <v>121949500</v>
+    <v>407.01</v>
+    <v>50.176600000000001</v>
+    <v>405.61</v>
+    <v>396.19</v>
+    <v>395.68</v>
+    <v>126541200</v>
     <v>LULU</v>
     <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
-    <v>592</v>
-    <v>2165419</v>
+    <v>2628202</v>
+    <v>2870357</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2466,6 +2791,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2486,6 +2813,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2502,7 +2830,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2513,13 +2841,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2585,13 +2916,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2636,6 +2973,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2643,6 +2983,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3001,13 +3344,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD119"/>
+  <dimension ref="A1:AD120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U106" sqref="U106"/>
+      <selection pane="bottomRight" activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3238,19 +3581,19 @@
         <v>8110518000</v>
       </c>
       <c r="V3" s="24">
-        <v>9497000000</v>
+        <v>9573000000</v>
       </c>
       <c r="W3" s="24">
-        <v>10726000000</v>
+        <v>10886000000</v>
       </c>
       <c r="X3" s="24">
-        <v>11985000000</v>
+        <v>12210000000</v>
       </c>
       <c r="Y3" s="24">
-        <v>13157000000</v>
+        <v>13253000000</v>
       </c>
       <c r="Z3" s="24">
-        <v>14697000000</v>
+        <v>14725000000</v>
       </c>
       <c r="AA3" s="18" t="s">
         <v>107</v>
@@ -3270,101 +3613,101 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="63">
         <f>(C3/B3)-1</f>
         <v>1.2403989443589181</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="63">
         <f>(D3/C3)-1</f>
         <v>1.064599899637718</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="63">
         <f>(E3/D3)-1</f>
         <v>0.76971875828971559</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="63">
         <f t="shared" ref="F4:Z4" si="0">(F3/E3)-1</f>
         <v>0.84513976756020703</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="63">
         <f t="shared" si="0"/>
         <v>0.28675304752596498</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>0.28122518552330122</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0.57144434287632095</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="63">
         <f t="shared" si="0"/>
         <v>0.40625737666220796</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="63">
         <f t="shared" si="0"/>
         <v>0.36920923345313272</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="63">
         <f t="shared" si="0"/>
         <v>0.16114767090059678</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="63">
         <f t="shared" si="0"/>
         <v>0.12947872910052105</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="63">
         <f t="shared" si="0"/>
         <v>0.1465101799285895</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="63">
         <f t="shared" si="0"/>
         <v>0.13776550904794549</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="63">
         <f t="shared" si="0"/>
         <v>0.13000769495886355</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="63">
         <f t="shared" si="0"/>
         <v>0.24125871354203432</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="63">
         <f t="shared" si="0"/>
         <v>0.21013076894303739</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="63">
         <f t="shared" si="0"/>
         <v>0.10619541748088102</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="63">
         <f t="shared" si="0"/>
         <v>0.42135142742451581</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="63">
         <f t="shared" si="0"/>
         <v>0.29631045020016411</v>
       </c>
       <c r="V4" s="16">
         <f>(V3/U3)-1</f>
-        <v>0.1709486373126845</v>
+        <v>0.18031918553167636</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12940928714330835</v>
+        <v>0.13715658623211113</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11737833302256195</v>
+        <v>0.12162410435421633</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>9.7788902795160615E-2</v>
+        <v>8.5421785421785357E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11704795926122968</v>
+        <v>0.11106919188108355</v>
       </c>
       <c r="AA4" s="17">
         <f>SUM(S4:U4)/3</f>
@@ -3513,16 +3856,20 @@
         <f>U3-U5</f>
         <v>4492340000</v>
       </c>
-      <c r="AA6" s="18" t="s">
+      <c r="V6" s="61">
+        <f>V3*V7</f>
+        <v>5627009400</v>
+      </c>
+      <c r="AA6" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="71" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3591,21 +3938,24 @@
         <f>U6/U3</f>
         <v>0.55389063929085669</v>
       </c>
+      <c r="V7" s="59">
+        <v>0.58779999999999999</v>
+      </c>
       <c r="AA7" s="17">
-        <f>U7</f>
-        <v>0.55389063929085669</v>
+        <f>V7</f>
+        <v>0.58779999999999999</v>
       </c>
       <c r="AB7" s="20">
-        <f>U21</f>
-        <v>0.25004568142256761</v>
+        <f>V21</f>
+        <v>0.2648072704481354</v>
       </c>
       <c r="AC7" s="20">
-        <f>U30</f>
-        <v>0.10539400812623806</v>
+        <f>V30</f>
+        <v>0.16118249242661653</v>
       </c>
       <c r="AD7" s="20">
-        <f>U108/U3</f>
-        <v>4.0416654028756237E-2</v>
+        <f>V106</f>
+        <v>0.1070719732581218</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4305,17 +4655,17 @@
         <f>SUM(Q35:U35)/5</f>
         <v>-1.2277930951466759E-2</v>
       </c>
-      <c r="AB16" s="31">
-        <f>AC102/U3</f>
-        <v>5.5672180087634358</v>
-      </c>
-      <c r="AC16" s="31">
-        <f>AC102/U28</f>
-        <v>52.822908130556854</v>
-      </c>
-      <c r="AD16" s="32">
-        <f>AC102/U108</f>
-        <v>137.7456432885906</v>
+      <c r="AB16" s="30">
+        <f>AC103/U3</f>
+        <v>6.1814002543364062</v>
+      </c>
+      <c r="AC16" s="30">
+        <f>AC103/U28</f>
+        <v>58.650395446888162</v>
+      </c>
+      <c r="AD16" s="31">
+        <f>AC103/U108</f>
+        <v>152.94190978645514</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4524,36 +4874,36 @@
       <c r="U19" s="10">
         <v>2028000000</v>
       </c>
-      <c r="V19" s="62">
-        <v>2489000000</v>
-      </c>
-      <c r="W19" s="62">
-        <v>2821000000</v>
-      </c>
-      <c r="X19" s="62">
-        <v>3161000000</v>
-      </c>
-      <c r="Y19" s="62">
-        <v>3495000000</v>
-      </c>
-      <c r="Z19" s="62">
-        <v>3969000000</v>
+      <c r="V19" s="61">
+        <v>2535000000</v>
+      </c>
+      <c r="W19" s="61">
+        <v>2888000000</v>
+      </c>
+      <c r="X19" s="61">
+        <v>3267000000</v>
+      </c>
+      <c r="Y19" s="61">
+        <v>3514000000</v>
+      </c>
+      <c r="Z19" s="61">
+        <v>4000000000</v>
       </c>
       <c r="AA19" s="28">
         <f>T40-T57-T62</f>
         <v>378819000</v>
       </c>
-      <c r="AB19" s="30">
-        <f>AC102/V3</f>
-        <v>4.7544510761293042</v>
-      </c>
-      <c r="AC19" s="31">
-        <f>AC102/V28</f>
-        <v>29.843372022471911</v>
-      </c>
-      <c r="AD19" s="32">
-        <f>AC102/V107</f>
-        <v>45.162054280856168</v>
+      <c r="AB19" s="29">
+        <f>AC103/V3</f>
+        <v>5.2370581874020683</v>
+      </c>
+      <c r="AC19" s="30">
+        <f>AC103/V28</f>
+        <v>32.491482843810758</v>
+      </c>
+      <c r="AD19" s="31">
+        <f>AC103/V108</f>
+        <v>48.911568807804876</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4639,23 +4989,23 @@
       </c>
       <c r="V20" s="16">
         <f>(V19/U19)-1</f>
-        <v>0.22731755424063116</v>
+        <v>0.25</v>
       </c>
       <c r="W20" s="16">
         <f t="shared" ref="W20:Z20" si="11">(W19/V19)-1</f>
-        <v>0.13338690237042994</v>
+        <v>0.13925049309664694</v>
       </c>
       <c r="X20" s="16">
         <f t="shared" si="11"/>
-        <v>0.12052463665366897</v>
+        <v>0.13123268698060953</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" si="11"/>
-        <v>0.10566276494780125</v>
+        <v>7.5604530149984805E-2</v>
       </c>
       <c r="Z20" s="16">
         <f t="shared" si="11"/>
-        <v>0.13562231759656651</v>
+        <v>0.13830392714854867</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -4723,31 +5073,34 @@
         <f>U19/U3</f>
         <v>0.25004568142256761</v>
       </c>
-      <c r="V21" s="63">
+      <c r="V21" s="62">
         <f>V19/V3</f>
-        <v>0.26208276297778244</v>
-      </c>
-      <c r="W21" s="63">
+        <v>0.2648072704481354</v>
+      </c>
+      <c r="W21" s="62">
         <f t="shared" ref="W21:Z21" si="12">W19/W3</f>
-        <v>0.26300578034682082</v>
-      </c>
-      <c r="X21" s="63">
+        <v>0.26529487415028474</v>
+      </c>
+      <c r="X21" s="62">
         <f t="shared" si="12"/>
-        <v>0.26374634960367127</v>
-      </c>
-      <c r="Y21" s="63">
+        <v>0.26756756756756755</v>
+      </c>
+      <c r="Y21" s="62">
         <f t="shared" si="12"/>
-        <v>0.26563806338831042</v>
-      </c>
-      <c r="Z21" s="63">
+        <v>0.26514751377046708</v>
+      </c>
+      <c r="Z21" s="62">
         <f t="shared" si="12"/>
-        <v>0.27005511328842619</v>
+        <v>0.27164685908319186</v>
+      </c>
+      <c r="AB21" s="69" t="s">
+        <v>168</v>
       </c>
       <c r="AC21" s="18" t="s">
         <v>161</v>
       </c>
       <c r="AD21" s="19" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4814,13 +5167,17 @@
       <c r="U22" s="10">
         <v>1736000000</v>
       </c>
-      <c r="AC22" s="33">
-        <f>U99/AC102</f>
+      <c r="AB22" s="17">
+        <f>SUM(V29:Z29)/5</f>
+        <v>0.26688186705277073</v>
+      </c>
+      <c r="AC22" s="32">
+        <f>U99/AC103</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="34">
-        <f>U108/AC102</f>
-        <v>7.2597577398865682E-3</v>
+      <c r="AD22" s="33">
+        <f>V108/AC103</f>
+        <v>2.0445060838866998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -5214,20 +5571,20 @@
       <c r="U28" s="11">
         <v>854800000</v>
       </c>
-      <c r="V28" s="59">
-        <v>1513000000</v>
-      </c>
-      <c r="W28" s="59">
-        <v>1720000000</v>
-      </c>
-      <c r="X28" s="59">
-        <v>1922000000</v>
-      </c>
-      <c r="Y28" s="59">
-        <v>2118000000</v>
-      </c>
-      <c r="Z28" s="59">
-        <v>2517000000</v>
+      <c r="V28" s="58">
+        <v>1543000000</v>
+      </c>
+      <c r="W28" s="58">
+        <v>1760000000</v>
+      </c>
+      <c r="X28" s="58">
+        <v>2022000000</v>
+      </c>
+      <c r="Y28" s="58">
+        <v>2187000000</v>
+      </c>
+      <c r="Z28" s="58">
+        <v>2533000000</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5313,23 +5670,23 @@
       </c>
       <c r="V29" s="16">
         <f>(V28/U28)-1</f>
-        <v>0.77000467945718287</v>
+        <v>0.80510060832943386</v>
       </c>
       <c r="W29" s="16">
         <f t="shared" ref="W29:Z29" si="15">(W28/V28)-1</f>
-        <v>0.13681427627230658</v>
+        <v>0.14063512637718723</v>
       </c>
       <c r="X29" s="16">
         <f t="shared" si="15"/>
-        <v>0.11744186046511618</v>
+        <v>0.14886363636363642</v>
       </c>
       <c r="Y29" s="16">
         <f t="shared" si="15"/>
-        <v>0.10197710718002084</v>
+        <v>8.1602373887240454E-2</v>
       </c>
       <c r="Z29" s="16">
         <f t="shared" si="15"/>
-        <v>0.18838526912181308</v>
+        <v>0.15820759030635578</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -5397,25 +5754,25 @@
         <f>U28/U3</f>
         <v>0.10539400812623806</v>
       </c>
-      <c r="V30" s="60">
+      <c r="V30" s="59">
         <f>V28/V3</f>
-        <v>0.1593134674107613</v>
-      </c>
-      <c r="W30" s="60">
+        <v>0.16118249242661653</v>
+      </c>
+      <c r="W30" s="59">
         <f t="shared" ref="W30:Z30" si="16">W28/W3</f>
-        <v>0.16035800857728882</v>
-      </c>
-      <c r="X30" s="60">
+        <v>0.16167554657358074</v>
+      </c>
+      <c r="X30" s="59">
         <f t="shared" si="16"/>
-        <v>0.1603671255736337</v>
-      </c>
-      <c r="Y30" s="60">
+        <v>0.16560196560196561</v>
+      </c>
+      <c r="Y30" s="59">
         <f t="shared" si="16"/>
-        <v>0.16097894656836664</v>
-      </c>
-      <c r="Z30" s="60">
+        <v>0.16501924092658266</v>
+      </c>
+      <c r="Z30" s="59">
         <f t="shared" si="16"/>
-        <v>0.17125944070218413</v>
+        <v>0.17202037351443125</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -5482,20 +5839,20 @@
       <c r="U31" s="12">
         <v>6.7</v>
       </c>
-      <c r="V31" s="61">
-        <v>11.91</v>
-      </c>
-      <c r="W31" s="61">
-        <v>13.54</v>
-      </c>
-      <c r="X31" s="61">
-        <v>15.13</v>
-      </c>
-      <c r="Y31" s="61">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="Z31" s="61">
-        <v>19.809999999999999</v>
+      <c r="V31" s="60">
+        <v>12.19</v>
+      </c>
+      <c r="W31" s="60">
+        <v>13.91</v>
+      </c>
+      <c r="X31" s="60">
+        <v>15.98</v>
+      </c>
+      <c r="Y31" s="60">
+        <v>17.28</v>
+      </c>
+      <c r="Z31" s="60">
+        <v>20.010000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -8999,12 +9356,8 @@
       <c r="U84" s="1">
         <v>1447000000</v>
       </c>
-      <c r="AB84" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC84" s="66"/>
-    </row>
-    <row r="85" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>47</v>
       </c>
@@ -9068,12 +9421,12 @@
       <c r="U85" s="1">
         <v>172700000</v>
       </c>
-      <c r="AB85" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC85" s="67"/>
-    </row>
-    <row r="86" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="AB85" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC85" s="73"/>
+    </row>
+    <row r="86" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>71</v>
       </c>
@@ -9137,13 +9490,10 @@
       <c r="U86" s="1">
         <v>160208000</v>
       </c>
-      <c r="AB86" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC86" s="38">
-        <f>U17</f>
-        <v>0</v>
-      </c>
+      <c r="AB86" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC86" s="74"/>
     </row>
     <row r="87" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -9209,12 +9559,12 @@
       <c r="U87" s="1">
         <v>-3508000</v>
       </c>
-      <c r="AB87" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC87" s="38">
-        <f>U57</f>
-        <v>207972000</v>
+      <c r="AB87" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC87" s="37">
+        <f>U17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9281,12 +9631,12 @@
       <c r="U88" s="10">
         <v>966463000</v>
       </c>
-      <c r="AB88" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC88" s="38">
-        <f>T62</f>
-        <v>692056000</v>
+      <c r="AB88" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC88" s="37">
+        <f>U57</f>
+        <v>207972000</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9353,13 +9703,12 @@
       <c r="U89" s="1">
         <v>-638657000</v>
       </c>
-      <c r="V89" s="1"/>
-      <c r="AB89" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC89" s="40">
-        <f>AC86/(AC87+AC88)</f>
-        <v>0</v>
+      <c r="AB89" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC89" s="37">
+        <f>T62</f>
+        <v>692056000</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -9446,13 +9795,13 @@
         <f t="shared" si="41"/>
         <v>7.8744292288112791E-2</v>
       </c>
-      <c r="V90" s="15"/>
-      <c r="AB90" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC90" s="38">
-        <f>U27</f>
-        <v>477771000</v>
+      <c r="V90" s="1"/>
+      <c r="AB90" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC90" s="39">
+        <f>AC87/(AC88+AC89)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9519,12 +9868,13 @@
       <c r="U91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AB91" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC91" s="38">
-        <f>U25</f>
-        <v>1332571000</v>
+      <c r="V91" s="15"/>
+      <c r="AB91" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC91" s="37">
+        <f>U27</f>
+        <v>477771000</v>
       </c>
     </row>
     <row r="92" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9591,12 +9941,12 @@
       <c r="U92" s="1">
         <v>-47804000</v>
       </c>
-      <c r="AB92" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC92" s="40">
-        <f>AC90/AC91</f>
-        <v>0.35853324138075943</v>
+      <c r="AB92" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC92" s="37">
+        <f>U25</f>
+        <v>1332571000</v>
       </c>
     </row>
     <row r="93" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -9663,15 +10013,15 @@
       <c r="U93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AB93" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC93" s="40">
-        <f>AC89*(1-AC92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="AB93" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC93" s="39">
+        <f>AC91/AC92</f>
+        <v>0.35853324138075943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
@@ -9735,12 +10085,15 @@
       <c r="U94" s="1">
         <v>20916000</v>
       </c>
-      <c r="AB94" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC94" s="67"/>
-    </row>
-    <row r="95" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="AB94" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC94" s="39">
+        <f>AC90*(1-AC93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
@@ -9804,13 +10157,10 @@
       <c r="U95" s="10">
         <v>-569937000</v>
       </c>
-      <c r="AB95" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC95" s="41">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.7679999999999998E-2</v>
-      </c>
+      <c r="AB95" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC95" s="74"/>
     </row>
     <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -9876,12 +10226,12 @@
       <c r="U96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AB96" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC96" s="42" cm="1">
-        <f t="array" ref="AC96">_FV(A1,"Beta")</f>
-        <v>1.4139999999999999</v>
+      <c r="AB96" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC96" s="68">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9948,11 +10298,12 @@
       <c r="U97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AB97" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC97" s="41">
-        <v>8.4000000000000005E-2</v>
+      <c r="AB97" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC97" s="41" cm="1">
+        <f t="array" ref="AC97">_FV(A1,"Beta")</f>
+        <v>1.3452999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10019,15 +10370,14 @@
       <c r="U98" s="1">
         <v>-479159000</v>
       </c>
-      <c r="AB98" s="39" t="s">
-        <v>135</v>
+      <c r="AB98" s="36" t="s">
+        <v>134</v>
       </c>
       <c r="AC98" s="40">
-        <f>(AC95)+((AC96)*(AC97-AC95))</f>
-        <v>0.10317648000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
@@ -10091,12 +10441,15 @@
       <c r="U99" s="1">
         <v>0</v>
       </c>
-      <c r="AB99" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC99" s="67"/>
-    </row>
-    <row r="100" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="AB99" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC99" s="39">
+        <f>(AC96)+((AC97)*(AC98-AC96))</f>
+        <v>9.6078594000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>84</v>
       </c>
@@ -10160,13 +10513,10 @@
       <c r="U100" s="1">
         <v>-32385000</v>
       </c>
-      <c r="AB100" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC100" s="38">
-        <f>AC87+AC88</f>
-        <v>900028000</v>
-      </c>
+      <c r="AB100" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC100" s="74"/>
     </row>
     <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
@@ -10232,12 +10582,12 @@
       <c r="U101" s="10">
         <v>-467487000</v>
       </c>
-      <c r="AB101" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC101" s="40">
-        <f>AC100/AC104</f>
-        <v>1.9543287633297414E-2</v>
+      <c r="AB101" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC101" s="37">
+        <f>AC88+AC89</f>
+        <v>900028000</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10304,12 +10654,12 @@
       <c r="U102" s="1">
         <v>-34043000</v>
       </c>
-      <c r="AB102" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC102" s="43" cm="1">
-        <f t="array" ref="AC102">_FV(A1,"Market cap",TRUE)</f>
-        <v>45153021870</v>
+      <c r="AB102" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC102" s="39">
+        <f>AC101/AC105</f>
+        <v>1.7635717210474522E-2</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10377,12 +10727,12 @@
         <f>-70961000+U102</f>
         <v>-105004000</v>
       </c>
-      <c r="AB103" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC103" s="40">
-        <f>AC102/AC104</f>
-        <v>0.98045671236670262</v>
+      <c r="AB103" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC103" s="42" cm="1">
+        <f t="array" ref="AC103">_FV(A1,"Market cap",TRUE)</f>
+        <v>50134358028</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10449,15 +10799,15 @@
       <c r="U104" s="1">
         <v>1259871000</v>
       </c>
-      <c r="AB104" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC104" s="44">
-        <f>AC100+AC102</f>
-        <v>46053049870</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB104" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC104" s="39">
+        <f>AC103/AC105</f>
+        <v>0.98236428278952548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>89</v>
       </c>
@@ -10521,17 +10871,27 @@
       <c r="U105" s="11">
         <v>1154867000</v>
       </c>
-      <c r="AB105" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC105" s="67"/>
-    </row>
-    <row r="106" spans="1:29" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V105" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="W105" s="76"/>
+      <c r="X105" s="76"/>
+      <c r="Y105" s="76"/>
+      <c r="Z105" s="76"/>
+      <c r="AB105" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC105" s="43">
+        <f>AC101+AC103</f>
+        <v>51034386028</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" s="1" t="e">
-        <f t="shared" ref="C106:T106" si="42">(C22*(1-$AC$92))+C78+C89+C82</f>
+        <f t="shared" ref="C106:U106" si="42">(C22*(1-$AC$93))+C78+C89+C82</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="1">
@@ -10603,150 +10963,153 @@
         <v>814137909.93875742</v>
       </c>
       <c r="U106" s="1">
-        <f>(U22*(1-$AC$92))+U78+U89+U82</f>
+        <f t="shared" si="42"/>
         <v>169728292.96300173</v>
       </c>
-      <c r="V106" s="29">
-        <f>U106*(1+$AC$107)</f>
-        <v>191201404.11359113</v>
-      </c>
-      <c r="W106" s="29">
-        <f t="shared" ref="W106:Z106" si="43">V106*(1+$AC$107)</f>
-        <v>215391177.84551033</v>
-      </c>
-      <c r="X106" s="29">
-        <f t="shared" si="43"/>
-        <v>242641311.70351845</v>
-      </c>
-      <c r="Y106" s="29">
-        <f t="shared" si="43"/>
-        <v>273338985.99798757</v>
-      </c>
-      <c r="Z106" s="29">
-        <f t="shared" si="43"/>
-        <v>307920365.01064068</v>
-      </c>
-      <c r="AA106" s="26" t="s">
+      <c r="V106" s="65">
+        <f>V108/V3</f>
+        <v>0.1070719732581218</v>
+      </c>
+      <c r="W106" s="65">
+        <f>W108/W3</f>
+        <v>0.1119786882234062</v>
+      </c>
+      <c r="X106" s="65">
+        <f>X108/X3</f>
+        <v>0.11171171171171171</v>
+      </c>
+      <c r="Y106" s="65">
+        <f>Y108/Y3</f>
+        <v>0.11408737644306949</v>
+      </c>
+      <c r="Z106" s="65">
+        <f>Z108/Z3</f>
+        <v>0.12624787775891341</v>
+      </c>
+      <c r="AA106" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="AB106" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC106" s="46">
-        <f>(AC101*AC93)+(AC103*AC98)</f>
-        <v>0.10116007237436886</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="AB106" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC106" s="74"/>
+    </row>
+    <row r="107" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="15" t="e">
-        <f t="shared" ref="C107:U107" si="44">(C108/B108)-1</f>
+        <f t="shared" ref="C107:U107" si="43">(C108/B108)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D107" s="15" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>#VALUE!</v>
       </c>
       <c r="E107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-1.7328553596185596</v>
       </c>
       <c r="F107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-0.3666284142813121</v>
       </c>
       <c r="G107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-0.2979704143643257</v>
       </c>
       <c r="H107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>16.207987046568533</v>
       </c>
       <c r="I107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.34925678533835702</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-0.40721514188223629</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1.2985830955426549</v>
       </c>
       <c r="L107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-8.0012200081333917E-2</v>
       </c>
       <c r="M107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.13252409396792908</v>
       </c>
       <c r="N107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-0.20266952895499091</v>
       </c>
       <c r="O107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.51757453962242272</v>
       </c>
       <c r="P107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.40688346745441573</v>
       </c>
       <c r="Q107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.55962024056257986</v>
       </c>
       <c r="R107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-0.25282607181820294</v>
       </c>
       <c r="S107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.48629966758830667</v>
       </c>
       <c r="T107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.73243106721708373</v>
       </c>
       <c r="U107" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>-0.67042225765780628</v>
       </c>
-      <c r="V107" s="36">
-        <v>999800000</v>
-      </c>
-      <c r="W107" s="36">
-        <v>1191000000</v>
-      </c>
-      <c r="X107" s="36">
-        <v>1318000000</v>
-      </c>
-      <c r="Y107" s="36">
-        <v>1512000000</v>
-      </c>
-      <c r="Z107" s="36">
-        <v>1835000000</v>
-      </c>
-      <c r="AA107" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB107" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC107" s="48">
-        <f>(SUM(V4:Z4)/5)</f>
-        <v>0.12651462390698903</v>
+      <c r="V107" s="64">
+        <f>(V108/U108)-1</f>
+        <v>2.1269066503965832</v>
+      </c>
+      <c r="W107" s="64">
+        <f>(W108/V108)-1</f>
+        <v>0.18926829268292678</v>
+      </c>
+      <c r="X107" s="64">
+        <f>(X108/W108)-1</f>
+        <v>0.11894995898277272</v>
+      </c>
+      <c r="Y107" s="64">
+        <f>(Y108/X108)-1</f>
+        <v>0.10850439882697938</v>
+      </c>
+      <c r="Z107" s="64">
+        <f>(Z108/Y108)-1</f>
+        <v>0.22949735449735442</v>
+      </c>
+      <c r="AA107" s="67">
+        <f>SUM(V107:Z107)/5</f>
+        <v>0.55462533107732326</v>
+      </c>
+      <c r="AB107" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC107" s="45">
+        <f>(AC102*AC94)+(AC104*AC99)</f>
+        <v>9.4384179086236003E-2</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="35" t="s">
-        <v>165</v>
+      <c r="A108" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>91</v>
@@ -10808,151 +11171,179 @@
       <c r="U108" s="1">
         <v>327800000</v>
       </c>
-      <c r="V108" s="26"/>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="58">
-        <f>Z107*(1+AC108)/(AC109-AC108)</f>
-        <v>24696339451.392052</v>
-      </c>
-      <c r="AA108" s="27" t="s">
+      <c r="V108" s="35">
+        <v>1025000000</v>
+      </c>
+      <c r="W108" s="35">
+        <v>1219000000</v>
+      </c>
+      <c r="X108" s="35">
+        <v>1364000000</v>
+      </c>
+      <c r="Y108" s="35">
+        <v>1512000000</v>
+      </c>
+      <c r="Z108" s="35">
+        <v>1859000000</v>
+      </c>
+      <c r="AA108" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB108" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC108" s="47">
+        <f>(SUM(V4:Z4)/5)</f>
+        <v>0.12711817068417455</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="V109" s="26"/>
+      <c r="W109" s="26"/>
+      <c r="X109" s="26"/>
+      <c r="Y109" s="26"/>
+      <c r="Z109" s="57">
+        <f>Z108*(1+AC109)/(AC110-AC109)</f>
+        <v>27462672688.419769</v>
+      </c>
+      <c r="AA109" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AB108" s="49" t="s">
+      <c r="AB109" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="AC108" s="50">
+      <c r="AC109" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="V109" s="58">
-        <f t="shared" ref="V109:Y109" si="45">V108+V107</f>
-        <v>999800000</v>
-      </c>
-      <c r="W109" s="58">
-        <f t="shared" si="45"/>
-        <v>1191000000</v>
-      </c>
-      <c r="X109" s="58">
-        <f t="shared" si="45"/>
-        <v>1318000000</v>
-      </c>
-      <c r="Y109" s="58">
-        <f t="shared" si="45"/>
+    <row r="110" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="V110" s="57">
+        <f t="shared" ref="V110:Y110" si="44">V109+V108</f>
+        <v>1025000000</v>
+      </c>
+      <c r="W110" s="57">
+        <f t="shared" si="44"/>
+        <v>1219000000</v>
+      </c>
+      <c r="X110" s="57">
+        <f t="shared" si="44"/>
+        <v>1364000000</v>
+      </c>
+      <c r="Y110" s="57">
+        <f t="shared" si="44"/>
         <v>1512000000</v>
       </c>
-      <c r="Z109" s="58">
-        <f>Z108+Z107</f>
-        <v>26531339451.392052</v>
-      </c>
-      <c r="AA109" s="27" t="s">
+      <c r="Z110" s="57">
+        <f>Z109+Z108</f>
+        <v>29321672688.419769</v>
+      </c>
+      <c r="AA110" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="AB109" s="51" t="s">
+      <c r="AB110" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="AC109" s="48">
-        <f>AC106</f>
-        <v>0.10116007237436886</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="V110" s="64" t="s">
+      <c r="AC110" s="47">
+        <f>AC107</f>
+        <v>9.4384179086236003E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="V111" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="W110" s="64"/>
-    </row>
-    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="V111" s="52" t="s">
+      <c r="W111" s="75"/>
+    </row>
+    <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="V112" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="W111" s="43">
-        <f>NPV(AC109,V109,W109,X109,Y109,Z109)</f>
-        <v>20292935062.059559</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="V112" s="52" t="s">
+      <c r="W112" s="42">
+        <f>NPV(AC110,V110,W110,X110,Y110,Z110)</f>
+        <v>22727533547.26825</v>
+      </c>
+    </row>
+    <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V113" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="W112" s="43">
+      <c r="W113" s="42">
         <f>T40</f>
         <v>1259871000</v>
       </c>
     </row>
-    <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V113" s="52" t="s">
+    <row r="114" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V114" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="W113" s="43">
-        <f>AC100</f>
+      <c r="W114" s="42">
+        <f>AC101</f>
         <v>900028000</v>
       </c>
     </row>
-    <row r="114" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V114" s="52" t="s">
+    <row r="115" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V115" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="W114" s="43">
-        <f>W111+W112-W113</f>
-        <v>20652778062.059559</v>
-      </c>
-    </row>
-    <row r="115" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V115" s="52" t="s">
+      <c r="W115" s="42">
+        <f>W112+W113-W114</f>
+        <v>23087376547.26825</v>
+      </c>
+    </row>
+    <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V116" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="W115" s="52">
+      <c r="W116" s="51">
         <f>U34*(1+(5*AA16))</f>
         <v>120158080.5669304</v>
       </c>
     </row>
-    <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V116" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="W116" s="54">
-        <f>W114/W115</f>
-        <v>171.88005970647606</v>
-      </c>
-    </row>
     <row r="117" spans="22:23" ht="20" x14ac:dyDescent="0.25">
       <c r="V117" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="W117" s="53">
+        <f>W115/W116</f>
+        <v>192.1416890011665</v>
+      </c>
+    </row>
+    <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V118" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="W117" s="55" cm="1">
-        <f t="array" ref="W117">_FV(A1,"Price",TRUE)</f>
-        <v>370.26</v>
-      </c>
-    </row>
-    <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V118" s="53" t="s">
+      <c r="W118" s="54" cm="1">
+        <f t="array" ref="W118">_FV(A1,"Price",TRUE)</f>
+        <v>396.19</v>
+      </c>
+    </row>
+    <row r="119" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V119" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="W118" s="56">
-        <f>W116/W117-1</f>
-        <v>-0.53578550287237059</v>
-      </c>
-    </row>
-    <row r="119" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V119" s="53" t="s">
+      <c r="W119" s="55">
+        <f>W117/W118-1</f>
+        <v>-0.51502640399513744</v>
+      </c>
+    </row>
+    <row r="120" spans="22:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="V120" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="W119" s="57" t="str">
-        <f>IF(W116&gt;W117,"BUY","SELL")</f>
+      <c r="W120" s="56" t="str">
+        <f>IF(W117&gt;W118,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="V110:W110"/>
-    <mergeCell ref="AB84:AC84"/>
+  <mergeCells count="7">
     <mergeCell ref="AB85:AC85"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="AB99:AC99"/>
-    <mergeCell ref="AB105:AC105"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="V111:W111"/>
+    <mergeCell ref="V105:Z105"/>
+    <mergeCell ref="AB106:AC106"/>
+    <mergeCell ref="AB100:AC100"/>
+    <mergeCell ref="AB95:AC95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/LULU" display="ROIC.AI | LULU" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10997,7 +11388,7 @@
     <hyperlink ref="V1" r:id="rId40" display="https://finbox.com/NASDAQGS:LULU/explorer/revenue_proj" xr:uid="{BBE035EE-A2F8-3A45-96BF-43935D2DF3D6}"/>
     <hyperlink ref="U36" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{1CDF487B-F3E3-B04C-B4EB-E1300CF78C80}"/>
     <hyperlink ref="U75" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1397187/000139718722000014/0001397187-22-000014-index.htm" xr:uid="{30AA2D83-3926-5C42-BF4A-41B271F4C871}"/>
-    <hyperlink ref="AA107" r:id="rId43" xr:uid="{AF302325-EA1C-5947-B1AF-7FF64A10ED46}"/>
+    <hyperlink ref="AA108" r:id="rId43" xr:uid="{AF302325-EA1C-5947-B1AF-7FF64A10ED46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId44"/>

--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2FF70A-1613-C945-964E-9C6CE38F7D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AC131D-A855-E448-9DD6-C0EC65ECE9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,9 +2567,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth Portfolio"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Retirement"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2588,7 +2588,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2729,11 +2729,11 @@
     <v>Powered by Refinitiv</v>
     <v>419.86</v>
     <v>286.57499999999999</v>
-    <v>1.3452999999999999</v>
-    <v>-9.42</v>
-    <v>-2.3224000000000002E-2</v>
-    <v>-0.51</v>
-    <v>-1.2870000000000002E-3</v>
+    <v>1.3446</v>
+    <v>-0.37</v>
+    <v>-9.3389999999999999E-4</v>
+    <v>-0.09</v>
+    <v>-2.274E-4</v>
     <v>USD</v>
     <v>lululemon athletica inc. is engaged in the design, distribution, and retail of technical athletic apparel, footwear, and accessories. The Company’s segments include company-operated stores and direct to consumer. Its apparel assortment includes items, such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities, such as yoga, running, training, and other activities. It also offers apparel designed for being on the move and fitness-inspired accessories. Its technical athletic apparel, footwear, and accessories, which are sold through a chain of company-operated stores, direct to consumers through e-commerce, outlets, sales to wholesale accounts, license and supply arrangements, recommence, and sales from temporary locations. It also offers in-home connected fitness and associated content subscriptions through lululemon Studio. It operates stores in the United States, Canada, Australia, the United Kingdom, South Korea, Germany and others.</v>
     <v>34000</v>
@@ -2741,25 +2741,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
-    <v>408.21</v>
+    <v>398.13</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45218.998694455469</v>
+    <v>45219.999913089843</v>
     <v>0</v>
-    <v>394.58</v>
-    <v>50134358028</v>
+    <v>389</v>
+    <v>50134380000</v>
     <v>LULULEMON ATHLETICA INC.</v>
     <v>LULULEMON ATHLETICA INC.</v>
-    <v>407.01</v>
+    <v>397.43</v>
     <v>50.176600000000001</v>
-    <v>405.61</v>
     <v>396.19</v>
-    <v>395.68</v>
+    <v>395.82</v>
+    <v>395.73</v>
     <v>126541200</v>
     <v>LULU</v>
     <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
-    <v>2628202</v>
-    <v>2870357</v>
+    <v>1937679</v>
+    <v>2938908</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -3347,10 +3347,10 @@
   <dimension ref="A1:AD120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U94" sqref="U94"/>
+      <selection pane="bottomRight" activeCell="AD109" sqref="AD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4657,15 +4657,15 @@
       </c>
       <c r="AB16" s="30">
         <f>AC103/U3</f>
-        <v>6.1814002543364062</v>
+        <v>6.1814029634112151</v>
       </c>
       <c r="AC16" s="30">
         <f>AC103/U28</f>
-        <v>58.650395446888162</v>
+        <v>58.650421151146467</v>
       </c>
       <c r="AD16" s="31">
         <f>AC103/U108</f>
-        <v>152.94190978645514</v>
+        <v>152.94197681513117</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4895,15 +4895,15 @@
       </c>
       <c r="AB19" s="29">
         <f>AC103/V3</f>
-        <v>5.2370581874020683</v>
+        <v>5.2370604826073333</v>
       </c>
       <c r="AC19" s="30">
         <f>AC103/V28</f>
-        <v>32.491482843810758</v>
+        <v>32.49149708360337</v>
       </c>
       <c r="AD19" s="31">
         <f>AC103/V108</f>
-        <v>48.911568807804876</v>
+        <v>48.911590243902438</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="AD22" s="33">
         <f>V108/AC103</f>
-        <v>2.0445060838866998E-2</v>
+        <v>2.0445051878571152E-2</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="AC96" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="AC97" s="41" cm="1">
         <f t="array" ref="AC97">_FV(A1,"Beta")</f>
-        <v>1.3452999999999999</v>
+        <v>1.3446</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="AC99" s="39">
         <f>(AC96)+((AC97)*(AC98-AC96))</f>
-        <v>9.6078594000000003E-2</v>
+        <v>9.5757752000000002E-2</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="AC102" s="39">
         <f>AC101/AC105</f>
-        <v>1.7635717210474522E-2</v>
+        <v>1.763570961771517E-2</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="AC103" s="42" cm="1">
         <f t="array" ref="AC103">_FV(A1,"Market cap",TRUE)</f>
-        <v>50134358028</v>
+        <v>50134380000</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="AC104" s="39">
         <f>AC103/AC105</f>
-        <v>0.98236428278952548</v>
+        <v>0.98236429038228479</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="AC105" s="43">
         <f>AC101+AC103</f>
-        <v>51034386028</v>
+        <v>51034408000</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="AC107" s="45">
         <f>(AC102*AC94)+(AC104*AC99)</f>
-        <v>9.4384179086236003E-2</v>
+        <v>9.4068996092082816E-2</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -11204,7 +11204,7 @@
       <c r="Y109" s="26"/>
       <c r="Z109" s="57">
         <f>Z108*(1+AC109)/(AC110-AC109)</f>
-        <v>27462672688.419769</v>
+        <v>27587993279.352432</v>
       </c>
       <c r="AA109" s="27" t="s">
         <v>144</v>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="Z110" s="57">
         <f>Z109+Z108</f>
-        <v>29321672688.419769</v>
+        <v>29446993279.352432</v>
       </c>
       <c r="AA110" s="27" t="s">
         <v>141</v>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="AC110" s="47">
         <f>AC107</f>
-        <v>9.4384179086236003E-2</v>
+        <v>9.4068996092082816E-2</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="W112" s="42">
         <f>NPV(AC110,V110,W110,X110,Y110,Z110)</f>
-        <v>22727533547.26825</v>
+        <v>22837371266.62114</v>
       </c>
     </row>
     <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="W115" s="42">
         <f>W112+W113-W114</f>
-        <v>23087376547.26825</v>
+        <v>23197214266.62114</v>
       </c>
     </row>
     <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="W117" s="53">
         <f>W115/W116</f>
-        <v>192.1416890011665</v>
+        <v>193.0557991370363</v>
       </c>
     </row>
     <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="W118" s="54" cm="1">
         <f t="array" ref="W118">_FV(A1,"Price",TRUE)</f>
-        <v>396.19</v>
+        <v>395.82</v>
       </c>
     </row>
     <row r="119" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11323,7 +11323,7 @@
       </c>
       <c r="W119" s="55">
         <f>W117/W118-1</f>
-        <v>-0.51502640399513744</v>
+        <v>-0.51226365737699886</v>
       </c>
     </row>
     <row r="120" spans="22:23" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AC131D-A855-E448-9DD6-C0EC65ECE9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F2A4BD-9469-5047-94CC-F6DAB7C57DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2563,13 +2563,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Retirement"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2585,14 +2587,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2602,6 +2604,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3350,7 +3354,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD109" sqref="AD109"/>
+      <selection pane="bottomRight" activeCell="W97" sqref="W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10231,7 +10235,7 @@
       </c>
       <c r="AC96" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10446,7 +10450,7 @@
       </c>
       <c r="AC99" s="39">
         <f>(AC96)+((AC97)*(AC98-AC96))</f>
-        <v>9.5757752000000002E-2</v>
+        <v>9.6267760000000008E-2</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11104,7 +11108,7 @@
       </c>
       <c r="AC107" s="45">
         <f>(AC102*AC94)+(AC104*AC99)</f>
-        <v>9.4068996092082816E-2</v>
+        <v>9.4570009739092104E-2</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -11204,7 +11208,7 @@
       <c r="Y109" s="26"/>
       <c r="Z109" s="57">
         <f>Z108*(1+AC109)/(AC110-AC109)</f>
-        <v>27587993279.352432</v>
+        <v>27389316275.016899</v>
       </c>
       <c r="AA109" s="27" t="s">
         <v>144</v>
@@ -11235,7 +11239,7 @@
       </c>
       <c r="Z110" s="57">
         <f>Z109+Z108</f>
-        <v>29446993279.352432</v>
+        <v>29248316275.016899</v>
       </c>
       <c r="AA110" s="27" t="s">
         <v>141</v>
@@ -11245,7 +11249,7 @@
       </c>
       <c r="AC110" s="47">
         <f>AC107</f>
-        <v>9.4068996092082816E-2</v>
+        <v>9.4570009739092104E-2</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -11260,7 +11264,7 @@
       </c>
       <c r="W112" s="42">
         <f>NPV(AC110,V110,W110,X110,Y110,Z110)</f>
-        <v>22837371266.62114</v>
+        <v>22663243517.84309</v>
       </c>
     </row>
     <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11287,7 +11291,7 @@
       </c>
       <c r="W115" s="42">
         <f>W112+W113-W114</f>
-        <v>23197214266.62114</v>
+        <v>23023086517.84309</v>
       </c>
     </row>
     <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11305,7 +11309,7 @@
       </c>
       <c r="W117" s="53">
         <f>W115/W116</f>
-        <v>193.0557991370363</v>
+        <v>191.60664359163744</v>
       </c>
     </row>
     <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11323,7 +11327,7 @@
       </c>
       <c r="W119" s="55">
         <f>W117/W118-1</f>
-        <v>-0.51226365737699886</v>
+        <v>-0.51592480523561868</v>
       </c>
     </row>
     <row r="120" spans="22:23" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F2A4BD-9469-5047-94CC-F6DAB7C57DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CD7B0-7C4D-A54E-88A0-9A9A357DA3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2568,13 +2568,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2591,7 +2588,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2603,9 +2600,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2733,11 +2727,9 @@
     <v>Powered by Refinitiv</v>
     <v>419.86</v>
     <v>286.57499999999999</v>
-    <v>1.3446</v>
-    <v>-0.37</v>
-    <v>-9.3389999999999999E-4</v>
-    <v>-0.09</v>
-    <v>-2.274E-4</v>
+    <v>1.3435999999999999</v>
+    <v>8.2100000000000009</v>
+    <v>2.077E-2</v>
     <v>USD</v>
     <v>lululemon athletica inc. is engaged in the design, distribution, and retail of technical athletic apparel, footwear, and accessories. The Company’s segments include company-operated stores and direct to consumer. Its apparel assortment includes items, such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities, such as yoga, running, training, and other activities. It also offers apparel designed for being on the move and fitness-inspired accessories. Its technical athletic apparel, footwear, and accessories, which are sold through a chain of company-operated stores, direct to consumers through e-commerce, outlets, sales to wholesale accounts, license and supply arrangements, recommence, and sales from temporary locations. It also offers in-home connected fitness and associated content subscriptions through lululemon Studio. It operates stores in the United States, Canada, Australia, the United Kingdom, South Korea, Germany and others.</v>
     <v>34000</v>
@@ -2745,25 +2737,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
-    <v>398.13</v>
+    <v>404.87</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45219.999913089843</v>
+    <v>45232.998533610938</v>
     <v>0</v>
-    <v>389</v>
-    <v>50134380000</v>
+    <v>398.7</v>
+    <v>50020490000</v>
     <v>LULULEMON ATHLETICA INC.</v>
     <v>LULULEMON ATHLETICA INC.</v>
-    <v>397.43</v>
-    <v>50.176600000000001</v>
-    <v>396.19</v>
-    <v>395.82</v>
-    <v>395.73</v>
+    <v>398.91</v>
+    <v>51.102400000000003</v>
+    <v>395.29</v>
+    <v>403.5</v>
     <v>126541200</v>
     <v>LULU</v>
     <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
-    <v>1937679</v>
-    <v>2938908</v>
+    <v>110</v>
+    <v>3021894</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2795,8 +2786,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2817,7 +2806,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2834,7 +2822,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2845,16 +2833,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2920,19 +2905,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2977,9 +2956,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2987,9 +2963,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3354,7 +3327,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W97" sqref="W97"/>
+      <selection pane="bottomRight" activeCell="U116" sqref="U116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4661,15 +4634,15 @@
       </c>
       <c r="AB16" s="30">
         <f>AC103/U3</f>
-        <v>6.1814029634112151</v>
+        <v>6.1673607037183071</v>
       </c>
       <c r="AC16" s="30">
         <f>AC103/U28</f>
-        <v>58.650421151146467</v>
+        <v>58.517185306504444</v>
       </c>
       <c r="AD16" s="31">
         <f>AC103/U108</f>
-        <v>152.94197681513117</v>
+        <v>152.5945393532642</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4899,15 +4872,15 @@
       </c>
       <c r="AB19" s="29">
         <f>AC103/V3</f>
-        <v>5.2370604826073333</v>
+        <v>5.2251634806225846</v>
       </c>
       <c r="AC19" s="30">
         <f>AC103/V28</f>
-        <v>32.49149708360337</v>
+        <v>32.417686325340249</v>
       </c>
       <c r="AD19" s="31">
         <f>AC103/V108</f>
-        <v>48.911590243902438</v>
+        <v>48.800478048780491</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5181,7 +5154,7 @@
       </c>
       <c r="AD22" s="33">
         <f>V108/AC103</f>
-        <v>2.0445051878571152E-2</v>
+        <v>2.0491602541278586E-2</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10235,7 +10208,7 @@
       </c>
       <c r="AC96" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10307,7 +10280,7 @@
       </c>
       <c r="AC97" s="41" cm="1">
         <f t="array" ref="AC97">_FV(A1,"Beta")</f>
-        <v>1.3446</v>
+        <v>1.3435999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10450,7 +10423,7 @@
       </c>
       <c r="AC99" s="39">
         <f>(AC96)+((AC97)*(AC98-AC96))</f>
-        <v>9.6267760000000008E-2</v>
+        <v>9.61119E-2</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10663,7 +10636,7 @@
       </c>
       <c r="AC102" s="39">
         <f>AC101/AC105</f>
-        <v>1.763570961771517E-2</v>
+        <v>1.7675154050868062E-2</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10736,7 +10709,7 @@
       </c>
       <c r="AC103" s="42" cm="1">
         <f t="array" ref="AC103">_FV(A1,"Market cap",TRUE)</f>
-        <v>50134380000</v>
+        <v>50020490000</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10808,7 +10781,7 @@
       </c>
       <c r="AC104" s="39">
         <f>AC103/AC105</f>
-        <v>0.98236429038228479</v>
+        <v>0.98232484594913194</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10887,7 +10860,7 @@
       </c>
       <c r="AC105" s="43">
         <f>AC101+AC103</f>
-        <v>51034408000</v>
+        <v>50920518000</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11108,7 +11081,7 @@
       </c>
       <c r="AC107" s="45">
         <f>(AC102*AC94)+(AC104*AC99)</f>
-        <v>9.4570009739092104E-2</v>
+        <v>9.4413107361378368E-2</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -11208,7 +11181,7 @@
       <c r="Y109" s="26"/>
       <c r="Z109" s="57">
         <f>Z108*(1+AC109)/(AC110-AC109)</f>
-        <v>27389316275.016899</v>
+        <v>27451227476.097847</v>
       </c>
       <c r="AA109" s="27" t="s">
         <v>144</v>
@@ -11239,7 +11212,7 @@
       </c>
       <c r="Z110" s="57">
         <f>Z109+Z108</f>
-        <v>29248316275.016899</v>
+        <v>29310227476.097847</v>
       </c>
       <c r="AA110" s="27" t="s">
         <v>141</v>
@@ -11249,7 +11222,7 @@
       </c>
       <c r="AC110" s="47">
         <f>AC107</f>
-        <v>9.4570009739092104E-2</v>
+        <v>9.4413107361378368E-2</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -11264,7 +11237,7 @@
       </c>
       <c r="W112" s="42">
         <f>NPV(AC110,V110,W110,X110,Y110,Z110)</f>
-        <v>22663243517.84309</v>
+        <v>22717502719.903519</v>
       </c>
     </row>
     <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11291,7 +11264,7 @@
       </c>
       <c r="W115" s="42">
         <f>W112+W113-W114</f>
-        <v>23023086517.84309</v>
+        <v>23077345719.903519</v>
       </c>
     </row>
     <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11309,7 +11282,7 @@
       </c>
       <c r="W117" s="53">
         <f>W115/W116</f>
-        <v>191.60664359163744</v>
+        <v>192.05820874484581</v>
       </c>
     </row>
     <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11318,7 +11291,7 @@
       </c>
       <c r="W118" s="54" cm="1">
         <f t="array" ref="W118">_FV(A1,"Price",TRUE)</f>
-        <v>395.82</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="119" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11327,7 +11300,7 @@
       </c>
       <c r="W119" s="55">
         <f>W117/W118-1</f>
-        <v>-0.51592480523561868</v>
+        <v>-0.52401930918253825</v>
       </c>
     </row>
     <row r="120" spans="22:23" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Lululemon.xlsx
+++ b/Consumer/Lululemon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CD7B0-7C4D-A54E-88A0-9A9A357DA3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBABFDA8-4244-624D-A3CE-8B7052927F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2588,7 +2588,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2727,9 +2727,11 @@
     <v>Powered by Refinitiv</v>
     <v>419.86</v>
     <v>286.57499999999999</v>
-    <v>1.3435999999999999</v>
-    <v>8.2100000000000009</v>
-    <v>2.077E-2</v>
+    <v>1.3371999999999999</v>
+    <v>-3.06</v>
+    <v>-7.4700000000000001E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>lululemon athletica inc. is engaged in the design, distribution, and retail of technical athletic apparel, footwear, and accessories. The Company’s segments include company-operated stores and direct to consumer. Its apparel assortment includes items, such as pants, shorts, tops, and jackets designed for a healthy lifestyle, including athletic activities, such as yoga, running, training, and other activities. It also offers apparel designed for being on the move and fitness-inspired accessories. Its technical athletic apparel, footwear, and accessories, which are sold through a chain of company-operated stores, direct to consumers through e-commerce, outlets, sales to wholesale accounts, license and supply arrangements, recommence, and sales from temporary locations. It also offers in-home connected fitness and associated content subscriptions through lululemon Studio. It operates stores in the United States, Canada, Australia, the United Kingdom, South Korea, Germany and others.</v>
     <v>34000</v>
@@ -2737,24 +2739,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1818 Cornwall Ave, 400 - 1818 CORNWALL AVENUE, VANCOUVER, BC, V6J 1C7 CA</v>
-    <v>404.87</v>
+    <v>410.75</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45232.998533610938</v>
+    <v>45239.889423101566</v>
     <v>0</v>
-    <v>398.7</v>
-    <v>50020490000</v>
+    <v>404.69</v>
+    <v>51836360000</v>
     <v>LULULEMON ATHLETICA INC.</v>
     <v>LULULEMON ATHLETICA INC.</v>
-    <v>398.91</v>
-    <v>51.102400000000003</v>
-    <v>395.29</v>
-    <v>403.5</v>
+    <v>410.75</v>
+    <v>51.88</v>
+    <v>409.64</v>
+    <v>406.58</v>
+    <v>406.58</v>
     <v>126541200</v>
     <v>LULU</v>
     <v>LULULEMON ATHLETICA INC. (XNAS:LULU)</v>
-    <v>110</v>
-    <v>3021894</v>
+    <v>919061</v>
+    <v>2976146</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2786,6 +2789,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2806,6 +2811,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2822,7 +2828,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2833,13 +2839,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2905,13 +2914,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2956,6 +2971,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2963,6 +2981,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3324,10 +3345,10 @@
   <dimension ref="A1:AD120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U116" sqref="U116"/>
+      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4634,15 +4655,15 @@
       </c>
       <c r="AB16" s="30">
         <f>AC103/U3</f>
-        <v>6.1673607037183071</v>
+        <v>6.3912514589080498</v>
       </c>
       <c r="AC16" s="30">
         <f>AC103/U28</f>
-        <v>58.517185306504444</v>
+        <v>60.641506785212918</v>
       </c>
       <c r="AD16" s="31">
         <f>AC103/U108</f>
-        <v>152.5945393532642</v>
+        <v>158.13410616229407</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4872,15 +4893,15 @@
       </c>
       <c r="AB19" s="29">
         <f>AC103/V3</f>
-        <v>5.2251634806225846</v>
+        <v>5.4148500992374382</v>
       </c>
       <c r="AC19" s="30">
         <f>AC103/V28</f>
-        <v>32.417686325340249</v>
+        <v>33.594530136098513</v>
       </c>
       <c r="AD19" s="31">
         <f>AC103/V108</f>
-        <v>48.800478048780491</v>
+        <v>50.572058536585367</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5154,7 +5175,7 @@
       </c>
       <c r="AD22" s="33">
         <f>V108/AC103</f>
-        <v>2.0491602541278586E-2</v>
+        <v>1.9773764978868114E-2</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10208,7 +10229,7 @@
       </c>
       <c r="AC96" s="68">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10280,7 +10301,7 @@
       </c>
       <c r="AC97" s="41" cm="1">
         <f t="array" ref="AC97">_FV(A1,"Beta")</f>
-        <v>1.3435999999999999</v>
+        <v>1.3371999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10423,7 +10444,7 @@
       </c>
       <c r="AC99" s="39">
         <f>(AC96)+((AC97)*(AC98-AC96))</f>
-        <v>9.61119E-2</v>
+        <v>9.6911388000000015E-2</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -10636,7 +10657,7 @@
       </c>
       <c r="AC102" s="39">
         <f>AC101/AC105</f>
-        <v>1.7675154050868062E-2</v>
+        <v>1.7066546157844562E-2</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10709,7 +10730,7 @@
       </c>
       <c r="AC103" s="42" cm="1">
         <f t="array" ref="AC103">_FV(A1,"Market cap",TRUE)</f>
-        <v>50020490000</v>
+        <v>51836360000</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -10781,7 +10802,7 @@
       </c>
       <c r="AC104" s="39">
         <f>AC103/AC105</f>
-        <v>0.98232484594913194</v>
+        <v>0.98293345384215547</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10860,7 +10881,7 @@
       </c>
       <c r="AC105" s="43">
         <f>AC101+AC103</f>
-        <v>50920518000</v>
+        <v>52736388000</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -11081,7 +11102,7 @@
       </c>
       <c r="AC107" s="45">
         <f>(AC102*AC94)+(AC104*AC99)</f>
-        <v>9.4413107361378368E-2</v>
+        <v>9.5257445323477227E-2</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -11181,7 +11202,7 @@
       <c r="Y109" s="26"/>
       <c r="Z109" s="57">
         <f>Z108*(1+AC109)/(AC110-AC109)</f>
-        <v>27451227476.097847</v>
+        <v>27121324882.037327</v>
       </c>
       <c r="AA109" s="27" t="s">
         <v>144</v>
@@ -11212,7 +11233,7 @@
       </c>
       <c r="Z110" s="57">
         <f>Z109+Z108</f>
-        <v>29310227476.097847</v>
+        <v>28980324882.037327</v>
       </c>
       <c r="AA110" s="27" t="s">
         <v>141</v>
@@ -11222,7 +11243,7 @@
       </c>
       <c r="AC110" s="47">
         <f>AC107</f>
-        <v>9.4413107361378368E-2</v>
+        <v>9.5257445323477227E-2</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -11237,7 +11258,7 @@
       </c>
       <c r="W112" s="42">
         <f>NPV(AC110,V110,W110,X110,Y110,Z110)</f>
-        <v>22717502719.903519</v>
+        <v>22428396351.457123</v>
       </c>
     </row>
     <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11264,7 +11285,7 @@
       </c>
       <c r="W115" s="42">
         <f>W112+W113-W114</f>
-        <v>23077345719.903519</v>
+        <v>22788239351.457123</v>
       </c>
     </row>
     <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11282,7 +11303,7 @@
       </c>
       <c r="W117" s="53">
         <f>W115/W116</f>
-        <v>192.05820874484581</v>
+        <v>189.65215858923136</v>
       </c>
     </row>
     <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11291,7 +11312,7 @@
       </c>
       <c r="W118" s="54" cm="1">
         <f t="array" ref="W118">_FV(A1,"Price",TRUE)</f>
-        <v>403.5</v>
+        <v>406.58</v>
       </c>
     </row>
     <row r="119" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -11300,7 +11321,7 @@
       </c>
       <c r="W119" s="55">
         <f>W117/W118-1</f>
-        <v>-0.52401930918253825</v>
+        <v>-0.53354282407095432</v>
       </c>
     </row>
     <row r="120" spans="22:23" ht="20" x14ac:dyDescent="0.25">
